--- a/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
@@ -1522,6 +1522,19 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="46" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="11" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,19 +1565,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="11" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Euro" xfId="1"/>
@@ -1631,28 +1631,23 @@
       <sheetName val="Libor"/>
       <sheetName val="Tibor"/>
       <sheetName val="LiborSwapIsdaFixAm"/>
+      <sheetName val="LiborSwapIsdaFixPm"/>
       <sheetName val="LiborSwapForBasisCalc"/>
-      <sheetName val="LiborSwapIsdaFixPm"/>
+      <sheetName val="OIS"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
-      <sheetName val="BasisSwapxM12M"/>
       <sheetName val="Deposits"/>
       <sheetName val="FRA"/>
-      <sheetName val="Futures1M"/>
+      <sheetName val="Futures3M_TIBOR"/>
       <sheetName val="Futures3M"/>
-      <sheetName val="ImmFra6M "/>
       <sheetName val="FuturesHWConvAdj"/>
-      <sheetName val="OIS"/>
       <sheetName val="Swaps1M"/>
-      <sheetName val="SwapsIMMDated"/>
+      <sheetName val="Swap3M_TIBOR"/>
       <sheetName val="Swap3M"/>
       <sheetName val="Swap6M"/>
       <sheetName val="ON"/>
       <sheetName val="1M (2)"/>
       <sheetName val="3M (2)"/>
-      <sheetName val="SFIX3"/>
-      <sheetName val="IB365"/>
-      <sheetName val="IBOR"/>
     </sheetNames>
     <definedNames>
       <definedName name="LastFixingsTrigger" refersTo="='General Settings'!$D$8"/>
@@ -1662,7 +1657,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="8">
@@ -1676,16 +1671,28 @@
       <sheetData sheetId="3">
         <row r="7">
           <cell r="D7" t="str">
-            <v>3M</v>
+            <v>6M</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>3M</v>
+            <v>6M</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6M</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>6M</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
         <row r="7">
           <cell r="D7" t="str">
             <v>Fwd Curve</v>
@@ -1697,27 +1704,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
+      <sheetData sheetId="6">
         <row r="7">
           <cell r="D7" t="str">
-            <v>3M</v>
+            <v>3W</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>3M</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>6L</v>
+            <v>1M</v>
           </cell>
         </row>
       </sheetData>
@@ -1736,12 +1731,12 @@
       <sheetData sheetId="8">
         <row r="7">
           <cell r="D7" t="str">
-            <v>12L</v>
+            <v>6L</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>12L</v>
+            <v>6L</v>
           </cell>
         </row>
       </sheetData>
@@ -1793,32 +1788,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>V4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>X4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3W</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>1M</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
         <row r="7">
           <cell r="D7" t="str">
             <v>X1S</v>
@@ -1830,19 +1801,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
+      <sheetData sheetId="15">
         <row r="7">
-          <cell r="D7">
-            <v>12</v>
+          <cell r="D7" t="str">
+            <v>3T</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="D8">
-            <v>12</v>
+          <cell r="D8" t="str">
+            <v>3T</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18">
+      <sheetData sheetId="16">
         <row r="7">
           <cell r="D7" t="str">
             <v>3L</v>
@@ -1854,6 +1825,19 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="17">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6L</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>6L</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19">
         <row r="7">
           <cell r="D7" t="str">
@@ -1866,8 +1850,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
         <row r="7">
           <cell r="D7" t="str">
             <v>6L</v>
@@ -1876,54 +1859,6 @@
         <row r="8">
           <cell r="D8" t="str">
             <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>JPY-4Y=</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>JPY-5Y=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>JPY-SWD=</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>JPY-2WD=</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>JPY-SWD=</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>JPY-2WD=</v>
           </cell>
         </row>
       </sheetData>
@@ -2247,18 +2182,18 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="243"/>
-      <c r="G2" s="244" t="s">
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="252"/>
+      <c r="G2" s="253" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="246"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="255"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="133"/>
@@ -2486,22 +2421,22 @@
     </row>
     <row r="14" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="247" t="s">
+      <c r="B15" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="242" t="s">
+      <c r="C15" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="243"/>
-      <c r="G15" s="247" t="s">
+      <c r="D15" s="251"/>
+      <c r="E15" s="252"/>
+      <c r="G15" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="242" t="s">
+      <c r="H15" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="242"/>
-      <c r="J15" s="243"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="252"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="221"/>
@@ -2520,7 +2455,7 @@
       </c>
       <c r="D17" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="E17" s="223"/>
       <c r="G17" s="221"/>
@@ -2528,7 +2463,7 @@
         <v>53</v>
       </c>
       <c r="I17" s="55">
-        <v>41796.72315972222</v>
+        <v>41800.738935185182</v>
       </c>
       <c r="J17" s="223"/>
     </row>
@@ -2539,7 +2474,7 @@
       </c>
       <c r="D18" s="55" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00335#0001</v>
+        <v>obj_00378#0000</v>
       </c>
       <c r="E18" s="223"/>
       <c r="G18" s="221"/>
@@ -2548,7 +2483,7 @@
       </c>
       <c r="I18" s="55">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41796</v>
+        <v>41800</v>
       </c>
       <c r="J18" s="223"/>
     </row>
@@ -2568,7 +2503,7 @@
       </c>
       <c r="I19" s="228">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="223"/>
     </row>
@@ -2608,65 +2543,65 @@
       <c r="E22" s="131"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="250"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="259"/>
     </row>
     <row r="24" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="251"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="253"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="243"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="251"/>
-      <c r="C25" s="254" t="s">
+      <c r="B25" s="241"/>
+      <c r="C25" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="255" t="s">
+      <c r="D25" s="245" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="253"/>
+      <c r="E25" s="243"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="251"/>
-      <c r="C26" s="254" t="s">
+      <c r="B26" s="241"/>
+      <c r="C26" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="256" t="s">
+      <c r="D26" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="253"/>
+      <c r="E26" s="243"/>
     </row>
     <row r="27" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="251"/>
-      <c r="C27" s="254" t="s">
+      <c r="B27" s="241"/>
+      <c r="C27" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="255" t="s">
+      <c r="D27" s="245" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="253"/>
+      <c r="E27" s="243"/>
     </row>
     <row r="28" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="251"/>
-      <c r="C28" s="254" t="s">
+      <c r="B28" s="241"/>
+      <c r="C28" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="255" t="str">
+      <c r="D28" s="245" t="str">
         <f>D25&amp;"("&amp;D26&amp;","&amp;D27&amp;")"</f>
         <v>JoinHolidays(UnitedKingdom::Exchange,Japan)</v>
       </c>
-      <c r="E28" s="253"/>
+      <c r="E28" s="243"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="257"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="258"/>
-      <c r="E29" s="259"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2704,7 +2639,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2787,7 +2724,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00373#0001</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -2799,11 +2736,11 @@
       </c>
       <c r="E2" s="103">
         <f>SettlementDate</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F2" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
       <c r="G2" s="105">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
@@ -2811,11 +2748,11 @@
       </c>
       <c r="H2" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>6.4109589041194692E-4</v>
+        <v>6.4109589040961534E-4</v>
       </c>
       <c r="I2" s="107">
         <f>G2-H2</f>
-        <v>3.3750410958805312E-4</v>
+        <v>3.375041095903847E-4</v>
       </c>
       <c r="J2" s="108" t="b">
         <v>0</v>
@@ -2829,20 +2766,20 @@
       </c>
       <c r="O2" s="111">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" s="111">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="108"/>
       <c r="R2" s="122">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>300</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="S2" s="122">
         <f>(O2+N2)/2</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T2" s="122">
         <v>1</v>
@@ -2855,7 +2792,7 @@
       </c>
       <c r="B3" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00332#0002</v>
+        <v>obj_00375#0001</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -2867,11 +2804,11 @@
       </c>
       <c r="E3" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41802</v>
       </c>
       <c r="F3" s="97">
         <f>F2</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
       <c r="G3" s="98">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
@@ -2879,11 +2816,11 @@
       </c>
       <c r="H3" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>6.4110549909362515E-4</v>
+        <v>6.4109589040961534E-4</v>
       </c>
       <c r="I3" s="100">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>3.374945009063749E-4</v>
+        <v>3.375041095903847E-4</v>
       </c>
       <c r="J3" s="108" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -2900,24 +2837,24 @@
       <c r="M3" s="109"/>
       <c r="N3" s="111">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="111">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" s="111">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="108"/>
       <c r="R3" s="122">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>290.33333333333337</v>
+        <v>341.33333333333331</v>
       </c>
       <c r="S3" s="122">
         <f>(O3+N3)/2</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="T3" s="122">
         <v>1</v>
@@ -2930,7 +2867,7 @@
       </c>
       <c r="B4" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037a#0001</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -2941,11 +2878,11 @@
       </c>
       <c r="E4" s="53">
         <f>F3</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
       <c r="F4" s="54">
         <f>F5</f>
-        <v>41862</v>
+        <v>41863</v>
       </c>
       <c r="G4" s="27" t="e">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
@@ -2953,7 +2890,7 @@
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>6.4106164191307657E-4</v>
+        <v>6.4105935881066253E-4</v>
       </c>
       <c r="I4" s="16" t="e">
         <f>G4-H4</f>
@@ -2974,23 +2911,23 @@
       <c r="M4" s="5"/>
       <c r="N4" s="112">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" s="112">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P4" s="112">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R4" s="91">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2201.3333333333335</v>
+        <v>2232.333333333333</v>
       </c>
       <c r="S4" s="91">
         <f>(O4+N4)/2</f>
-        <v>46</v>
+        <v>46.5</v>
       </c>
       <c r="T4" s="91">
         <v>1</v>
@@ -3006,11 +2943,11 @@
       </c>
       <c r="E5" s="53">
         <f>SettlementDate</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F5" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41862</v>
+        <v>41863</v>
       </c>
       <c r="G5" s="50" t="e">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -3037,7 +2974,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00379#0001</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -3049,11 +2986,11 @@
       </c>
       <c r="E6" s="103">
         <f>SettlementDate</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F6" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41892</v>
+        <v>41894</v>
       </c>
       <c r="G6" s="105">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
@@ -3061,11 +2998,11 @@
       </c>
       <c r="H6" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>6.4109589041113594E-4</v>
+        <v>6.1643835616455376E-4</v>
       </c>
       <c r="I6" s="107">
         <f t="shared" si="1"/>
-        <v>7.0890410958886413E-4</v>
+        <v>7.3356164383544631E-4</v>
       </c>
       <c r="J6" s="108" t="b">
         <v>0</v>
@@ -3105,7 +3042,7 @@
       </c>
       <c r="B7" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00331#0002</v>
+        <v>obj_00374#0001</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -3117,11 +3054,11 @@
       </c>
       <c r="E7" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41802</v>
       </c>
       <c r="F7" s="97">
         <f>F6</f>
-        <v>41892</v>
+        <v>41894</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
@@ -3129,11 +3066,11 @@
       </c>
       <c r="H7" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>6.410998547363853E-4</v>
+        <v>6.1643835616455376E-4</v>
       </c>
       <c r="I7" s="100">
         <f t="shared" si="1"/>
-        <v>7.0890014526361477E-4</v>
+        <v>7.3356164383544631E-4</v>
       </c>
       <c r="J7" s="108" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
@@ -3144,7 +3081,7 @@
       <c r="M7" s="109"/>
       <c r="N7" s="111">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="111">
         <f t="shared" si="3"/>
@@ -3152,16 +3089,16 @@
       </c>
       <c r="P7" s="111">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="108"/>
       <c r="R7" s="122">
         <f t="shared" si="4"/>
-        <v>2791</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S7" s="122">
         <f t="shared" si="5"/>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="T7" s="122">
         <v>1</v>
@@ -3192,11 +3129,11 @@
       <c r="M8" s="109"/>
       <c r="N8" s="111">
         <f t="shared" si="2"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="O8" s="111">
         <f t="shared" si="3"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="P8" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3209,7 +3146,7 @@
       </c>
       <c r="S8" s="122">
         <f t="shared" si="5"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="T8" s="122">
         <v>1</v>
@@ -3240,20 +3177,20 @@
       </c>
       <c r="K9" s="99">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>6.264397388355933E-10</v>
+        <v>1.3454955428348427E-7</v>
       </c>
       <c r="L9" s="99">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.0884313924738068E-4</v>
+        <v>7.2118308484136573E-4</v>
       </c>
       <c r="M9" s="109"/>
       <c r="N9" s="111">
         <f t="shared" si="2"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="O9" s="111">
         <f t="shared" si="3"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="P9" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3266,18 +3203,18 @@
       </c>
       <c r="S9" s="122">
         <f t="shared" si="5"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="T9" s="122">
         <v>1</v>
       </c>
       <c r="V9" s="82">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2791</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="W9" s="83">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="X9" s="84">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -3285,25 +3222,25 @@
       </c>
       <c r="Z9" s="67">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>4.6722025163461978E-10</v>
+        <v>-4.7916534998041182E-13</v>
       </c>
       <c r="AB9" s="67">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>7.0890014526361477E-4</v>
+        <v>7.3356164383544631E-4</v>
       </c>
       <c r="AD9" s="73">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>5.2038161318300035E-4</v>
+        <v>5.1229508196721303E-4</v>
       </c>
       <c r="AE9" s="74">
-        <v>-1.0163703382480474E-3</v>
+        <v>-1.0775862068965515E-3</v>
       </c>
       <c r="AF9" s="75">
-        <v>4.9598872506504722E-4</v>
+        <v>5.6529112492933857E-4</v>
       </c>
       <c r="AH9" s="70">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>1.0842021724855044E-18</v>
+        <v>-5.4210108624275222E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -3313,7 +3250,7 @@
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037b#0001</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -3337,7 +3274,7 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>6.4042339973060245E-4</v>
+        <v>6.1364582572549125E-4</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3358,32 +3295,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="112">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O10" s="112">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P10" s="112">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R10" s="91">
         <f t="shared" si="4"/>
-        <v>3621.3333333333335</v>
+        <v>3409.3333333333335</v>
       </c>
       <c r="S10" s="91">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T10" s="91">
         <v>1</v>
       </c>
       <c r="V10" s="85">
-        <v>6481.333333333333</v>
+        <v>6789.333333333333</v>
       </c>
       <c r="W10" s="86">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X10" s="87">
         <v>1</v>
@@ -3392,25 +3329,25 @@
         <v>46</v>
       </c>
       <c r="Z10" s="68">
-        <v>-5.5278217853959341E-8</v>
+        <v>2.6915852507036314E-7</v>
       </c>
       <c r="AA10" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB10" s="68">
-        <v>7.0893835808768374E-4</v>
+        <v>7.421728153095893E-4</v>
       </c>
       <c r="AD10" s="76">
-        <v>-9.5750216825672071E-2</v>
+        <v>-9.4774590163934413E-2</v>
       </c>
       <c r="AE10" s="77">
-        <v>0.15576214223764079</v>
+        <v>0.16487068965517238</v>
       </c>
       <c r="AF10" s="78">
-        <v>-6.001192541196871E-2</v>
+        <v>-7.0096099491237976E-2</v>
       </c>
       <c r="AH10" s="71">
-        <v>1.951563910473908E-18</v>
+        <v>-6.5052130349130266E-19</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -3420,7 +3357,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037c#0001</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -3444,7 +3381,7 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>6.4285295262164635E-4</v>
+        <v>6.0717889088916007E-4</v>
       </c>
       <c r="I11" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3465,53 +3402,53 @@
       <c r="M11" s="5"/>
       <c r="N11" s="112">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O11" s="112">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P11" s="112">
         <f t="shared" si="6"/>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R11" s="91">
         <f t="shared" si="4"/>
-        <v>7429.333333333333</v>
+        <v>7105.333333333333</v>
       </c>
       <c r="S11" s="91">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T11" s="91">
         <v>1</v>
       </c>
       <c r="V11" s="88">
-        <v>12369.333333333334</v>
+        <v>12154.333333333334</v>
       </c>
       <c r="W11" s="89">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X11" s="90">
         <v>1</v>
       </c>
       <c r="Z11" s="69">
-        <v>7.1011129245365876E-4</v>
+        <v>7.2118170356738317E-4</v>
       </c>
       <c r="AB11" s="69">
-        <v>7.0992044795798045E-4</v>
+        <v>7.499758418145271E-4</v>
       </c>
       <c r="AD11" s="79">
-        <v>3.9042497831743255</v>
+        <v>3.9142759562841527</v>
       </c>
       <c r="AE11" s="80">
-        <v>-4.250487857762355</v>
+        <v>-4.5438218390804597</v>
       </c>
       <c r="AF11" s="81">
-        <v>1.3462380745880296</v>
+        <v>1.6295458827963067</v>
       </c>
       <c r="AH11" s="72">
-        <v>3.1441863002079629E-18</v>
+        <v>-5.4210108624275222E-19</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -3520,7 +3457,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -3532,11 +3469,11 @@
       </c>
       <c r="E12" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
       <c r="F12" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="G12" s="50">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -3544,11 +3481,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>6.4106164191231633E-4</v>
+        <v>6.0782718469041077E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>7.0893835808768374E-4</v>
+        <v>7.421728153095893E-4</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -3556,32 +3493,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>6.264397388355933E-10</v>
+        <v>1.3454955428348427E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.0884313924738068E-4</v>
+        <v>7.2118308484136573E-4</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="112">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O12" s="112">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P12" s="112">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="R12" s="91">
         <f t="shared" si="4"/>
-        <v>6481.333333333333</v>
+        <v>6789.333333333333</v>
       </c>
       <c r="S12" s="91">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T12" s="91">
         <v>1</v>
@@ -3596,7 +3533,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00370#0001</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -3608,11 +3545,11 @@
       </c>
       <c r="E13" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41863</v>
       </c>
       <c r="F13" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41954</v>
+        <v>41955</v>
       </c>
       <c r="G13" s="50">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -3620,11 +3557,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>6.4007955204201962E-4</v>
+        <v>6.0002415818547297E-4</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>7.0992044795798045E-4</v>
+        <v>7.499758418145271E-4</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -3632,32 +3569,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>8.1624215549254421E-9</v>
+        <v>1.3454260638590817E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.081573649021165E-4</v>
+        <v>7.2118372404794272E-4</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="112">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="112">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P13" s="112">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R13" s="91">
         <f t="shared" si="4"/>
-        <v>12369.333333333334</v>
+        <v>12154.333333333334</v>
       </c>
       <c r="S13" s="91">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T13" s="91">
         <v>1</v>
@@ -3672,7 +3609,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -3684,11 +3621,11 @@
       </c>
       <c r="E14" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41892</v>
+        <v>41894</v>
       </c>
       <c r="F14" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41983</v>
+        <v>41985</v>
       </c>
       <c r="G14" s="50">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
@@ -3696,11 +3633,11 @@
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>5.9141296549541987E-4</v>
+        <v>6.16341261308051E-4</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>7.585870345045802E-4</v>
+        <v>7.3365873869194907E-4</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -3708,11 +3645,11 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>2.7003744152698603E-7</v>
+        <v>5.3057298635388944E-10</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>6.84326738084659E-4</v>
+        <v>7.3351283112070174E-4</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="112">
@@ -3748,7 +3685,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -3760,11 +3697,11 @@
       </c>
       <c r="E15" s="103">
         <f>SettlementDate</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F15" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41983</v>
+        <v>41985</v>
       </c>
       <c r="G15" s="105">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
@@ -3816,7 +3753,7 @@
       </c>
       <c r="B16" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00333#0002</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -3828,11 +3765,11 @@
       </c>
       <c r="E16" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41802</v>
       </c>
       <c r="F16" s="97">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41982</v>
+        <v>41985</v>
       </c>
       <c r="G16" s="98">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
@@ -3840,11 +3777,11 @@
       </c>
       <c r="H16" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>6.1726123800877211E-4</v>
+        <v>6.1643835616435915E-4</v>
       </c>
       <c r="I16" s="100">
         <f t="shared" si="1"/>
-        <v>1.2006387619912279E-3</v>
+        <v>1.2014616438356411E-3</v>
       </c>
       <c r="J16" s="108" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
@@ -3855,24 +3792,24 @@
       <c r="M16" s="109"/>
       <c r="N16" s="111">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" s="111">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="122">
         <f t="shared" si="8"/>
-        <v>10981</v>
+        <v>11163</v>
       </c>
       <c r="S16" s="122">
         <f t="shared" si="9"/>
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="T16" s="122">
         <v>1</v>
@@ -3903,11 +3840,11 @@
       <c r="M17" s="109"/>
       <c r="N17" s="111">
         <f t="shared" si="2"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" si="3"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="P17" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3920,7 +3857,7 @@
       </c>
       <c r="S17" s="122">
         <f t="shared" si="9"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="T17" s="122">
         <v>1</v>
@@ -3951,20 +3888,20 @@
       </c>
       <c r="K18" s="99">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-3.331718970181937E-8</v>
+        <v>-1.5723874883343609E-7</v>
       </c>
       <c r="L18" s="99">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2066691733272571E-3</v>
+        <v>1.23023633487216E-3</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="111">
         <f t="shared" si="2"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" si="3"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="P18" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3977,18 +3914,18 @@
       </c>
       <c r="S18" s="122">
         <f t="shared" si="9"/>
-        <v>-41800</v>
+        <v>-41802</v>
       </c>
       <c r="T18" s="122">
         <v>1</v>
       </c>
       <c r="V18" s="82">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>10981</v>
+        <v>11163</v>
       </c>
       <c r="W18" s="83">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>90.5</v>
+        <v>91.5</v>
       </c>
       <c r="X18" s="84">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -3996,25 +3933,25 @@
       </c>
       <c r="Z18" s="67">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>1.7017064290611148E-9</v>
+        <v>9.9010787776119224E-9</v>
       </c>
       <c r="AB18" s="67">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.2006387619912279E-3</v>
+        <v>1.2014616438356411E-3</v>
       </c>
       <c r="AD18" s="73">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.201109570041612E-4</v>
+        <v>5.0808705224828562E-4</v>
       </c>
       <c r="AE18" s="74">
-        <v>-1.073777459621494E-3</v>
+        <v>-1.0774949556299855E-3</v>
       </c>
       <c r="AF18" s="75">
-        <v>5.5366650261733281E-4</v>
+        <v>5.694079033816996E-4</v>
       </c>
       <c r="AH18" s="70">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>1.0842021724855044E-18</v>
+        <v>-3.2526065174565133E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -4023,7 +3960,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00372#0001</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -4035,11 +3972,11 @@
       </c>
       <c r="E19" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41830</v>
+        <v>41834</v>
       </c>
       <c r="F19" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
@@ -4047,11 +3984,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>6.0265481653182793E-4</v>
+        <v>6.1528453359098153E-4</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>1.1973451834681719E-3</v>
+        <v>1.1847154664090184E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -4059,41 +3996,41 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.9902704894787611E-8</v>
+        <v>-2.5763349887111764E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2096711515771845E-3</v>
+        <v>1.2486085741290555E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="112">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O19" s="112">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P19" s="112">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R19" s="91">
         <f t="shared" si="8"/>
-        <v>18166.333333333336</v>
+        <v>18197.333333333336</v>
       </c>
       <c r="S19" s="91">
         <f t="shared" si="9"/>
-        <v>123.5</v>
+        <v>124</v>
       </c>
       <c r="T19" s="91">
         <v>1</v>
       </c>
       <c r="V19" s="85">
-        <v>18166.333333333336</v>
+        <v>18197.333333333336</v>
       </c>
       <c r="W19" s="86">
-        <v>123.5</v>
+        <v>124</v>
       </c>
       <c r="X19" s="87">
         <v>1</v>
@@ -4102,25 +4039,25 @@
         <v>46</v>
       </c>
       <c r="Z19" s="68">
-        <v>-4.7033049852535764E-7</v>
+        <v>-2.6582666433212201E-6</v>
       </c>
       <c r="AA19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="68">
-        <v>1.1973451834681719E-3</v>
+        <v>1.1847154664090184E-3</v>
       </c>
       <c r="AD19" s="76">
-        <v>-0.14355062413314851</v>
+        <v>-0.1407401134727751</v>
       </c>
       <c r="AE19" s="77">
-        <v>0.26410451433940335</v>
+        <v>0.26398334408881624</v>
       </c>
       <c r="AF19" s="78">
-        <v>-0.12055389020625484</v>
+        <v>-0.1232432306160411</v>
       </c>
       <c r="AH19" s="71">
-        <v>6.5052130349130266E-19</v>
+        <v>-5.4210108624275222E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -4129,7 +4066,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036f#0001</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4141,7 +4078,7 @@
       </c>
       <c r="E20" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41863</v>
       </c>
       <c r="F20" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
@@ -4153,11 +4090,11 @@
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>6.0267526177906696E-4</v>
+        <v>6.1283890042673761E-4</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>1.197324738220933E-3</v>
+        <v>1.1871610995732623E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4165,62 +4102,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.5890810705428893E-8</v>
+        <v>-1.1626458749901408E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2053249987289106E-3</v>
+        <v>1.2227380633479607E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="112">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="112">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P20" s="112">
         <f t="shared" si="7"/>
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R20" s="91">
         <f t="shared" si="8"/>
-        <v>26722.333333333336</v>
+        <v>26230.333333333332</v>
       </c>
       <c r="S20" s="91">
         <f t="shared" si="9"/>
-        <v>154.5</v>
+        <v>153</v>
       </c>
       <c r="T20" s="91">
         <v>1</v>
       </c>
       <c r="V20" s="88">
-        <v>26722.333333333336</v>
+        <v>26230.333333333332</v>
       </c>
       <c r="W20" s="89">
-        <v>154.5</v>
+        <v>153</v>
       </c>
       <c r="X20" s="90">
         <v>1</v>
       </c>
       <c r="Z20" s="69">
-        <v>1.2245172338102538E-3</v>
+        <v>1.3341672993050476E-3</v>
       </c>
       <c r="AB20" s="69">
-        <v>1.197324738220933E-3</v>
+        <v>1.1871610995732623E-3</v>
       </c>
       <c r="AD20" s="79">
-        <v>8.2799930651872469</v>
+        <v>8.2059446185113085</v>
       </c>
       <c r="AE20" s="80">
-        <v>-12.110308263612378</v>
+        <v>-12.126399794429158</v>
       </c>
       <c r="AF20" s="81">
-        <v>4.830315198425132</v>
+        <v>4.9204551759178488</v>
       </c>
       <c r="AH20" s="72">
-        <v>4.3368086899420177E-19</v>
+        <v>-8.2399365108898337E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -4229,7 +4166,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4241,11 +4178,11 @@
       </c>
       <c r="E21" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41892</v>
+        <v>41894</v>
       </c>
       <c r="F21" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42073</v>
+        <v>42075</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
@@ -4253,11 +4190,11 @@
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>6.038063198537364E-4</v>
+        <v>6.1634126130805111E-4</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>1.1961936801462634E-3</v>
+        <v>1.1836587386919489E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4265,11 +4202,11 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.4158053505241608E-8</v>
+        <v>-9.7818160130176517E-8</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2050113696756765E-3</v>
+        <v>1.2193623671394635E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="112">
@@ -4306,7 +4243,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036d#0001</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4318,11 +4255,11 @@
       </c>
       <c r="E22" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="F22" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42104</v>
+        <v>42108</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
@@ -4330,11 +4267,11 @@
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>6.0103710904389697E-4</v>
+        <v>5.998067238031726E-4</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>1.198962890956103E-3</v>
+        <v>1.2001932761968274E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4342,32 +4279,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-6.8402899392853634E-9</v>
+        <v>-5.1350916551162829E-9</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2018768544702386E-3</v>
+        <v>1.2024013656085273E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="112">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O22" s="112">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P22" s="112">
         <f t="shared" si="7"/>
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="R22" s="91">
         <f t="shared" si="8"/>
-        <v>48129.333333333328</v>
+        <v>48985.333333333328</v>
       </c>
       <c r="S22" s="91">
         <f t="shared" si="9"/>
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="T22" s="91">
         <v>1</v>
@@ -4383,7 +4320,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036c#0001</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4395,23 +4332,23 @@
       </c>
       <c r="E23" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="F23" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.9508603563005976E-4</v>
+        <v>5.8190702791322089E-4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>1.2049139643699402E-3</v>
+        <v>1.168092972086779E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4419,11 +4356,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.3925740647271317E-8</v>
+        <v>-1.0976536759494089E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.1981182029340719E-3</v>
+        <v>1.2215487061055152E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="112">
@@ -4432,19 +4369,19 @@
       </c>
       <c r="O23" s="112">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P23" s="112">
         <f t="shared" si="7"/>
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R23" s="91">
         <f t="shared" si="8"/>
-        <v>62296.333333333328</v>
+        <v>62022.333333333336</v>
       </c>
       <c r="S23" s="91">
         <f t="shared" si="9"/>
-        <v>244</v>
+        <v>243.5</v>
       </c>
       <c r="T23" s="91">
         <v>1</v>
@@ -4460,7 +4397,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -4472,23 +4409,23 @@
       </c>
       <c r="E24" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41983</v>
+        <v>41985</v>
       </c>
       <c r="F24" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>6.1624525191640524E-4</v>
+        <v>5.6681019324561922E-4</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>1.1837547480835946E-3</v>
+        <v>1.1831898067543806E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4496,11 +4433,11 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.6005487486739205E-8</v>
+        <v>-5.0059827619891699E-8</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2089657552263277E-3</v>
+        <v>1.2106225922900813E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="112">
@@ -4533,7 +4470,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036e#0001</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -4545,23 +4482,23 @@
       </c>
       <c r="E25" s="103">
         <f>SettlementDate</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F25" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="G25" s="105">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>3.3571E-3</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="H25" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>6.1643835616447993E-4</v>
+        <v>5.9178082191774304E-4</v>
       </c>
       <c r="I25" s="107">
         <f t="shared" si="1"/>
-        <v>2.7406616438355202E-3</v>
+        <v>2.7439191780822565E-3</v>
       </c>
       <c r="J25" s="108" t="b">
         <v>0</v>
@@ -4601,7 +4538,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00334#0002</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -4613,23 +4550,23 @@
       </c>
       <c r="E26" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41799</v>
+        <v>41802</v>
       </c>
       <c r="F26" s="97">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42164</v>
+        <v>42167</v>
       </c>
       <c r="G26" s="98">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>3.3571E-3</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="H26" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>6.1645769044616243E-4</v>
+        <v>5.9178082191774304E-4</v>
       </c>
       <c r="I26" s="100">
         <f t="shared" si="1"/>
-        <v>2.7406423095538376E-3</v>
+        <v>2.7439191780822565E-3</v>
       </c>
       <c r="J26" s="108" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -4646,24 +4583,24 @@
       <c r="M26" s="109"/>
       <c r="N26" s="111">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="111">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P26" s="111">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="122">
         <f t="shared" si="8"/>
-        <v>44044.333333333328</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S26" s="122">
         <f t="shared" si="9"/>
-        <v>181.5</v>
+        <v>182.5</v>
       </c>
       <c r="T26" s="122">
         <v>1</v>
@@ -4676,7 +4613,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00371#0001</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -4688,11 +4625,11 @@
       </c>
       <c r="E27" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="F27" s="54">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42531</v>
+        <v>42534</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -4700,7 +4637,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.6570269691259166E-4</v>
+        <v>6.4097754136601206E-4</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4725,19 +4662,19 @@
       </c>
       <c r="O27" s="112">
         <f t="shared" si="3"/>
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P27" s="112">
         <f t="shared" si="7"/>
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="R27" s="91">
         <f t="shared" si="8"/>
-        <v>311467</v>
+        <v>312076.33333333331</v>
       </c>
       <c r="S27" s="91">
         <f t="shared" si="9"/>
-        <v>548</v>
+        <v>548.5</v>
       </c>
       <c r="T27" s="91">
         <v>1</v>
@@ -4784,7 +4721,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="58" t="b">
         <v>1</v>
@@ -4809,11 +4746,11 @@
       </c>
       <c r="V30" s="117">
         <f>Z9</f>
-        <v>4.6722025163461978E-10</v>
+        <v>-4.7916534998041182E-13</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>1.7017064290611148E-9</v>
+        <v>9.9010787776119224E-9</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -4822,19 +4759,19 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>3.374945009063749E-4</v>
+        <v>3.375041095903847E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>7.0890014526361477E-4</v>
+        <v>7.3356164383544631E-4</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>1.2006387619912279E-3</v>
+        <v>1.2014616438356411E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>2.7406423095538376E-3</v>
+        <v>2.7439191780822565E-3</v>
       </c>
       <c r="M31" s="58" t="s">
         <v>45</v>
@@ -4845,11 +4782,11 @@
       </c>
       <c r="O31" s="57">
         <f>K9</f>
-        <v>6.264397388355933E-10</v>
+        <v>1.3454955428348427E-7</v>
       </c>
       <c r="P31" s="57">
         <f>AVERAGE(K19:K21)</f>
-        <v>-3.331718970181937E-8</v>
+        <v>-1.5723874883343609E-7</v>
       </c>
       <c r="Q31" s="57" t="e">
         <f>K26</f>
@@ -4860,11 +4797,11 @@
       </c>
       <c r="V31" s="63">
         <f>Z10</f>
-        <v>-5.5278217853959341E-8</v>
+        <v>2.6915852507036314E-7</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-4.7033049852535764E-7</v>
+        <v>-2.6582666433212201E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -4873,19 +4810,19 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>3.374945009063749E-4</v>
+        <v>3.375041095903847E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>7.0890014526361477E-4</v>
+        <v>7.3356164383544631E-4</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>1.2006387619912279E-3</v>
+        <v>1.2014616438356411E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>2.7406423095538376E-3</v>
+        <v>2.7439191780822565E-3</v>
       </c>
       <c r="M32" s="58" t="s">
         <v>44</v>
@@ -4896,11 +4833,11 @@
       </c>
       <c r="O32" s="57">
         <f>L9</f>
-        <v>7.0884313924738068E-4</v>
+        <v>7.2118308484136573E-4</v>
       </c>
       <c r="P32" s="57">
         <f>L18</f>
-        <v>1.2066691733272571E-3</v>
+        <v>1.23023633487216E-3</v>
       </c>
       <c r="Q32" s="57" t="e">
         <f>L26</f>
@@ -4911,11 +4848,11 @@
       </c>
       <c r="V32" s="63">
         <f>Z11</f>
-        <v>7.1011129245365876E-4</v>
+        <v>7.2118170356738317E-4</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.2245172338102538E-3</v>
+        <v>1.3341672993050476E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -4973,7 +4910,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="123" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0035f#0001</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -4984,27 +4921,27 @@
       </c>
       <c r="E34" s="51">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41801</v>
-      </c>
-      <c r="G34" s="32" t="e">
+        <v>41803</v>
+      </c>
+      <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>#NUM!</v>
+        <v>9.7225504479804342E-4</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>1.350231326956116E-3</v>
+        <v>1.3683125790431051E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>1.841969943683729E-3</v>
+        <v>1.8362125790432997E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>3.3819734912463387E-3</v>
+        <v>3.3786701132899151E-3</v>
       </c>
       <c r="K34" s="124">
         <f>F34-$E$6</f>
@@ -5012,7 +4949,7 @@
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>6.4133118169250119E-4</v>
+        <v>6.3475093520765872E-4</v>
       </c>
       <c r="N34" s="62" t="e">
         <f>N$31*$K34+N$32</f>
@@ -5020,11 +4957,11 @@
       </c>
       <c r="O34" s="63">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>7.1008380908481566E-4</v>
+        <v>7.2131628267019655E-4</v>
       </c>
       <c r="P34" s="63">
         <f t="shared" si="15"/>
-        <v>1.2242826357964675E-3</v>
+        <v>1.3328414663429794E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -5035,17 +4972,17 @@
       </c>
       <c r="V34" s="63">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>7.1008380908481566E-4</v>
+        <v>7.2131628267019655E-4</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.2242826357964675E-3</v>
+        <v>1.3328414663429794E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00368#0001</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -5056,27 +4993,27 @@
       </c>
       <c r="E35" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41807</v>
-      </c>
-      <c r="G35" s="32" t="e">
+        <v>41809</v>
+      </c>
+      <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>9.7225504479804342E-4</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>1.350231326956116E-3</v>
+        <v>1.3683125790431051E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>1.841969943683729E-3</v>
+        <v>1.8362125790432997E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>3.3819734912463387E-3</v>
+        <v>3.3786701132899151E-3</v>
       </c>
       <c r="K35" s="125">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -5084,7 +5021,7 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>6.4133118169250119E-4</v>
+        <v>6.3475093520765872E-4</v>
       </c>
       <c r="N35" s="62" t="e">
         <f>N$31*$K35+N$32</f>
@@ -5092,11 +5029,11 @@
       </c>
       <c r="O35" s="63">
         <f t="shared" si="15"/>
-        <v>7.0992544995527999E-4</v>
+        <v>7.2212375057876209E-4</v>
       </c>
       <c r="P35" s="63">
         <f t="shared" si="15"/>
-        <v>1.2228988716037564E-3</v>
+        <v>1.3250250836734576E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5107,17 +5044,17 @@
       </c>
       <c r="V35" s="63">
         <f t="shared" si="17"/>
-        <v>7.0992544995527999E-4</v>
+        <v>7.2212375057876209E-4</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.2228988716037564E-3</v>
+        <v>1.3250250836734576E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00364#0001</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5128,27 +5065,27 @@
       </c>
       <c r="E36" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41814</v>
-      </c>
-      <c r="G36" s="32" t="e">
+        <v>41816</v>
+      </c>
+      <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>9.7332253008677861E-4</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>1.3501844066998643E-3</v>
+        <v>1.3693800643318401E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>1.8419230234274775E-3</v>
+        <v>1.8372800643320351E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>3.3819265709900872E-3</v>
+        <v>3.3797375985786505E-3</v>
       </c>
       <c r="K36" s="125">
         <f t="shared" si="18"/>
@@ -5156,7 +5093,7 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>6.412842614362496E-4</v>
+        <v>6.3581842049639391E-4</v>
       </c>
       <c r="N36" s="62" t="e">
         <f>N$31*$K36+N$32</f>
@@ -5164,11 +5101,11 @@
       </c>
       <c r="O36" s="63">
         <f t="shared" si="15"/>
-        <v>7.0975486998512121E-4</v>
+        <v>7.2306578193740616E-4</v>
       </c>
       <c r="P36" s="63">
         <f t="shared" si="15"/>
-        <v>1.2213360984739416E-3</v>
+        <v>1.3162063032819363E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5179,17 +5116,17 @@
       </c>
       <c r="V36" s="63">
         <f t="shared" si="17"/>
-        <v>7.0975486998512121E-4</v>
+        <v>7.2306578193740616E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.2213360984739416E-3</v>
+        <v>1.3162063032819363E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036a#0001</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5200,27 +5137,27 @@
       </c>
       <c r="E37" s="52">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41821</v>
-      </c>
-      <c r="G37" s="35" t="e">
+        <v>41823</v>
+      </c>
+      <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>9.7494152837839963E-4</v>
       </c>
       <c r="H37" s="35">
         <f>$L37+IF(H$30,H$32,O37)</f>
-        <v>1.3501158829284452E-3</v>
+        <v>1.3709990626234612E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>1.8418544996560583E-3</v>
+        <v>1.838899062623656E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>3.381858047218668E-3</v>
+        <v>3.3813565968702714E-3</v>
       </c>
       <c r="K37" s="126">
         <f t="shared" si="18"/>
@@ -5228,7 +5165,7 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>6.4121573766483047E-4</v>
+        <v>6.3743741878801493E-4</v>
       </c>
       <c r="N37" s="92" t="e">
         <f>N$31*$K37+N$32</f>
@@ -5236,11 +5173,11 @@
       </c>
       <c r="O37" s="93">
         <f t="shared" si="15"/>
-        <v>7.0959955254318243E-4</v>
+        <v>7.2400779764331558E-4</v>
       </c>
       <c r="P37" s="93">
         <f t="shared" si="15"/>
-        <v>1.2198289144208095E-3</v>
+        <v>1.3077109581304837E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -5251,17 +5188,17 @@
       </c>
       <c r="V37" s="93">
         <f t="shared" si="17"/>
-        <v>7.0959955254318243E-4</v>
+        <v>7.2400779764331558E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.2198289144208095E-3</v>
+        <v>1.3077109581304837E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00369#0001</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5272,35 +5209,35 @@
       </c>
       <c r="E38" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41830</v>
-      </c>
-      <c r="G38" s="34" t="e">
+        <v>41834</v>
+      </c>
+      <c r="G38" s="34">
         <f t="shared" si="14"/>
-        <v>#NUM!</v>
+        <v>9.7860000000000004E-4</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>1.3499960356755617E-3</v>
+        <v>1.3746575342450617E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>1.8417346524031747E-3</v>
+        <v>1.8425575342452564E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>3.3817381999657844E-3</v>
+        <v>3.3850150684918718E-3</v>
       </c>
       <c r="K38" s="124">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>6.4109589041194692E-4</v>
+        <v>6.4109589040961534E-4</v>
       </c>
       <c r="N38" s="62" t="e">
         <f>N$31*$K38+N$32</f>
@@ -5308,11 +5245,11 @@
       </c>
       <c r="O38" s="63">
         <f t="shared" si="15"/>
-        <v>7.0942228526133975E-4</v>
+        <v>7.2548807641340288E-4</v>
       </c>
       <c r="P38" s="63">
         <f t="shared" si="15"/>
-        <v>1.2179727882610917E-3</v>
+        <v>1.2950146012346664E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5323,17 +5260,17 @@
       </c>
       <c r="V38" s="63">
         <f t="shared" si="17"/>
-        <v>7.0942228526133975E-4</v>
+        <v>7.2548807641340288E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.2179727882610917E-3</v>
+        <v>1.2950146012346664E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00362#0001</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -5344,41 +5281,41 @@
       </c>
       <c r="E39" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41862</v>
+        <v>41863</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>1.3499960356743582E-3</v>
+        <v>1.3746575342467816E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>1.8417346524019712E-3</v>
+        <v>1.8425575342469764E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>3.3817381999645809E-3</v>
+        <v>3.3850150684935918E-3</v>
       </c>
       <c r="K39" s="125">
         <f t="shared" si="18"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>6.4109589041074346E-4</v>
+        <v>6.4109589041133532E-4</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="63">
         <f t="shared" si="15"/>
-        <v>7.0899633258261383E-4</v>
+        <v>7.2939044425727345E-4</v>
       </c>
       <c r="P39" s="63">
         <f t="shared" si="15"/>
-        <v>1.2121174415270714E-3</v>
+        <v>1.2653708047275817E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5389,17 +5326,17 @@
       </c>
       <c r="V39" s="63">
         <f t="shared" si="17"/>
-        <v>7.0899633258261383E-4</v>
+        <v>7.2939044425727345E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.2121174415270714E-3</v>
+        <v>1.2653708047275817E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00363#0001</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -5410,24 +5347,24 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41892</v>
+        <v>41894</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>1.3499960356747507E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>1.8417346524023637E-3</v>
+        <v>1.8179000000001948E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>3.3817381999649734E-3</v>
+        <v>3.3603575342468104E-3</v>
       </c>
       <c r="K40" s="125">
         <f t="shared" si="18"/>
@@ -5435,16 +5372,16 @@
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>6.4109589041113594E-4</v>
+        <v>6.1643835616455376E-4</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="63">
         <f t="shared" si="15"/>
-        <v>7.0888667850232175E-4</v>
+        <v>7.3356164383544576E-4</v>
       </c>
       <c r="P40" s="63">
         <f t="shared" si="15"/>
-        <v>1.2076831119499452E-3</v>
+        <v>1.2398212773035073E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5455,17 +5392,17 @@
       </c>
       <c r="V40" s="63">
         <f t="shared" si="17"/>
-        <v>7.0888667850232175E-4</v>
+        <v>7.3356164383544576E-4</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.2076831119499452E-3</v>
+        <v>1.2398212773035073E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0036b#0001</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -5476,35 +5413,35 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="46"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>1.8417346524025632E-3</v>
+        <v>1.8179000000003629E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>3.3817381999651729E-3</v>
+        <v>3.3603575342469783E-3</v>
       </c>
       <c r="K41" s="125">
         <f t="shared" si="18"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>6.4109589041133521E-4</v>
+        <v>6.1643835616472192E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="46"/>
       <c r="P41" s="63">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.2042698062302555E-3</v>
+        <v>1.2201010965139855E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5516,13 +5453,13 @@
       <c r="V41" s="63"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.2042698062302555E-3</v>
+        <v>1.2201010965139855E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00367#0001</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -5533,21 +5470,21 @@
       </c>
       <c r="E42" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41953</v>
+        <v>41955</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="44"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>1.8417346524024435E-3</v>
+        <v>1.8179000000002913E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>3.3817381999650532E-3</v>
+        <v>3.3603575342469067E-3</v>
       </c>
       <c r="K42" s="125">
         <f t="shared" si="18"/>
@@ -5555,13 +5492,13 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>6.4109589041121552E-4</v>
+        <v>6.1643835616465015E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="44"/>
       <c r="P42" s="63">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.2018153659390277E-3</v>
+        <v>1.2080680187926802E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5573,13 +5510,13 @@
       <c r="V42" s="63"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.2018153659390277E-3</v>
+        <v>1.2080680187926802E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00360#0001</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -5590,21 +5527,21 @@
       </c>
       <c r="E43" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41983</v>
+        <v>41985</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="44"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>1.8170771181555872E-3</v>
+        <v>1.8179000000000003E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>3.3570806657181968E-3</v>
+        <v>3.3603575342466157E-3</v>
       </c>
       <c r="K43" s="125">
         <f t="shared" si="18"/>
@@ -5618,7 +5555,7 @@
       <c r="O43" s="44"/>
       <c r="P43" s="63">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.2004781420627928E-3</v>
+        <v>1.2014616438356378E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5630,13 +5567,13 @@
       <c r="V43" s="93"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.2004781420627928E-3</v>
+        <v>1.2014616438356378E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0035c#0001</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -5647,7 +5584,7 @@
       </c>
       <c r="E44" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
@@ -5658,15 +5595,15 @@
       <c r="I44" s="46"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>3.3486393057430238E-3</v>
+        <v>3.3629798388215282E-3</v>
       </c>
       <c r="K44" s="125">
         <f t="shared" si="18"/>
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>6.0799699618918623E-4</v>
+        <v>6.1906066073927151E-4</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -5679,7 +5616,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0035d#0001</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -5690,18 +5627,18 @@
       </c>
       <c r="E45" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42045</v>
+        <v>42047</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="44"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>3.3526315869634102E-3</v>
+        <v>3.3638434898536572E-3</v>
       </c>
       <c r="K45" s="125">
         <f t="shared" si="18"/>
@@ -5709,7 +5646,7 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>6.1198927740957238E-4</v>
+        <v>6.199243117714009E-4</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
@@ -5722,7 +5659,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00365#0001</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -5733,18 +5670,18 @@
       </c>
       <c r="E46" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42073</v>
+        <v>42075</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="44"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>3.357080665718E-3</v>
+        <v>3.3603575342467116E-3</v>
       </c>
       <c r="K46" s="125">
         <f t="shared" si="18"/>
@@ -5752,7 +5689,7 @@
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>6.1643835616416226E-4</v>
+        <v>6.164383561644551E-4</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -5765,7 +5702,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00366#0001</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -5776,26 +5713,26 @@
       </c>
       <c r="E47" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="44"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>3.3578338171418496E-3</v>
+        <v>3.3508758742490548E-3</v>
       </c>
       <c r="K47" s="125">
         <f t="shared" si="18"/>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>6.1719150758801199E-4</v>
+        <v>6.0695669616679822E-4</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -5808,7 +5745,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00361#0001</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -5819,26 +5756,26 @@
       </c>
       <c r="E48" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42135</v>
+        <v>42136</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="44"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>3.3568298895549249E-3</v>
+        <v>3.3417270652012013E-3</v>
       </c>
       <c r="K48" s="125">
         <f t="shared" si="18"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>6.1618758000108723E-4</v>
+        <v>5.9780788711894493E-4</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -5851,7 +5788,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0035e#0001</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -5862,18 +5799,18 @@
       </c>
       <c r="E49" s="53">
         <f t="shared" si="13"/>
-        <v>41800</v>
+        <v>41802</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42165</v>
+        <v>42167</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="44"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>3.3570806657183174E-3</v>
+        <v>3.3356999999999996E-3</v>
       </c>
       <c r="K49" s="125">
         <f t="shared" si="18"/>
@@ -5881,7 +5818,7 @@
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>6.1643835616447993E-4</v>
+        <v>5.9178082191774304E-4</v>
       </c>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
@@ -5920,7 +5857,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5990,7 +5927,7 @@
       </c>
       <c r="P2" s="215">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6017,22 +5954,22 @@
       <c r="I3" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="218" t="e">
+      <c r="J3" s="218">
         <f>ROUND(Depo_Calculation!$G34,6)</f>
-        <v>#NUM!</v>
+        <v>9.7199999999999999E-4</v>
       </c>
       <c r="K3" s="156"/>
       <c r="L3" s="166">
         <v>1.488E-3</v>
       </c>
       <c r="M3" s="140"/>
-      <c r="N3" s="169" t="e">
+      <c r="N3" s="169">
         <f t="array" ref="N3:N40">QuoteLive</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O3" s="170" t="e">
+        <v>9.7199999999999999E-4</v>
+      </c>
+      <c r="O3" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="P3" s="190"/>
     </row>
@@ -6061,21 +5998,21 @@
       <c r="I4" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="218" t="e">
+      <c r="J4" s="218">
         <f>ROUND(Depo_Calculation!$G35,6)</f>
-        <v>#NUM!</v>
+        <v>9.7199999999999999E-4</v>
       </c>
       <c r="K4" s="156"/>
       <c r="L4" s="166">
         <v>1.4840000000000001E-3</v>
       </c>
       <c r="M4" s="140"/>
-      <c r="N4" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O4" s="170" t="e">
+      <c r="N4" s="169">
+        <v>9.7199999999999999E-4</v>
+      </c>
+      <c r="O4" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="P4" s="190"/>
     </row>
@@ -6101,21 +6038,21 @@
       <c r="I5" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="218" t="e">
+      <c r="J5" s="218">
         <f>ROUND(Depo_Calculation!$G36,6)</f>
-        <v>#NUM!</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="K5" s="156"/>
       <c r="L5" s="166">
         <v>1.5E-3</v>
       </c>
       <c r="M5" s="140"/>
-      <c r="N5" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O5" s="170" t="e">
+      <c r="N5" s="169">
+        <v>9.7300000000000002E-4</v>
+      </c>
+      <c r="O5" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="P5" s="190"/>
     </row>
@@ -6141,21 +6078,21 @@
       <c r="I6" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="220" t="e">
+      <c r="J6" s="220">
         <f>Depo_Calculation!$G37</f>
-        <v>#NUM!</v>
+        <v>9.7494152837839963E-4</v>
       </c>
       <c r="K6" s="156"/>
       <c r="L6" s="167">
         <v>1.5054706107835709E-3</v>
       </c>
       <c r="M6" s="140"/>
-      <c r="N6" s="171" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O6" s="170" t="e">
+      <c r="N6" s="171">
+        <v>9.7494152837839963E-4</v>
+      </c>
+      <c r="O6" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="P6" s="190"/>
     </row>
@@ -6181,21 +6118,21 @@
       <c r="I7" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="219" t="e">
+      <c r="J7" s="219">
         <f>ROUND(Depo_Calculation!$G38,6)</f>
-        <v>#NUM!</v>
+        <v>9.7900000000000005E-4</v>
       </c>
       <c r="K7" s="156"/>
       <c r="L7" s="168">
         <v>1.5100000000000001E-3</v>
       </c>
       <c r="M7" s="140"/>
-      <c r="N7" s="172" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O7" s="240" t="e">
+      <c r="N7" s="172">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="O7" s="240">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="P7" s="190"/>
     </row>
@@ -6225,7 +6162,7 @@
       </c>
       <c r="J8" s="217">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.3680000000000001E-3</v>
       </c>
       <c r="K8" s="156"/>
       <c r="L8" s="166">
@@ -6233,7 +6170,7 @@
       </c>
       <c r="M8" s="140"/>
       <c r="N8" s="169">
-        <v>1.3500000000000001E-3</v>
+        <v>1.3680000000000001E-3</v>
       </c>
       <c r="O8" s="239">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -6241,7 +6178,7 @@
       </c>
       <c r="P8" s="216">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6271,7 +6208,7 @@
       </c>
       <c r="J9" s="218">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.3680000000000001E-3</v>
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="166">
@@ -6279,7 +6216,7 @@
       </c>
       <c r="M9" s="140"/>
       <c r="N9" s="169">
-        <v>1.3500000000000001E-3</v>
+        <v>1.3680000000000001E-3</v>
       </c>
       <c r="O9" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -6311,7 +6248,7 @@
       </c>
       <c r="J10" s="218">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="K10" s="156"/>
       <c r="L10" s="166">
@@ -6319,7 +6256,7 @@
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="169">
-        <v>1.3500000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="O10" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -6351,7 +6288,7 @@
       </c>
       <c r="J11" s="218">
         <f>ROUND(Depo_Calculation!$H37,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.371E-3</v>
       </c>
       <c r="K11" s="156"/>
       <c r="L11" s="166">
@@ -6359,7 +6296,7 @@
       </c>
       <c r="M11" s="140"/>
       <c r="N11" s="169">
-        <v>1.3500000000000001E-3</v>
+        <v>1.371E-3</v>
       </c>
       <c r="O11" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
@@ -6391,7 +6328,7 @@
       </c>
       <c r="J12" s="218">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="K12" s="156"/>
       <c r="L12" s="166">
@@ -6399,7 +6336,7 @@
       </c>
       <c r="M12" s="140"/>
       <c r="N12" s="169">
-        <v>1.3500000000000001E-3</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="O12" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -6431,7 +6368,7 @@
       </c>
       <c r="J13" s="218">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="K13" s="156"/>
       <c r="L13" s="166">
@@ -6439,7 +6376,7 @@
       </c>
       <c r="M13" s="140"/>
       <c r="N13" s="169">
-        <v>1.3500000000000001E-3</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="O13" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -6513,7 +6450,7 @@
       </c>
       <c r="J15" s="217">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.836E-3</v>
       </c>
       <c r="K15" s="156"/>
       <c r="L15" s="166">
@@ -6521,7 +6458,7 @@
       </c>
       <c r="M15" s="140"/>
       <c r="N15" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.836E-3</v>
       </c>
       <c r="O15" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -6529,7 +6466,7 @@
       </c>
       <c r="P15" s="190">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6559,7 +6496,7 @@
       </c>
       <c r="J16" s="218">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.836E-3</v>
       </c>
       <c r="K16" s="156"/>
       <c r="L16" s="166">
@@ -6567,7 +6504,7 @@
       </c>
       <c r="M16" s="140"/>
       <c r="N16" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.836E-3</v>
       </c>
       <c r="O16" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -6599,7 +6536,7 @@
       </c>
       <c r="J17" s="218">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="K17" s="156"/>
       <c r="L17" s="166">
@@ -6607,7 +6544,7 @@
       </c>
       <c r="M17" s="140"/>
       <c r="N17" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="O17" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -6639,7 +6576,7 @@
       </c>
       <c r="J18" s="218">
         <f>ROUND(Depo_Calculation!$I37,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.8389999999999999E-3</v>
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="166">
@@ -6647,7 +6584,7 @@
       </c>
       <c r="M18" s="140"/>
       <c r="N18" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.8389999999999999E-3</v>
       </c>
       <c r="O18" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
@@ -6679,7 +6616,7 @@
       </c>
       <c r="J19" s="218">
         <f>ROUND(Depo_Calculation!$I38,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="K19" s="156"/>
       <c r="L19" s="166">
@@ -6687,7 +6624,7 @@
       </c>
       <c r="M19" s="140"/>
       <c r="N19" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="O19" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
@@ -6719,7 +6656,7 @@
       </c>
       <c r="J20" s="218">
         <f>ROUND(Depo_Calculation!$I39,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="K20" s="156"/>
       <c r="L20" s="166">
@@ -6727,7 +6664,7 @@
       </c>
       <c r="M20" s="140"/>
       <c r="N20" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="O20" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
@@ -6759,7 +6696,7 @@
       </c>
       <c r="J21" s="218">
         <f>ROUND(Depo_Calculation!$I40,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="K21" s="156"/>
       <c r="L21" s="166">
@@ -6767,7 +6704,7 @@
       </c>
       <c r="M21" s="140"/>
       <c r="N21" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="O21" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
@@ -6799,7 +6736,7 @@
       </c>
       <c r="J22" s="218">
         <f>ROUND(Depo_Calculation!$I41,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="K22" s="156"/>
       <c r="L22" s="166">
@@ -6807,7 +6744,7 @@
       </c>
       <c r="M22" s="140"/>
       <c r="N22" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="O22" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
@@ -6839,7 +6776,7 @@
       </c>
       <c r="J23" s="218">
         <f>ROUND(Depo_Calculation!$I42,6)</f>
-        <v>1.8420000000000001E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="K23" s="156"/>
       <c r="L23" s="166">
@@ -6847,7 +6784,7 @@
       </c>
       <c r="M23" s="140"/>
       <c r="N23" s="169">
-        <v>1.8420000000000001E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="O23" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
@@ -6879,7 +6816,7 @@
       </c>
       <c r="J24" s="219">
         <f>ROUND(Depo_Calculation!$I43,6)</f>
-        <v>1.817E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="K24" s="211"/>
       <c r="L24" s="168">
@@ -6887,7 +6824,7 @@
       </c>
       <c r="M24" s="212"/>
       <c r="N24" s="172">
-        <v>1.817E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="O24" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
@@ -6922,7 +6859,7 @@
       </c>
       <c r="J25" s="217">
         <f>ROUND(Depo_Calculation!$J34,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="K25" s="156"/>
       <c r="L25" s="237">
@@ -6930,7 +6867,7 @@
       </c>
       <c r="M25" s="140"/>
       <c r="N25" s="238">
-        <v>3.382E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="O25" s="239">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
@@ -6938,7 +6875,7 @@
       </c>
       <c r="P25" s="190">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
@@ -6969,7 +6906,7 @@
       </c>
       <c r="J26" s="218">
         <f>ROUND(Depo_Calculation!$J35,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="K26" s="156"/>
       <c r="L26" s="166">
@@ -6977,7 +6914,7 @@
       </c>
       <c r="M26" s="140"/>
       <c r="N26" s="169">
-        <v>3.382E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="O26" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
@@ -7010,7 +6947,7 @@
       </c>
       <c r="J27" s="218">
         <f>ROUND(Depo_Calculation!$J36,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3800000000000002E-3</v>
       </c>
       <c r="K27" s="156"/>
       <c r="L27" s="166">
@@ -7018,7 +6955,7 @@
       </c>
       <c r="M27" s="140"/>
       <c r="N27" s="169">
-        <v>3.382E-3</v>
+        <v>3.3800000000000002E-3</v>
       </c>
       <c r="O27" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
@@ -7050,7 +6987,7 @@
       </c>
       <c r="J28" s="218">
         <f>ROUND(Depo_Calculation!$J37,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3809999999999999E-3</v>
       </c>
       <c r="K28" s="156"/>
       <c r="L28" s="166">
@@ -7058,7 +6995,7 @@
       </c>
       <c r="M28" s="140"/>
       <c r="N28" s="169">
-        <v>3.382E-3</v>
+        <v>3.3809999999999999E-3</v>
       </c>
       <c r="O28" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
@@ -7090,7 +7027,7 @@
       </c>
       <c r="J29" s="218">
         <f>ROUND(Depo_Calculation!$J38,6)</f>
-        <v>3.382E-3</v>
+        <v>3.385E-3</v>
       </c>
       <c r="K29" s="156"/>
       <c r="L29" s="166">
@@ -7098,7 +7035,7 @@
       </c>
       <c r="M29" s="140"/>
       <c r="N29" s="169">
-        <v>3.382E-3</v>
+        <v>3.385E-3</v>
       </c>
       <c r="O29" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
@@ -7130,7 +7067,7 @@
       </c>
       <c r="J30" s="218">
         <f>ROUND(Depo_Calculation!$J39,6)</f>
-        <v>3.382E-3</v>
+        <v>3.385E-3</v>
       </c>
       <c r="K30" s="156"/>
       <c r="L30" s="166">
@@ -7138,7 +7075,7 @@
       </c>
       <c r="M30" s="140"/>
       <c r="N30" s="169">
-        <v>3.382E-3</v>
+        <v>3.385E-3</v>
       </c>
       <c r="O30" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
@@ -7170,7 +7107,7 @@
       </c>
       <c r="J31" s="218">
         <f>ROUND(Depo_Calculation!$J40,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="K31" s="156"/>
       <c r="L31" s="166">
@@ -7178,7 +7115,7 @@
       </c>
       <c r="M31" s="140"/>
       <c r="N31" s="169">
-        <v>3.382E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="O31" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
@@ -7210,7 +7147,7 @@
       </c>
       <c r="J32" s="218">
         <f>ROUND(Depo_Calculation!$J41,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="K32" s="156"/>
       <c r="L32" s="166">
@@ -7218,7 +7155,7 @@
       </c>
       <c r="M32" s="140"/>
       <c r="N32" s="169">
-        <v>3.382E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="O32" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
@@ -7250,7 +7187,7 @@
       </c>
       <c r="J33" s="218">
         <f>ROUND(Depo_Calculation!$J42,6)</f>
-        <v>3.382E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="K33" s="156"/>
       <c r="L33" s="166">
@@ -7258,7 +7195,7 @@
       </c>
       <c r="M33" s="140"/>
       <c r="N33" s="169">
-        <v>3.382E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="O33" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
@@ -7290,7 +7227,7 @@
       </c>
       <c r="J34" s="218">
         <f>ROUND(Depo_Calculation!$J43,6)</f>
-        <v>3.3570000000000002E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="K34" s="156"/>
       <c r="L34" s="166">
@@ -7298,7 +7235,7 @@
       </c>
       <c r="M34" s="140"/>
       <c r="N34" s="169">
-        <v>3.3570000000000002E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="O34" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
@@ -7330,7 +7267,7 @@
       </c>
       <c r="J35" s="218">
         <f>ROUND(Depo_Calculation!$J44,6)</f>
-        <v>3.349E-3</v>
+        <v>3.3630000000000001E-3</v>
       </c>
       <c r="K35" s="156"/>
       <c r="L35" s="166">
@@ -7338,7 +7275,7 @@
       </c>
       <c r="M35" s="140"/>
       <c r="N35" s="169">
-        <v>3.349E-3</v>
+        <v>3.3630000000000001E-3</v>
       </c>
       <c r="O35" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
@@ -7370,7 +7307,7 @@
       </c>
       <c r="J36" s="218">
         <f>ROUND(Depo_Calculation!$J45,6)</f>
-        <v>3.3530000000000001E-3</v>
+        <v>3.3639999999999998E-3</v>
       </c>
       <c r="K36" s="156"/>
       <c r="L36" s="166">
@@ -7378,7 +7315,7 @@
       </c>
       <c r="M36" s="140"/>
       <c r="N36" s="169">
-        <v>3.3530000000000001E-3</v>
+        <v>3.3639999999999998E-3</v>
       </c>
       <c r="O36" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
@@ -7410,7 +7347,7 @@
       </c>
       <c r="J37" s="218">
         <f>ROUND(Depo_Calculation!$J46,6)</f>
-        <v>3.3570000000000002E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="K37" s="156"/>
       <c r="L37" s="166">
@@ -7418,7 +7355,7 @@
       </c>
       <c r="M37" s="140"/>
       <c r="N37" s="169">
-        <v>3.3570000000000002E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="O37" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
@@ -7450,7 +7387,7 @@
       </c>
       <c r="J38" s="218">
         <f>ROUND(Depo_Calculation!$J47,6)</f>
-        <v>3.3579999999999999E-3</v>
+        <v>3.3509999999999998E-3</v>
       </c>
       <c r="K38" s="156"/>
       <c r="L38" s="166">
@@ -7458,7 +7395,7 @@
       </c>
       <c r="M38" s="140"/>
       <c r="N38" s="169">
-        <v>3.3579999999999999E-3</v>
+        <v>3.3509999999999998E-3</v>
       </c>
       <c r="O38" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
@@ -7490,7 +7427,7 @@
       </c>
       <c r="J39" s="218">
         <f>ROUND(Depo_Calculation!$J48,6)</f>
-        <v>3.3570000000000002E-3</v>
+        <v>3.3419999999999999E-3</v>
       </c>
       <c r="K39" s="156"/>
       <c r="L39" s="166">
@@ -7498,7 +7435,7 @@
       </c>
       <c r="M39" s="140"/>
       <c r="N39" s="169">
-        <v>3.3570000000000002E-3</v>
+        <v>3.3419999999999999E-3</v>
       </c>
       <c r="O39" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
@@ -7530,7 +7467,7 @@
       </c>
       <c r="J40" s="219">
         <f>ROUND(Depo_Calculation!$J49,6)</f>
-        <v>3.3570000000000002E-3</v>
+        <v>3.336E-3</v>
       </c>
       <c r="K40" s="211"/>
       <c r="L40" s="168">
@@ -7538,7 +7475,7 @@
       </c>
       <c r="M40" s="212"/>
       <c r="N40" s="172">
-        <v>3.3570000000000002E-3</v>
+        <v>3.336E-3</v>
       </c>
       <c r="O40" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
@@ -1631,8 +1631,8 @@
       <sheetName val="Libor"/>
       <sheetName val="Tibor"/>
       <sheetName val="LiborSwapIsdaFixAm"/>
+      <sheetName val="LiborSwapForBasisCalc"/>
       <sheetName val="LiborSwapIsdaFixPm"/>
-      <sheetName val="LiborSwapForBasisCalc"/>
       <sheetName val="OIS"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
@@ -1657,7 +1657,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="8">
@@ -1683,7 +1683,7 @@
       <sheetData sheetId="4">
         <row r="7">
           <cell r="D7" t="str">
-            <v>6M</v>
+            <v>Fwd Curve</v>
           </cell>
         </row>
         <row r="8">
@@ -1695,7 +1695,7 @@
       <sheetData sheetId="5">
         <row r="7">
           <cell r="D7" t="str">
-            <v>Fwd Curve</v>
+            <v>6M</v>
           </cell>
         </row>
         <row r="8">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D17" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="E17" s="223"/>
       <c r="G17" s="221"/>
@@ -2463,7 +2463,7 @@
         <v>53</v>
       </c>
       <c r="I17" s="55">
-        <v>41800.738935185182</v>
+        <v>41801.52851851852</v>
       </c>
       <c r="J17" s="223"/>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="I18" s="55">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41800</v>
+        <v>41801</v>
       </c>
       <c r="J18" s="223"/>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="I19" s="228">
         <f>[1]!TriggerCounter</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="223"/>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E2" s="103">
         <f>SettlementDate</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F2" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
@@ -2748,11 +2748,11 @@
       </c>
       <c r="H2" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>6.4109589040961534E-4</v>
+        <v>6.4109589041074346E-4</v>
       </c>
       <c r="I2" s="107">
         <f>G2-H2</f>
-        <v>3.375041095903847E-4</v>
+        <v>3.3750410958925659E-4</v>
       </c>
       <c r="J2" s="108" t="b">
         <v>0</v>
@@ -2766,20 +2766,20 @@
       </c>
       <c r="O2" s="111">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="111">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="108"/>
       <c r="R2" s="122">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>341.33333333333331</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="S2" s="122">
         <f>(O2+N2)/2</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="T2" s="122">
         <v>1</v>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="H3" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>6.4109589040961534E-4</v>
+        <v>6.4090201786909384E-4</v>
       </c>
       <c r="I3" s="100">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>3.375041095903847E-4</v>
+        <v>3.376979821309062E-4</v>
       </c>
       <c r="J3" s="108" t="b">
         <f>NOT(ISERROR(I3))</f>
@@ -2837,24 +2837,24 @@
       <c r="M3" s="109"/>
       <c r="N3" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="111">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="111">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="108"/>
       <c r="R3" s="122">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>341.33333333333331</v>
+        <v>310.33333333333331</v>
       </c>
       <c r="S3" s="122">
         <f>(O3+N3)/2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T3" s="122">
         <v>1</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="F4" s="54">
         <f>F5</f>
-        <v>41863</v>
+        <v>41864</v>
       </c>
       <c r="G4" s="27" t="e">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>6.4105935881066253E-4</v>
+        <v>6.41060500361057E-4</v>
       </c>
       <c r="I4" s="16" t="e">
         <f>G4-H4</f>
@@ -2911,7 +2911,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="112">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="112">
         <f t="shared" si="0"/>
@@ -2919,15 +2919,15 @@
       </c>
       <c r="P4" s="112">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" s="91">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2232.333333333333</v>
+        <v>2191</v>
       </c>
       <c r="S4" s="91">
         <f>(O4+N4)/2</f>
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="T4" s="91">
         <v>1</v>
@@ -2943,11 +2943,11 @@
       </c>
       <c r="E5" s="53">
         <f>SettlementDate</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F5" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41863</v>
+        <v>41864</v>
       </c>
       <c r="G5" s="50" t="e">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="E6" s="103">
         <f>SettlementDate</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F6" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41894</v>
+        <v>41898</v>
       </c>
       <c r="G6" s="105">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
@@ -2998,11 +2998,11 @@
       </c>
       <c r="H6" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>6.1643835616455376E-4</v>
+        <v>6.1643835616399573E-4</v>
       </c>
       <c r="I6" s="107">
         <f t="shared" si="1"/>
-        <v>7.3356164383544631E-4</v>
+        <v>7.3356164383600435E-4</v>
       </c>
       <c r="J6" s="108" t="b">
         <v>0</v>
@@ -3016,20 +3016,20 @@
       </c>
       <c r="O6" s="111">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P6" s="111">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="108"/>
       <c r="R6" s="122">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2821.333333333333</v>
+        <v>3008.3333333333335</v>
       </c>
       <c r="S6" s="122">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>46</v>
+        <v>47.5</v>
       </c>
       <c r="T6" s="122">
         <v>1</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F7" s="97">
         <f>F6</f>
-        <v>41894</v>
+        <v>41898</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="H7" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>6.1643835616455376E-4</v>
+        <v>6.1663129198002986E-4</v>
       </c>
       <c r="I7" s="100">
         <f t="shared" si="1"/>
-        <v>7.3356164383544631E-4</v>
+        <v>7.3336870801997021E-4</v>
       </c>
       <c r="J7" s="108" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
@@ -3081,24 +3081,24 @@
       <c r="M7" s="109"/>
       <c r="N7" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="111">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P7" s="111">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="108"/>
       <c r="R7" s="122">
         <f t="shared" si="4"/>
-        <v>2821.333333333333</v>
+        <v>2977</v>
       </c>
       <c r="S7" s="122">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" s="122">
         <v>1</v>
@@ -3129,11 +3129,11 @@
       <c r="M8" s="109"/>
       <c r="N8" s="111">
         <f t="shared" si="2"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="O8" s="111">
         <f t="shared" si="3"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="P8" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="S8" s="122">
         <f t="shared" si="5"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="T8" s="122">
         <v>1</v>
@@ -3177,20 +3177,20 @@
       </c>
       <c r="K9" s="99">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>1.3454955428348427E-7</v>
+        <v>1.4225038392683219E-7</v>
       </c>
       <c r="L9" s="99">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.2118308484136573E-4</v>
+        <v>7.1999717193084803E-4</v>
       </c>
       <c r="M9" s="109"/>
       <c r="N9" s="111">
         <f t="shared" si="2"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="O9" s="111">
         <f t="shared" si="3"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="P9" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3203,18 +3203,18 @@
       </c>
       <c r="S9" s="122">
         <f t="shared" si="5"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="T9" s="122">
         <v>1</v>
       </c>
       <c r="V9" s="82">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2821.333333333333</v>
+        <v>2977</v>
       </c>
       <c r="W9" s="83">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X9" s="84">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -3222,25 +3222,25 @@
       </c>
       <c r="Z9" s="67">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>-4.7916534998041182E-13</v>
+        <v>-2.4852126474268938E-10</v>
       </c>
       <c r="AB9" s="67">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>7.3356164383544631E-4</v>
+        <v>7.3336870801997021E-4</v>
       </c>
       <c r="AD9" s="73">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>5.1229508196721303E-4</v>
+        <v>5.3686471009305593E-4</v>
       </c>
       <c r="AE9" s="74">
-        <v>-1.0775862068965515E-3</v>
+        <v>-1.0737294201861119E-3</v>
       </c>
       <c r="AF9" s="75">
-        <v>5.6529112492933857E-4</v>
+        <v>5.3686471009305593E-4</v>
       </c>
       <c r="AH9" s="70">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-5.4210108624275222E-19</v>
+        <v>9.7578195523695399E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>6.1364582572549125E-4</v>
+        <v>6.1485605014269381E-4</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3295,32 +3295,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="112">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" s="112">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P10" s="112">
         <f t="shared" si="6"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R10" s="91">
         <f t="shared" si="4"/>
-        <v>3409.3333333333335</v>
+        <v>3306.3333333333335</v>
       </c>
       <c r="S10" s="91">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T10" s="91">
         <v>1</v>
       </c>
       <c r="V10" s="85">
-        <v>6789.333333333333</v>
+        <v>6634.333333333333</v>
       </c>
       <c r="W10" s="86">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X10" s="87">
         <v>1</v>
@@ -3329,25 +3329,25 @@
         <v>46</v>
       </c>
       <c r="Z10" s="68">
-        <v>2.6915852507036314E-7</v>
+        <v>3.1479827137320877E-7</v>
       </c>
       <c r="AA10" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB10" s="68">
-        <v>7.421728153095893E-4</v>
+        <v>7.4190373105558014E-4</v>
       </c>
       <c r="AD10" s="76">
-        <v>-9.4774590163934413E-2</v>
+        <v>-9.8783106657122324E-2</v>
       </c>
       <c r="AE10" s="77">
-        <v>0.16487068965517238</v>
+        <v>0.16423287998091132</v>
       </c>
       <c r="AF10" s="78">
-        <v>-7.0096099491237976E-2</v>
+        <v>-6.5449773323788984E-2</v>
       </c>
       <c r="AH10" s="71">
-        <v>-6.5052130349130266E-19</v>
+        <v>1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>6.0717889088916007E-4</v>
+        <v>6.0745815108847307E-4</v>
       </c>
       <c r="I11" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3402,23 +3402,23 @@
       <c r="M11" s="5"/>
       <c r="N11" s="112">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="112">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P11" s="112">
         <f t="shared" si="6"/>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R11" s="91">
         <f t="shared" si="4"/>
-        <v>7105.333333333333</v>
+        <v>6946.333333333333</v>
       </c>
       <c r="S11" s="91">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T11" s="91">
         <v>1</v>
@@ -3433,22 +3433,22 @@
         <v>1</v>
       </c>
       <c r="Z11" s="69">
-        <v>7.2118170356738317E-4</v>
+        <v>7.1931303707056934E-4</v>
       </c>
       <c r="AB11" s="69">
-        <v>7.499758418145271E-4</v>
+        <v>7.4997584181539588E-4</v>
       </c>
       <c r="AD11" s="79">
-        <v>3.9142759562841527</v>
+        <v>4.0445597709377221</v>
       </c>
       <c r="AE11" s="80">
-        <v>-4.5438218390804597</v>
+        <v>-4.5224528752087769</v>
       </c>
       <c r="AF11" s="81">
-        <v>1.6295458827963067</v>
+        <v>1.4778931042710548</v>
       </c>
       <c r="AH11" s="72">
-        <v>-5.4210108624275222E-19</v>
+        <v>2.6020852139652106E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bc#0000</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -3481,11 +3481,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>6.0782718469041077E-4</v>
+        <v>6.0809626894441993E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>7.421728153095893E-4</v>
+        <v>7.4190373105558014E-4</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -3493,32 +3493,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.3454955428348427E-7</v>
+        <v>1.4225038392683219E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.2118308484136573E-4</v>
+        <v>7.1999717193084803E-4</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="112">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="112">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P12" s="112">
         <f t="shared" si="6"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R12" s="91">
         <f t="shared" si="4"/>
-        <v>6789.333333333333</v>
+        <v>6634.333333333333</v>
       </c>
       <c r="S12" s="91">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T12" s="91">
         <v>1</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0000</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="E13" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41863</v>
+        <v>41864</v>
       </c>
       <c r="F13" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41955</v>
+        <v>41956</v>
       </c>
       <c r="G13" s="50">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -3557,11 +3557,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>6.0002415818547297E-4</v>
+        <v>6.000241581846042E-4</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>7.499758418145271E-4</v>
+        <v>7.4997584181539588E-4</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -3569,11 +3569,11 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.3454260638590817E-7</v>
+        <v>1.3839278162854722E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.2118372404794272E-4</v>
+        <v>7.2035978654688682E-4</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="112">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b5#0000</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -3621,11 +3621,11 @@
       </c>
       <c r="E14" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41894</v>
+        <v>41898</v>
       </c>
       <c r="F14" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41985</v>
+        <v>41989</v>
       </c>
       <c r="G14" s="50">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
@@ -3633,11 +3633,11 @@
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>6.16341261308051E-4</v>
+        <v>6.1644140003261631E-4</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>7.3365873869194907E-4</v>
+        <v>7.3355859996738376E-4</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -3645,32 +3645,32 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>5.3057298635388944E-10</v>
+        <v>1.0154649594307286E-9</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.3351283112070174E-4</v>
+        <v>7.3327325431378368E-4</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="112">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O14" s="112">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P14" s="112">
         <f t="shared" si="6"/>
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="R14" s="91">
         <f t="shared" si="4"/>
-        <v>19596.333333333332</v>
+        <v>20430.333333333332</v>
       </c>
       <c r="S14" s="91">
         <f t="shared" si="5"/>
-        <v>137.5</v>
+        <v>140.5</v>
       </c>
       <c r="T14" s="91">
         <v>1</v>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b1#0000</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -3697,11 +3697,11 @@
       </c>
       <c r="E15" s="103">
         <f>SettlementDate</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F15" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41985</v>
+        <v>41988</v>
       </c>
       <c r="G15" s="105">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="H15" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>6.1643835616435915E-4</v>
+        <v>6.1643835616431426E-4</v>
       </c>
       <c r="I15" s="107">
         <f t="shared" si="1"/>
-        <v>1.2014616438356411E-3</v>
+        <v>1.2014616438356857E-3</v>
       </c>
       <c r="J15" s="108" t="b">
         <v>0</v>
@@ -3727,20 +3727,20 @@
       </c>
       <c r="O15" s="111">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P15" s="111">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="108"/>
       <c r="R15" s="122">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11163</v>
+        <v>11408.333333333332</v>
       </c>
       <c r="S15" s="122">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>91.5</v>
+        <v>92.5</v>
       </c>
       <c r="T15" s="122">
         <v>1</v>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B16" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00377#0001</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -3777,11 +3777,11 @@
       </c>
       <c r="H16" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>6.1643835616435915E-4</v>
+        <v>6.1641301351572371E-4</v>
       </c>
       <c r="I16" s="100">
         <f t="shared" si="1"/>
-        <v>1.2014616438356411E-3</v>
+        <v>1.2014869864842765E-3</v>
       </c>
       <c r="J16" s="108" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
@@ -3792,24 +3792,24 @@
       <c r="M16" s="109"/>
       <c r="N16" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P16" s="111">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="122">
         <f t="shared" si="8"/>
-        <v>11163</v>
+        <v>10981</v>
       </c>
       <c r="S16" s="122">
         <f t="shared" si="9"/>
-        <v>91.5</v>
+        <v>90.5</v>
       </c>
       <c r="T16" s="122">
         <v>1</v>
@@ -3840,11 +3840,11 @@
       <c r="M17" s="109"/>
       <c r="N17" s="111">
         <f t="shared" si="2"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" si="3"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="P17" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="S17" s="122">
         <f t="shared" si="9"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="T17" s="122">
         <v>1</v>
@@ -3888,20 +3888,20 @@
       </c>
       <c r="K18" s="99">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-1.5723874883343609E-7</v>
+        <v>-2.3843517491423524E-7</v>
       </c>
       <c r="L18" s="99">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.23023633487216E-3</v>
+        <v>1.244643753143753E-3</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="111">
         <f t="shared" si="2"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" si="3"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="P18" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3914,18 +3914,18 @@
       </c>
       <c r="S18" s="122">
         <f t="shared" si="9"/>
-        <v>-41802</v>
+        <v>-41803</v>
       </c>
       <c r="T18" s="122">
         <v>1</v>
       </c>
       <c r="V18" s="82">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>11163</v>
+        <v>10981</v>
       </c>
       <c r="W18" s="83">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>91.5</v>
+        <v>90.5</v>
       </c>
       <c r="X18" s="84">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -3933,25 +3933,25 @@
       </c>
       <c r="Z18" s="67">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>9.9010787776119224E-9</v>
+        <v>9.5539992073115028E-9</v>
       </c>
       <c r="AB18" s="67">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.2014616438356411E-3</v>
+        <v>1.2014869864842765E-3</v>
       </c>
       <c r="AD18" s="73">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.0808705224828562E-4</v>
+        <v>4.9983338887037891E-4</v>
       </c>
       <c r="AE18" s="74">
-        <v>-1.0774949556299855E-3</v>
+        <v>-1.0413195601466226E-3</v>
       </c>
       <c r="AF18" s="75">
-        <v>5.694079033816996E-4</v>
+        <v>5.4148617127624372E-4</v>
       </c>
       <c r="AH18" s="70">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>-3.2526065174565133E-18</v>
+        <v>1.5178830414797062E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -3984,11 +3984,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>6.1528453359098153E-4</v>
+        <v>6.149126562390258E-4</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>1.1847154664090184E-3</v>
+        <v>1.1850873437609741E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -3996,41 +3996,41 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.5763349887111764E-7</v>
+        <v>-2.5230219574311341E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2486085741290555E-3</v>
+        <v>1.24715368391378E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="112">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="112">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P19" s="112">
         <f t="shared" si="7"/>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R19" s="91">
         <f t="shared" si="8"/>
-        <v>18197.333333333336</v>
+        <v>17950.333333333336</v>
       </c>
       <c r="S19" s="91">
         <f t="shared" si="9"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T19" s="91">
         <v>1</v>
       </c>
       <c r="V19" s="85">
-        <v>18197.333333333336</v>
+        <v>17950.333333333336</v>
       </c>
       <c r="W19" s="86">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X19" s="87">
         <v>1</v>
@@ -4039,25 +4039,25 @@
         <v>46</v>
       </c>
       <c r="Z19" s="68">
-        <v>-2.6582666433212201E-6</v>
+        <v>-2.5533737804756473E-6</v>
       </c>
       <c r="AA19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="68">
-        <v>1.1847154664090184E-3</v>
+        <v>1.1850873437609741E-3</v>
       </c>
       <c r="AD19" s="76">
-        <v>-0.1407401134727751</v>
+        <v>-0.13795401532822446</v>
       </c>
       <c r="AE19" s="77">
-        <v>0.26398334408881624</v>
+        <v>0.25407086526713429</v>
       </c>
       <c r="AF19" s="78">
-        <v>-0.1232432306160411</v>
+        <v>-0.11611684993890983</v>
       </c>
       <c r="AH19" s="71">
-        <v>-5.4210108624275222E-18</v>
+        <v>1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4078,11 +4078,11 @@
       </c>
       <c r="E20" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41863</v>
+        <v>41864</v>
       </c>
       <c r="F20" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42047</v>
+        <v>42048</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
@@ -4090,11 +4090,11 @@
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>6.1283890042673761E-4</v>
+        <v>6.1240675621675601E-4</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>1.1871610995732623E-3</v>
+        <v>1.1875932437832438E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4102,11 +4102,11 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.1626458749901408E-7</v>
+        <v>-1.1114994160826148E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2227380633479607E-3</v>
+        <v>1.2216051259153718E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="112">
@@ -4142,22 +4142,22 @@
         <v>1</v>
       </c>
       <c r="Z20" s="69">
-        <v>1.3341672993050476E-3</v>
+        <v>1.3276548483218365E-3</v>
       </c>
       <c r="AB20" s="69">
-        <v>1.1871610995732623E-3</v>
+        <v>1.1875932437832438E-3</v>
       </c>
       <c r="AD20" s="79">
-        <v>8.2059446185113085</v>
+        <v>7.9961679440186844</v>
       </c>
       <c r="AE20" s="80">
-        <v>-12.126399794429158</v>
+        <v>-11.558683216705592</v>
       </c>
       <c r="AF20" s="81">
-        <v>4.9204551759178488</v>
+        <v>4.562515272686908</v>
       </c>
       <c r="AH20" s="72">
-        <v>-8.2399365108898337E-18</v>
+        <v>1.7347234759768071E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b0#0000</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4178,23 +4178,23 @@
       </c>
       <c r="E21" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41894</v>
+        <v>41898</v>
       </c>
       <c r="F21" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42075</v>
+        <v>42079</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>6.1634126130805111E-4</v>
+        <v>6.1536515712007627E-4</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>1.1836587386919489E-3</v>
+        <v>1.1346348428799237E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4202,32 +4202,32 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-9.7818160130176517E-8</v>
+        <v>-3.5185338739133083E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2193623671394635E-3</v>
+        <v>1.2651724496021075E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="112">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O21" s="112">
         <f t="shared" si="3"/>
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P21" s="112">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R21" s="91">
         <f t="shared" si="8"/>
-        <v>36036.333333333328</v>
+        <v>37140.333333333328</v>
       </c>
       <c r="S21" s="91">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>185.5</v>
       </c>
       <c r="T21" s="91">
         <v>1</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bb#0000</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4263,15 +4263,15 @@
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>5.998067238031726E-4</v>
+        <v>6.0146489631280199E-4</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>1.2001932761968274E-3</v>
+        <v>1.1485351036871977E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4279,32 +4279,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.1350916551162829E-9</v>
+        <v>-2.1438009229586557E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2024013656085273E-3</v>
+        <v>1.2402897831898282E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="112">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="112">
         <f t="shared" si="3"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P22" s="112">
         <f t="shared" si="7"/>
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="R22" s="91">
         <f t="shared" si="8"/>
-        <v>48985.333333333328</v>
+        <v>48556.333333333328</v>
       </c>
       <c r="S22" s="91">
         <f t="shared" si="9"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T22" s="91">
         <v>1</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4332,11 +4332,11 @@
       </c>
       <c r="E23" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41955</v>
+        <v>41956</v>
       </c>
       <c r="F23" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42136</v>
+        <v>42137</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
@@ -4344,11 +4344,11 @@
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.8190702791322089E-4</v>
+        <v>5.8349413983311931E-4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>1.168092972086779E-3</v>
+        <v>1.1665058601668804E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4356,11 +4356,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.0976536759494089E-7</v>
+        <v>-1.1431740626600037E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2215487061055152E-3</v>
+        <v>1.2221784370184225E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="112">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="E24" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41985</v>
+        <v>41988</v>
       </c>
       <c r="F24" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
@@ -4421,11 +4421,11 @@
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>5.6681019324561922E-4</v>
+        <v>5.6653737662357856E-4</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>1.1831898067543806E-3</v>
+        <v>1.1834626233764214E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4433,32 +4433,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-5.0059827619891699E-8</v>
+        <v>-4.8583188969959966E-8</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2106225922900813E-3</v>
+        <v>1.2102805436878393E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="112">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O24" s="112">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P24" s="112">
         <f t="shared" si="7"/>
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="R24" s="91">
         <f t="shared" si="8"/>
-        <v>77836.333333333328</v>
+        <v>78936.333333333328</v>
       </c>
       <c r="S24" s="91">
         <f t="shared" si="9"/>
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T24" s="91">
         <v>1</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -4482,11 +4482,11 @@
       </c>
       <c r="E25" s="103">
         <f>SettlementDate</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F25" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="G25" s="105">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
@@ -4494,11 +4494,11 @@
       </c>
       <c r="H25" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>5.9178082191774304E-4</v>
+        <v>5.9178082191789581E-4</v>
       </c>
       <c r="I25" s="107">
         <f t="shared" si="1"/>
-        <v>2.7439191780822565E-3</v>
+        <v>2.7439191780821038E-3</v>
       </c>
       <c r="J25" s="108" t="b">
         <v>0</v>
@@ -4512,20 +4512,20 @@
       </c>
       <c r="O25" s="111">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P25" s="111">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="108"/>
       <c r="R25" s="122">
         <f t="shared" si="8"/>
-        <v>44408.333333333328</v>
+        <v>44896.333333333336</v>
       </c>
       <c r="S25" s="122">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>183.5</v>
       </c>
       <c r="T25" s="122">
         <v>1</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00376#0001</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -4562,11 +4562,11 @@
       </c>
       <c r="H26" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>5.9178082191774304E-4</v>
+        <v>5.9229336654059652E-4</v>
       </c>
       <c r="I26" s="100">
         <f t="shared" si="1"/>
-        <v>2.7439191780822565E-3</v>
+        <v>2.7434066334594033E-3</v>
       </c>
       <c r="J26" s="108" t="b">
         <f>NOT(ISERROR(I26))</f>
@@ -4583,24 +4583,24 @@
       <c r="M26" s="109"/>
       <c r="N26" s="111">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="111">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P26" s="111">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="122">
         <f t="shared" si="8"/>
-        <v>44408.333333333328</v>
+        <v>44044.333333333328</v>
       </c>
       <c r="S26" s="122">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>181.5</v>
       </c>
       <c r="T26" s="122">
         <v>1</v>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -4625,11 +4625,11 @@
       </c>
       <c r="E27" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="F27" s="54">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42534</v>
+        <v>42536</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.4097754136601206E-4</v>
+        <v>6.9093853772984946E-4</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4658,23 +4658,23 @@
       <c r="M27" s="5"/>
       <c r="N27" s="112">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O27" s="112">
         <f t="shared" si="3"/>
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P27" s="112">
         <f t="shared" si="7"/>
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="R27" s="91">
         <f t="shared" si="8"/>
-        <v>312076.33333333331</v>
+        <v>313663</v>
       </c>
       <c r="S27" s="91">
         <f t="shared" si="9"/>
-        <v>548.5</v>
+        <v>550</v>
       </c>
       <c r="T27" s="91">
         <v>1</v>
@@ -4746,11 +4746,11 @@
       </c>
       <c r="V30" s="117">
         <f>Z9</f>
-        <v>-4.7916534998041182E-13</v>
+        <v>-2.4852126474268938E-10</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>9.9010787776119224E-9</v>
+        <v>9.5539992073115028E-9</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -4759,19 +4759,19 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>3.375041095903847E-4</v>
+        <v>3.376979821309062E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>7.3356164383544631E-4</v>
+        <v>7.3336870801997021E-4</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>1.2014616438356411E-3</v>
+        <v>1.2014869864842765E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>2.7439191780822565E-3</v>
+        <v>2.7434066334594033E-3</v>
       </c>
       <c r="M31" s="58" t="s">
         <v>45</v>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="O31" s="57">
         <f>K9</f>
-        <v>1.3454955428348427E-7</v>
+        <v>1.4225038392683219E-7</v>
       </c>
       <c r="P31" s="57">
         <f>AVERAGE(K19:K21)</f>
-        <v>-1.5723874883343609E-7</v>
+        <v>-2.3843517491423524E-7</v>
       </c>
       <c r="Q31" s="57" t="e">
         <f>K26</f>
@@ -4797,11 +4797,11 @@
       </c>
       <c r="V31" s="63">
         <f>Z10</f>
-        <v>2.6915852507036314E-7</v>
+        <v>3.1479827137320877E-7</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-2.6582666433212201E-6</v>
+        <v>-2.5533737804756473E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -4810,19 +4810,19 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>3.375041095903847E-4</v>
+        <v>3.376979821309062E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>7.3356164383544631E-4</v>
+        <v>7.3336870801997021E-4</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>1.2014616438356411E-3</v>
+        <v>1.2014869864842765E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>2.7439191780822565E-3</v>
+        <v>2.7434066334594033E-3</v>
       </c>
       <c r="M32" s="58" t="s">
         <v>44</v>
@@ -4833,11 +4833,11 @@
       </c>
       <c r="O32" s="57">
         <f>L9</f>
-        <v>7.2118308484136573E-4</v>
+        <v>7.1999717193084803E-4</v>
       </c>
       <c r="P32" s="57">
         <f>L18</f>
-        <v>1.23023633487216E-3</v>
+        <v>1.244643753143753E-3</v>
       </c>
       <c r="Q32" s="57" t="e">
         <f>L26</f>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="V32" s="63">
         <f>Z11</f>
-        <v>7.2118170356738317E-4</v>
+        <v>7.1931303707056934E-4</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.3341672993050476E-3</v>
+        <v>1.3276548483218365E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -4910,7 +4910,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="123" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0000</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -4921,35 +4921,35 @@
       </c>
       <c r="E34" s="51">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41803</v>
+        <v>41806</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>9.7225504479804342E-4</v>
+        <v>9.7307675489193988E-4</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>1.3683125790431051E-3</v>
+        <v>1.368747480781004E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>1.8362125790432997E-3</v>
+        <v>1.8368657592453103E-3</v>
       </c>
       <c r="J34" s="32">
         <f t="shared" si="14"/>
-        <v>3.3786701132899151E-3</v>
+        <v>3.3787854062204371E-3</v>
       </c>
       <c r="K34" s="124">
         <f>F34-$E$6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>6.3475093520765872E-4</v>
+        <v>6.3537877276103368E-4</v>
       </c>
       <c r="N34" s="62" t="e">
         <f>N$31*$K34+N$32</f>
@@ -4957,11 +4957,11 @@
       </c>
       <c r="O34" s="63">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>7.2131628267019655E-4</v>
+        <v>7.1978448891383488E-4</v>
       </c>
       <c r="P34" s="63">
         <f t="shared" si="15"/>
-        <v>1.3328414663429794E-3</v>
+        <v>1.3238534496487449E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -4972,17 +4972,17 @@
       </c>
       <c r="V34" s="63">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>7.2131628267019655E-4</v>
+        <v>7.1978448891383488E-4</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.3328414663429794E-3</v>
+        <v>1.3238534496487449E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0000</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -4993,27 +4993,27 @@
       </c>
       <c r="E35" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" si="14"/>
-        <v>9.7225504479804342E-4</v>
+        <v>9.7307675489193988E-4</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>1.3683125790431051E-3</v>
+        <v>1.368747480781004E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>1.8362125790432997E-3</v>
+        <v>1.8368657592453103E-3</v>
       </c>
       <c r="J35" s="32">
         <f t="shared" si="14"/>
-        <v>3.3786701132899151E-3</v>
+        <v>3.3787854062204371E-3</v>
       </c>
       <c r="K35" s="125">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>6.3475093520765872E-4</v>
+        <v>6.3537877276103368E-4</v>
       </c>
       <c r="N35" s="62" t="e">
         <f>N$31*$K35+N$32</f>
@@ -5029,11 +5029,11 @@
       </c>
       <c r="O35" s="63">
         <f t="shared" si="15"/>
-        <v>7.2212375057876209E-4</v>
+        <v>7.2041077183971811E-4</v>
       </c>
       <c r="P35" s="63">
         <f t="shared" si="15"/>
-        <v>1.3250250836734576E-3</v>
+        <v>1.3188740887438912E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5044,17 +5044,17 @@
       </c>
       <c r="V35" s="63">
         <f t="shared" si="17"/>
-        <v>7.2212375057876209E-4</v>
+        <v>7.2041077183971811E-4</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.3250250836734576E-3</v>
+        <v>1.3188740887438912E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0000</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5065,27 +5065,27 @@
       </c>
       <c r="E36" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41816</v>
+        <v>41817</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" si="14"/>
-        <v>9.7332253008677861E-4</v>
+        <v>9.741014745781873E-4</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>1.3693800643318401E-3</v>
+        <v>1.3697722004672513E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>1.8372800643320351E-3</v>
+        <v>1.8378904789315576E-3</v>
       </c>
       <c r="J36" s="32">
         <f t="shared" si="14"/>
-        <v>3.3797375985786505E-3</v>
+        <v>3.3798101259066844E-3</v>
       </c>
       <c r="K36" s="125">
         <f t="shared" si="18"/>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>6.3581842049639391E-4</v>
+        <v>6.364034924472811E-4</v>
       </c>
       <c r="N36" s="62" t="e">
         <f>N$31*$K36+N$32</f>
@@ -5101,11 +5101,11 @@
       </c>
       <c r="O36" s="63">
         <f t="shared" si="15"/>
-        <v>7.2306578193740616E-4</v>
+        <v>7.2150038824755197E-4</v>
       </c>
       <c r="P36" s="63">
         <f t="shared" si="15"/>
-        <v>1.3162063032819363E-3</v>
+        <v>1.3104054264733848E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5116,17 +5116,17 @@
       </c>
       <c r="V36" s="63">
         <f t="shared" si="17"/>
-        <v>7.2306578193740616E-4</v>
+        <v>7.2150038824755197E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.3162063032819363E-3</v>
+        <v>1.3104054264733848E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0000</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5137,27 +5137,27 @@
       </c>
       <c r="E37" s="52">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="G37" s="35">
         <f t="shared" si="14"/>
-        <v>9.7494152837839963E-4</v>
+        <v>9.7565552719620723E-4</v>
       </c>
       <c r="H37" s="35">
         <f>$L37+IF(H$30,H$32,O37)</f>
-        <v>1.3709990626234612E-3</v>
+        <v>1.3713262530852712E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>1.838899062623656E-3</v>
+        <v>1.8394445315495775E-3</v>
       </c>
       <c r="J37" s="35">
         <f t="shared" si="14"/>
-        <v>3.3813565968702714E-3</v>
+        <v>3.3813641785247041E-3</v>
       </c>
       <c r="K37" s="126">
         <f t="shared" si="18"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>6.3743741878801493E-4</v>
+        <v>6.3795754506530103E-4</v>
       </c>
       <c r="N37" s="92" t="e">
         <f>N$31*$K37+N$32</f>
@@ -5173,11 +5173,11 @@
       </c>
       <c r="O37" s="93">
         <f t="shared" si="15"/>
-        <v>7.2400779764331558E-4</v>
+        <v>7.2258188629407082E-4</v>
       </c>
       <c r="P37" s="93">
         <f t="shared" si="15"/>
-        <v>1.3077109581304837E-3</v>
+        <v>1.3022488615103171E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -5188,17 +5188,17 @@
       </c>
       <c r="V37" s="93">
         <f t="shared" si="17"/>
-        <v>7.2400779764331558E-4</v>
+        <v>7.2258188629407082E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.3077109581304837E-3</v>
+        <v>1.3022488615103171E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="E38" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
@@ -5217,27 +5217,27 @@
       </c>
       <c r="G38" s="34">
         <f t="shared" si="14"/>
-        <v>9.7860000000000004E-4</v>
+        <v>9.7879387254164955E-4</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>1.3746575342450617E-3</v>
+        <v>1.3744645984307136E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>1.8425575342452564E-3</v>
+        <v>1.8425828768950199E-3</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="14"/>
-        <v>3.3850150684918718E-3</v>
+        <v>3.3845025238701467E-3</v>
       </c>
       <c r="K38" s="124">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>6.4109589040961534E-4</v>
+        <v>6.4109589041074346E-4</v>
       </c>
       <c r="N38" s="62" t="e">
         <f>N$31*$K38+N$32</f>
@@ -5245,11 +5245,11 @@
       </c>
       <c r="O38" s="63">
         <f t="shared" si="15"/>
-        <v>7.2548807641340288E-4</v>
+        <v>7.2411280063171485E-4</v>
       </c>
       <c r="P38" s="63">
         <f t="shared" si="15"/>
-        <v>1.2950146012346664E-3</v>
+        <v>1.2911380191372062E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5260,17 +5260,17 @@
       </c>
       <c r="V38" s="63">
         <f t="shared" si="17"/>
-        <v>7.2548807641340288E-4</v>
+        <v>7.2411280063171485E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.2950146012346664E-3</v>
+        <v>1.2911380191372062E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -5281,24 +5281,24 @@
       </c>
       <c r="E39" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41863</v>
+        <v>41864</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>1.3746575342467816E-3</v>
+        <v>1.3744645984313055E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>1.8425575342469764E-3</v>
+        <v>1.8425828768956118E-3</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="19"/>
-        <v>3.3850150684935918E-3</v>
+        <v>3.3845025238707386E-3</v>
       </c>
       <c r="K39" s="125">
         <f t="shared" si="18"/>
@@ -5306,16 +5306,16 @@
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>6.4109589041133532E-4</v>
+        <v>6.4109589041133521E-4</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="63">
         <f t="shared" si="15"/>
-        <v>7.2939044425727345E-4</v>
+        <v>7.2860613513874972E-4</v>
       </c>
       <c r="P39" s="63">
         <f t="shared" si="15"/>
-        <v>1.2653708047275817E-3</v>
+        <v>1.261627091700798E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5326,17 +5326,17 @@
       </c>
       <c r="V39" s="63">
         <f t="shared" si="17"/>
-        <v>7.2939044425727345E-4</v>
+        <v>7.2860613513874972E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.2653708047275817E-3</v>
+        <v>1.261627091700798E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -5347,41 +5347,41 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41894</v>
+        <v>41898</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>1.3500000000000001E-3</v>
+        <v>1.349807064183966E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>1.8179000000001948E-3</v>
+        <v>1.8179253426482724E-3</v>
       </c>
       <c r="J40" s="32">
         <f t="shared" si="19"/>
-        <v>3.3603575342468104E-3</v>
+        <v>3.3598449896233991E-3</v>
       </c>
       <c r="K40" s="125">
         <f t="shared" si="18"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>6.1643835616455376E-4</v>
+        <v>6.1643835616399573E-4</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="63">
         <f t="shared" si="15"/>
-        <v>7.3356164383544576E-4</v>
+        <v>7.3351832015602914E-4</v>
       </c>
       <c r="P40" s="63">
         <f t="shared" si="15"/>
-        <v>1.2398212773035073E-3</v>
+        <v>1.2351112080312388E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5392,17 +5392,17 @@
       </c>
       <c r="V40" s="63">
         <f t="shared" si="17"/>
-        <v>7.3356164383544576E-4</v>
+        <v>7.3351832015602914E-4</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.2398212773035073E-3</v>
+        <v>1.2351112080312388E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a0#0000</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
@@ -5423,25 +5423,25 @@
       <c r="H41" s="46"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>1.8179000000003629E-3</v>
+        <v>1.8179253426487102E-3</v>
       </c>
       <c r="J41" s="32">
         <f t="shared" si="20"/>
-        <v>3.3603575342469783E-3</v>
+        <v>3.3598449896238367E-3</v>
       </c>
       <c r="K41" s="125">
         <f t="shared" si="18"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>6.1643835616472192E-4</v>
+        <v>6.1643835616443363E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="46"/>
       <c r="P41" s="63">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.2201010965139855E-3</v>
+        <v>1.2188031788250562E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5453,13 +5453,13 @@
       <c r="V41" s="63"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.2201010965139855E-3</v>
+        <v>1.2188031788250562E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0000</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -5470,21 +5470,21 @@
       </c>
       <c r="E42" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41955</v>
+        <v>41956</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="44"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>1.8179000000002913E-3</v>
+        <v>1.8179253426484042E-3</v>
       </c>
       <c r="J42" s="32">
         <f t="shared" si="20"/>
-        <v>3.3603575342469067E-3</v>
+        <v>3.359844989623531E-3</v>
       </c>
       <c r="K42" s="125">
         <f t="shared" si="18"/>
@@ -5492,13 +5492,13 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>6.1643835616465015E-4</v>
+        <v>6.1643835616412778E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="44"/>
       <c r="P42" s="63">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.2080680187926802E-3</v>
+        <v>1.2068716099301012E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5510,13 +5510,13 @@
       <c r="V42" s="63"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.2080680187926802E-3</v>
+        <v>1.2068716099301012E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a5#0000</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -5527,35 +5527,35 @@
       </c>
       <c r="E43" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41985</v>
+        <v>41988</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="44"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>1.8179000000000003E-3</v>
+        <v>1.8179253426485907E-3</v>
       </c>
       <c r="J43" s="32">
         <f t="shared" si="20"/>
-        <v>3.3603575342466157E-3</v>
+        <v>3.3598449896237175E-3</v>
       </c>
       <c r="K43" s="125">
         <f t="shared" si="18"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>6.1643835616435915E-4</v>
+        <v>6.1643835616431426E-4</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="44"/>
       <c r="P43" s="63">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.2014616438356378E-3</v>
+        <v>1.2004629812512513E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5567,13 +5567,13 @@
       <c r="V43" s="93"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.2014616438356378E-3</v>
+        <v>1.2004629812512513E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0000</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="E44" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
@@ -5595,15 +5595,15 @@
       <c r="I44" s="46"/>
       <c r="J44" s="32">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>3.3629798388215282E-3</v>
+        <v>3.3620482609509742E-3</v>
       </c>
       <c r="K44" s="125">
         <f t="shared" si="18"/>
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>6.1906066073927151E-4</v>
+        <v>6.1864162749157093E-4</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -5616,7 +5616,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -5627,18 +5627,18 @@
       </c>
       <c r="E45" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42047</v>
+        <v>42048</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="44"/>
       <c r="J45" s="32">
         <f t="shared" si="21"/>
-        <v>3.3638434898536572E-3</v>
+        <v>3.3630063608541217E-3</v>
       </c>
       <c r="K45" s="125">
         <f t="shared" si="18"/>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>6.199243117714009E-4</v>
+        <v>6.1959972739471822E-4</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
@@ -5659,7 +5659,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -5670,18 +5670,18 @@
       </c>
       <c r="E46" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42075</v>
+        <v>42076</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="44"/>
       <c r="J46" s="32">
         <f t="shared" si="21"/>
-        <v>3.3603575342467116E-3</v>
+        <v>3.3598449896238584E-3</v>
       </c>
       <c r="K46" s="125">
         <f t="shared" si="18"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>6.164383561644551E-4</v>
+        <v>6.1643835616445521E-4</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -5702,7 +5702,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a1#0000</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="E47" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
@@ -5724,15 +5724,15 @@
       <c r="I47" s="44"/>
       <c r="J47" s="32">
         <f t="shared" si="21"/>
-        <v>3.3508758742490548E-3</v>
+        <v>3.3513028495564231E-3</v>
       </c>
       <c r="K47" s="125">
         <f t="shared" si="18"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>6.0695669616679822E-4</v>
+        <v>6.0789621609701997E-4</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -5745,7 +5745,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ab#0000</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -5756,18 +5756,18 @@
       </c>
       <c r="E48" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42136</v>
+        <v>42137</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="44"/>
       <c r="J48" s="32">
         <f t="shared" si="21"/>
-        <v>3.3417270652012013E-3</v>
+        <v>3.34207482751709E-3</v>
       </c>
       <c r="K48" s="125">
         <f t="shared" si="18"/>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>5.9780788711894493E-4</v>
+        <v>5.9866819405768692E-4</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -5788,7 +5788,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0000</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -5799,26 +5799,26 @@
       </c>
       <c r="E49" s="53">
         <f t="shared" si="13"/>
-        <v>41802</v>
+        <v>41803</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="44"/>
       <c r="J49" s="32">
         <f t="shared" si="21"/>
-        <v>3.3356999999999996E-3</v>
+        <v>3.3351874553772991E-3</v>
       </c>
       <c r="K49" s="125">
         <f t="shared" si="18"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>5.9178082191774304E-4</v>
+        <v>5.9178082191789581E-4</v>
       </c>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="P2" s="215">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5956,16 +5956,16 @@
       </c>
       <c r="J3" s="218">
         <f>ROUND(Depo_Calculation!$G34,6)</f>
-        <v>9.7199999999999999E-4</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="K3" s="156"/>
       <c r="L3" s="166">
-        <v>1.488E-3</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="M3" s="140"/>
       <c r="N3" s="169">
         <f t="array" ref="N3:N40">QuoteLive</f>
-        <v>9.7199999999999999E-4</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="O3" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
@@ -6000,15 +6000,15 @@
       </c>
       <c r="J4" s="218">
         <f>ROUND(Depo_Calculation!$G35,6)</f>
-        <v>9.7199999999999999E-4</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="K4" s="156"/>
       <c r="L4" s="166">
-        <v>1.4840000000000001E-3</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="M4" s="140"/>
       <c r="N4" s="169">
-        <v>9.7199999999999999E-4</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="O4" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
@@ -6040,15 +6040,15 @@
       </c>
       <c r="J5" s="218">
         <f>ROUND(Depo_Calculation!$G36,6)</f>
-        <v>9.7300000000000002E-4</v>
+        <v>9.7400000000000004E-4</v>
       </c>
       <c r="K5" s="156"/>
       <c r="L5" s="166">
-        <v>1.5E-3</v>
+        <v>9.7400000000000004E-4</v>
       </c>
       <c r="M5" s="140"/>
       <c r="N5" s="169">
-        <v>9.7300000000000002E-4</v>
+        <v>9.7400000000000004E-4</v>
       </c>
       <c r="O5" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
@@ -6080,15 +6080,15 @@
       </c>
       <c r="J6" s="220">
         <f>Depo_Calculation!$G37</f>
-        <v>9.7494152837839963E-4</v>
+        <v>9.7565552719620723E-4</v>
       </c>
       <c r="K6" s="156"/>
       <c r="L6" s="167">
-        <v>1.5054706107835709E-3</v>
+        <v>9.7565552719620723E-4</v>
       </c>
       <c r="M6" s="140"/>
       <c r="N6" s="171">
-        <v>9.7494152837839963E-4</v>
+        <v>9.7565552719620723E-4</v>
       </c>
       <c r="O6" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="K7" s="156"/>
       <c r="L7" s="168">
-        <v>1.5100000000000001E-3</v>
+        <v>9.7900000000000005E-4</v>
       </c>
       <c r="M7" s="140"/>
       <c r="N7" s="172">
@@ -6162,15 +6162,15 @@
       </c>
       <c r="J8" s="217">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
-        <v>1.3680000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="K8" s="156"/>
       <c r="L8" s="166">
-        <v>2.774E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="M8" s="140"/>
       <c r="N8" s="169">
-        <v>1.3680000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="O8" s="239">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="P8" s="216">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6208,15 +6208,15 @@
       </c>
       <c r="J9" s="218">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
-        <v>1.3680000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="166">
-        <v>2.7130000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="M9" s="140"/>
       <c r="N9" s="169">
-        <v>1.3680000000000001E-3</v>
+        <v>1.369E-3</v>
       </c>
       <c r="O9" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
@@ -6248,15 +6248,15 @@
       </c>
       <c r="J10" s="218">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
-        <v>1.369E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="K10" s="156"/>
       <c r="L10" s="166">
-        <v>2.666E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="169">
-        <v>1.369E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="O10" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="K11" s="156"/>
       <c r="L11" s="166">
-        <v>2.6150000000000001E-3</v>
+        <v>1.371E-3</v>
       </c>
       <c r="M11" s="140"/>
       <c r="N11" s="169">
@@ -6328,15 +6328,15 @@
       </c>
       <c r="J12" s="218">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
-        <v>1.3749999999999999E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="K12" s="156"/>
       <c r="L12" s="166">
-        <v>2.552E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="M12" s="140"/>
       <c r="N12" s="169">
-        <v>1.3749999999999999E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="O12" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
@@ -6368,15 +6368,15 @@
       </c>
       <c r="J13" s="218">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
-        <v>1.3749999999999999E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="K13" s="156"/>
       <c r="L13" s="166">
-        <v>2.3670000000000002E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="M13" s="140"/>
       <c r="N13" s="169">
-        <v>1.3749999999999999E-3</v>
+        <v>1.374E-3</v>
       </c>
       <c r="O13" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="K14" s="206"/>
       <c r="L14" s="168">
-        <v>2.3059999999999999E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="M14" s="206"/>
       <c r="N14" s="172">
@@ -6450,15 +6450,15 @@
       </c>
       <c r="J15" s="217">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
-        <v>1.836E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="K15" s="156"/>
       <c r="L15" s="166">
-        <v>3.3310000000000002E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="M15" s="140"/>
       <c r="N15" s="169">
-        <v>1.836E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="O15" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="P15" s="190">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6496,15 +6496,15 @@
       </c>
       <c r="J16" s="218">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
-        <v>1.836E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="K16" s="156"/>
       <c r="L16" s="166">
-        <v>3.3189999999999999E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="M16" s="140"/>
       <c r="N16" s="169">
-        <v>1.836E-3</v>
+        <v>1.8370000000000001E-3</v>
       </c>
       <c r="O16" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
@@ -6536,15 +6536,15 @@
       </c>
       <c r="J17" s="218">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
-        <v>1.8370000000000001E-3</v>
+        <v>1.838E-3</v>
       </c>
       <c r="K17" s="156"/>
       <c r="L17" s="166">
-        <v>3.3249999999999998E-3</v>
+        <v>1.838E-3</v>
       </c>
       <c r="M17" s="140"/>
       <c r="N17" s="169">
-        <v>1.8370000000000001E-3</v>
+        <v>1.838E-3</v>
       </c>
       <c r="O17" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="166">
-        <v>3.3210000000000002E-3</v>
+        <v>1.8389999999999999E-3</v>
       </c>
       <c r="M18" s="140"/>
       <c r="N18" s="169">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="K19" s="156"/>
       <c r="L19" s="166">
-        <v>3.3140000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="M19" s="140"/>
       <c r="N19" s="169">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="K20" s="156"/>
       <c r="L20" s="166">
-        <v>3.2680000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="M20" s="140"/>
       <c r="N20" s="169">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="K21" s="156"/>
       <c r="L21" s="166">
-        <v>3.2469999999999999E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="M21" s="140"/>
       <c r="N21" s="169">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="K22" s="156"/>
       <c r="L22" s="166">
-        <v>3.222E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="M22" s="140"/>
       <c r="N22" s="169">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="K23" s="156"/>
       <c r="L23" s="166">
-        <v>3.2230000000000002E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="M23" s="140"/>
       <c r="N23" s="169">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="K24" s="211"/>
       <c r="L24" s="168">
-        <v>3.2239999999999999E-3</v>
+        <v>1.818E-3</v>
       </c>
       <c r="M24" s="212"/>
       <c r="N24" s="172">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="K25" s="156"/>
       <c r="L25" s="237">
-        <v>4.9249999999999997E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="M25" s="140"/>
       <c r="N25" s="238">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="P25" s="190">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="K26" s="156"/>
       <c r="L26" s="166">
-        <v>4.9249999999999997E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
       <c r="M26" s="140"/>
       <c r="N26" s="169">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="K27" s="156"/>
       <c r="L27" s="166">
-        <v>4.9449999999999997E-3</v>
+        <v>3.3800000000000002E-3</v>
       </c>
       <c r="M27" s="140"/>
       <c r="N27" s="169">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="K28" s="156"/>
       <c r="L28" s="166">
-        <v>4.9550000000000002E-3</v>
+        <v>3.3809999999999999E-3</v>
       </c>
       <c r="M28" s="140"/>
       <c r="N28" s="169">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="K29" s="156"/>
       <c r="L29" s="166">
-        <v>4.9649999999999998E-3</v>
+        <v>3.385E-3</v>
       </c>
       <c r="M29" s="140"/>
       <c r="N29" s="169">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="K30" s="156"/>
       <c r="L30" s="166">
-        <v>4.9750000000000003E-3</v>
+        <v>3.385E-3</v>
       </c>
       <c r="M30" s="140"/>
       <c r="N30" s="169">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="K31" s="156"/>
       <c r="L31" s="166">
-        <v>4.9950000000000003E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="M31" s="140"/>
       <c r="N31" s="169">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="K32" s="156"/>
       <c r="L32" s="166">
-        <v>5.0049999999999999E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="M32" s="140"/>
       <c r="N32" s="169">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="K33" s="156"/>
       <c r="L33" s="166">
-        <v>5.0350000000000004E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="M33" s="140"/>
       <c r="N33" s="169">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="K34" s="156"/>
       <c r="L34" s="166">
-        <v>5.0549999999999996E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="M34" s="140"/>
       <c r="N34" s="169">
@@ -7267,15 +7267,15 @@
       </c>
       <c r="J35" s="218">
         <f>ROUND(Depo_Calculation!$J44,6)</f>
-        <v>3.3630000000000001E-3</v>
+        <v>3.362E-3</v>
       </c>
       <c r="K35" s="156"/>
       <c r="L35" s="166">
-        <v>5.0850000000000001E-3</v>
+        <v>3.362E-3</v>
       </c>
       <c r="M35" s="140"/>
       <c r="N35" s="169">
-        <v>3.3630000000000001E-3</v>
+        <v>3.362E-3</v>
       </c>
       <c r="O35" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
@@ -7307,15 +7307,15 @@
       </c>
       <c r="J36" s="218">
         <f>ROUND(Depo_Calculation!$J45,6)</f>
-        <v>3.3639999999999998E-3</v>
+        <v>3.3630000000000001E-3</v>
       </c>
       <c r="K36" s="156"/>
       <c r="L36" s="166">
-        <v>5.1149999999999998E-3</v>
+        <v>3.3630000000000001E-3</v>
       </c>
       <c r="M36" s="140"/>
       <c r="N36" s="169">
-        <v>3.3639999999999998E-3</v>
+        <v>3.3630000000000001E-3</v>
       </c>
       <c r="O36" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="K37" s="156"/>
       <c r="L37" s="166">
-        <v>5.1450000000000003E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="M37" s="140"/>
       <c r="N37" s="169">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="K38" s="156"/>
       <c r="L38" s="166">
-        <v>5.2050000000000004E-3</v>
+        <v>3.3509999999999998E-3</v>
       </c>
       <c r="M38" s="140"/>
       <c r="N38" s="169">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="K39" s="156"/>
       <c r="L39" s="166">
-        <v>5.2649999999999997E-3</v>
+        <v>3.3419999999999999E-3</v>
       </c>
       <c r="M39" s="140"/>
       <c r="N39" s="169">
@@ -7467,15 +7467,15 @@
       </c>
       <c r="J40" s="219">
         <f>ROUND(Depo_Calculation!$J49,6)</f>
-        <v>3.336E-3</v>
+        <v>3.3349999999999999E-3</v>
       </c>
       <c r="K40" s="211"/>
       <c r="L40" s="168">
-        <v>5.3449999999999999E-3</v>
+        <v>3.3349999999999999E-3</v>
       </c>
       <c r="M40" s="212"/>
       <c r="N40" s="172">
-        <v>3.336E-3</v>
+        <v>3.3349999999999999E-3</v>
       </c>
       <c r="O40" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
@@ -2455,16 +2455,14 @@
       </c>
       <c r="D17" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="E17" s="223"/>
       <c r="G17" s="221"/>
       <c r="H17" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="55">
-        <v>41801.52851851852</v>
-      </c>
+      <c r="I17" s="55"/>
       <c r="J17" s="223"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -2474,7 +2472,7 @@
       </c>
       <c r="D18" s="55" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00378#0000</v>
+        <v>obj_00378#0001</v>
       </c>
       <c r="E18" s="223"/>
       <c r="G18" s="221"/>
@@ -2483,7 +2481,7 @@
       </c>
       <c r="I18" s="55">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41801</v>
+        <v>41803</v>
       </c>
       <c r="J18" s="223"/>
     </row>
@@ -2724,7 +2722,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bc#0000</v>
+        <v>obj_003b9#0001</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -2736,23 +2734,23 @@
       </c>
       <c r="E2" s="103">
         <f>SettlementDate</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F2" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="G2" s="105">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>9.7860000000000004E-4</v>
+        <v>9.6429999999999997E-4</v>
       </c>
       <c r="H2" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>6.4109589041074346E-4</v>
+        <v>6.4109589041194681E-4</v>
       </c>
       <c r="I2" s="107">
         <f>G2-H2</f>
-        <v>3.3750410958925659E-4</v>
+        <v>3.2320410958805315E-4</v>
       </c>
       <c r="J2" s="108" t="b">
         <v>0</v>
@@ -2766,20 +2764,20 @@
       </c>
       <c r="O2" s="111">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="111">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="108"/>
       <c r="R2" s="122">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>320.33333333333337</v>
+        <v>300</v>
       </c>
       <c r="S2" s="122">
         <f>(O2+N2)/2</f>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="T2" s="122">
         <v>1</v>
@@ -2792,7 +2790,7 @@
       </c>
       <c r="B3" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00375#0001</v>
+        <v>obj_00375#0002</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -2808,23 +2806,23 @@
       </c>
       <c r="F3" s="97">
         <f>F2</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="G3" s="98">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>9.7860000000000004E-4</v>
-      </c>
-      <c r="H3" s="99">
+        <v>9.6429999999999997E-4</v>
+      </c>
+      <c r="H3" s="99" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>6.4090201786909384E-4</v>
-      </c>
-      <c r="I3" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" s="100" t="e">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>3.376979821309062E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" s="108" t="b">
         <f>NOT(ISERROR(I3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="110" t="e">
         <f>K4</f>
@@ -2837,24 +2835,24 @@
       <c r="M3" s="109"/>
       <c r="N3" s="111">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O3" s="111">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="111">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="108"/>
       <c r="R3" s="122">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>310.33333333333331</v>
+        <v>258.33333333333331</v>
       </c>
       <c r="S3" s="122">
         <f>(O3+N3)/2</f>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="T3" s="122">
         <v>1</v>
@@ -2867,7 +2865,7 @@
       </c>
       <c r="B4" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bd#0000</v>
+        <v>obj_003bd#0001</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -2878,11 +2876,11 @@
       </c>
       <c r="E4" s="53">
         <f>F3</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="F4" s="54">
         <f>F5</f>
-        <v>41864</v>
+        <v>41869</v>
       </c>
       <c r="G4" s="27" t="e">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
@@ -2890,7 +2888,7 @@
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>6.41060500361057E-4</v>
+        <v>6.4106164191307657E-4</v>
       </c>
       <c r="I4" s="16" t="e">
         <f>G4-H4</f>
@@ -2911,11 +2909,11 @@
       <c r="M4" s="5"/>
       <c r="N4" s="112">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="112">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="112">
         <f>(O4^2-N4^2)/(O4-N4)</f>
@@ -2923,7 +2921,7 @@
       </c>
       <c r="R4" s="91">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2191</v>
+        <v>2201.3333333333335</v>
       </c>
       <c r="S4" s="91">
         <f>(O4+N4)/2</f>
@@ -2943,11 +2941,11 @@
       </c>
       <c r="E5" s="53">
         <f>SettlementDate</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F5" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41864</v>
+        <v>41869</v>
       </c>
       <c r="G5" s="50" t="e">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -2974,7 +2972,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_003b0#0001</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -2986,23 +2984,23 @@
       </c>
       <c r="E6" s="103">
         <f>SettlementDate</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F6" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="G6" s="105">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.3357E-3</v>
       </c>
       <c r="H6" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>6.1643835616399573E-4</v>
+        <v>6.1643835616455366E-4</v>
       </c>
       <c r="I6" s="107">
         <f t="shared" si="1"/>
-        <v>7.3356164383600435E-4</v>
+        <v>7.1926164383544634E-4</v>
       </c>
       <c r="J6" s="108" t="b">
         <v>0</v>
@@ -3016,20 +3014,20 @@
       </c>
       <c r="O6" s="111">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P6" s="111">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="108"/>
       <c r="R6" s="122">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>3008.3333333333335</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S6" s="122">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>47.5</v>
+        <v>46</v>
       </c>
       <c r="T6" s="122">
         <v>1</v>
@@ -3042,7 +3040,7 @@
       </c>
       <c r="B7" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00374#0001</v>
+        <v>obj_00374#0002</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -3058,47 +3056,47 @@
       </c>
       <c r="F7" s="97">
         <f>F6</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="H7" s="99">
+        <v>1.3357E-3</v>
+      </c>
+      <c r="H7" s="99" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>6.1663129198002986E-4</v>
-      </c>
-      <c r="I7" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" s="100" t="e">
         <f t="shared" si="1"/>
-        <v>7.3336870801997021E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="J7" s="108" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="115"/>
       <c r="L7" s="109"/>
       <c r="M7" s="109"/>
       <c r="N7" s="111">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="111">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P7" s="111">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="108"/>
       <c r="R7" s="122">
         <f t="shared" si="4"/>
-        <v>2977</v>
+        <v>2676.3333333333335</v>
       </c>
       <c r="S7" s="122">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>43.5</v>
       </c>
       <c r="T7" s="122">
         <v>1</v>
@@ -3129,11 +3127,11 @@
       <c r="M8" s="109"/>
       <c r="N8" s="111">
         <f t="shared" si="2"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="O8" s="111">
         <f t="shared" si="3"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="P8" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3146,7 +3144,7 @@
       </c>
       <c r="S8" s="122">
         <f t="shared" si="5"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="T8" s="122">
         <v>1</v>
@@ -3177,20 +3175,20 @@
       </c>
       <c r="K9" s="99">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>1.4225038392683219E-7</v>
+        <v>4.8791753016114797E-6</v>
       </c>
       <c r="L9" s="99">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.1999717193084803E-4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="109"/>
       <c r="N9" s="111">
         <f t="shared" si="2"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="O9" s="111">
         <f t="shared" si="3"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="P9" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3203,18 +3201,18 @@
       </c>
       <c r="S9" s="122">
         <f t="shared" si="5"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="T9" s="122">
         <v>1</v>
       </c>
       <c r="V9" s="82">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2977</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="W9" s="83">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="X9" s="84">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -3222,25 +3220,25 @@
       </c>
       <c r="Z9" s="67">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>-2.4852126474268938E-10</v>
+        <v>-4.1480281861728213E-8</v>
       </c>
       <c r="AB9" s="67">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>7.3336870801997021E-4</v>
+        <v>7.4163464584494493E-4</v>
       </c>
       <c r="AD9" s="73">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>5.3686471009305593E-4</v>
+        <v>5.124374652584775E-4</v>
       </c>
       <c r="AE9" s="74">
-        <v>-1.0737294201861119E-3</v>
+        <v>-1.0683018343524192E-3</v>
       </c>
       <c r="AF9" s="75">
-        <v>5.3686471009305593E-4</v>
+        <v>5.5586436909394192E-4</v>
       </c>
       <c r="AH9" s="70">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>9.7578195523695399E-19</v>
+        <v>8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -3250,7 +3248,7 @@
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0000</v>
+        <v>obj_003be#0001</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -3274,7 +3272,7 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>6.1485605014269381E-4</v>
+        <v>6.1588920278960639E-4</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3295,32 +3293,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="112">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="112">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P10" s="112">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="R10" s="91">
         <f t="shared" si="4"/>
-        <v>3306.3333333333335</v>
+        <v>2914.3333333333335</v>
       </c>
       <c r="S10" s="91">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T10" s="91">
         <v>1</v>
       </c>
       <c r="V10" s="85">
-        <v>6634.333333333333</v>
+        <v>12369.333333333334</v>
       </c>
       <c r="W10" s="86">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="X10" s="87">
         <v>1</v>
@@ -3329,25 +3327,25 @@
         <v>46</v>
       </c>
       <c r="Z10" s="68">
-        <v>3.1479827137320877E-7</v>
+        <v>7.9030567392450658E-6</v>
       </c>
       <c r="AA10" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB10" s="68">
-        <v>7.4190373105558014E-4</v>
+        <v>7.5029656189893039E-4</v>
       </c>
       <c r="AD10" s="76">
-        <v>-9.8783106657122324E-2</v>
+        <v>-0.12553849360755986</v>
       </c>
       <c r="AE10" s="77">
-        <v>0.16423287998091132</v>
+        <v>0.22781753752084516</v>
       </c>
       <c r="AF10" s="78">
-        <v>-6.5449773323788984E-2</v>
+        <v>-0.10227904391328532</v>
       </c>
       <c r="AH10" s="71">
-        <v>1.7347234759768071E-18</v>
+        <v>1.8431436932253575E-18</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -3357,7 +3355,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_003bf#0001</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -3381,7 +3379,7 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>6.0745815108847307E-4</v>
+        <v>6.0865532577915858E-4</v>
       </c>
       <c r="I11" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3402,53 +3400,53 @@
       <c r="M11" s="5"/>
       <c r="N11" s="112">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O11" s="112">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P11" s="112">
         <f t="shared" si="6"/>
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="R11" s="91">
         <f t="shared" si="4"/>
-        <v>6946.333333333333</v>
+        <v>6330.333333333333</v>
       </c>
       <c r="S11" s="91">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T11" s="91">
         <v>1</v>
       </c>
       <c r="V11" s="88">
-        <v>12154.333333333334</v>
+        <v>19596.333333333332</v>
       </c>
       <c r="W11" s="89">
-        <v>107</v>
+        <v>137.5</v>
       </c>
       <c r="X11" s="90">
         <v>1</v>
       </c>
       <c r="Z11" s="69">
-        <v>7.1931303707056934E-4</v>
+        <v>4.0984986716880193E-4</v>
       </c>
       <c r="AB11" s="69">
-        <v>7.4997584181539588E-4</v>
+        <v>6.8365873869194894E-4</v>
       </c>
       <c r="AD11" s="79">
-        <v>4.0445597709377221</v>
+        <v>7.2196474893459364</v>
       </c>
       <c r="AE11" s="80">
-        <v>-4.5224528752087769</v>
+        <v>-10.390112562534751</v>
       </c>
       <c r="AF11" s="81">
-        <v>1.4778931042710548</v>
+        <v>4.1704650731888151</v>
       </c>
       <c r="AH11" s="72">
-        <v>2.6020852139652106E-18</v>
+        <v>3.0357660829594124E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -3457,7 +3455,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b0#0000</v>
+        <v>obj_003b6#0001</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -3469,11 +3467,11 @@
       </c>
       <c r="E12" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="F12" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41926</v>
+        <v>41929</v>
       </c>
       <c r="G12" s="50">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -3481,11 +3479,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>6.0809626894441993E-4</v>
+        <v>6.0836535415505514E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>7.4190373105558014E-4</v>
+        <v>7.4163464584494493E-4</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -3493,32 +3491,32 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.4225038392683219E-7</v>
+        <v>4.8791753016114797E-6</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.1999717193084803E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="112">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="112">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P12" s="112">
         <f t="shared" si="6"/>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R12" s="91">
         <f t="shared" si="4"/>
-        <v>6634.333333333333</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="S12" s="91">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T12" s="91">
         <v>1</v>
@@ -3533,7 +3531,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b1#0000</v>
+        <v>obj_003af#0001</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -3545,11 +3543,11 @@
       </c>
       <c r="E13" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41864</v>
+        <v>41869</v>
       </c>
       <c r="F13" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="G13" s="50">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -3557,11 +3555,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>6.000241581846042E-4</v>
+        <v>5.9970343810106968E-4</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>7.4997584181539588E-4</v>
+        <v>7.5029656189893039E-4</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -3569,32 +3567,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.3839278162854722E-7</v>
+        <v>3.4735951939765298E-6</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.2035978654688682E-4</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="112">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" s="112">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P13" s="112">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R13" s="91">
         <f t="shared" si="4"/>
-        <v>12154.333333333334</v>
+        <v>12369.333333333334</v>
       </c>
       <c r="S13" s="91">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T13" s="91">
         <v>1</v>
@@ -3609,7 +3607,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_003ba#0001</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -3621,23 +3619,23 @@
       </c>
       <c r="E14" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="F14" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41989</v>
+        <v>41990</v>
       </c>
       <c r="G14" s="50">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>6.1644140003261631E-4</v>
+        <v>6.16341261308051E-4</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>7.3355859996738376E-4</v>
+        <v>6.8365873869194894E-4</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -3645,32 +3643,32 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>1.0154649594307286E-9</v>
+        <v>2.4860317770616326E-6</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>7.3327325431378368E-4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="112">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O14" s="112">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P14" s="112">
         <f t="shared" si="6"/>
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="R14" s="91">
         <f t="shared" si="4"/>
-        <v>20430.333333333332</v>
+        <v>19596.333333333332</v>
       </c>
       <c r="S14" s="91">
         <f t="shared" si="5"/>
-        <v>140.5</v>
+        <v>137.5</v>
       </c>
       <c r="T14" s="91">
         <v>1</v>
@@ -3685,7 +3683,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0000</v>
+        <v>obj_003b1#0001</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -3697,23 +3695,23 @@
       </c>
       <c r="E15" s="103">
         <f>SettlementDate</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F15" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41988</v>
+        <v>41990</v>
       </c>
       <c r="G15" s="105">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>1.8179000000000001E-3</v>
+        <v>1.7963999999999999E-3</v>
       </c>
       <c r="H15" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>6.1643835616431426E-4</v>
+        <v>6.1643835616435904E-4</v>
       </c>
       <c r="I15" s="107">
         <f t="shared" si="1"/>
-        <v>1.2014616438356857E-3</v>
+        <v>1.1799616438356408E-3</v>
       </c>
       <c r="J15" s="108" t="b">
         <v>0</v>
@@ -3727,20 +3725,20 @@
       </c>
       <c r="O15" s="111">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P15" s="111">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q15" s="108"/>
       <c r="R15" s="122">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11408.333333333332</v>
+        <v>11163</v>
       </c>
       <c r="S15" s="122">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="T15" s="122">
         <v>1</v>
@@ -3753,7 +3751,7 @@
       </c>
       <c r="B16" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00377#0001</v>
+        <v>obj_00377#0002</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -3773,43 +3771,43 @@
       </c>
       <c r="G16" s="98">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.8179000000000001E-3</v>
-      </c>
-      <c r="H16" s="99">
+        <v>1.7963999999999999E-3</v>
+      </c>
+      <c r="H16" s="99" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>6.1641301351572371E-4</v>
-      </c>
-      <c r="I16" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" s="100" t="e">
         <f t="shared" si="1"/>
-        <v>1.2014869864842765E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J16" s="108" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="109"/>
       <c r="L16" s="109"/>
       <c r="M16" s="109"/>
       <c r="N16" s="111">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P16" s="111">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="122">
         <f t="shared" si="8"/>
-        <v>10981</v>
+        <v>10273</v>
       </c>
       <c r="S16" s="122">
         <f t="shared" si="9"/>
-        <v>90.5</v>
+        <v>86.5</v>
       </c>
       <c r="T16" s="122">
         <v>1</v>
@@ -3840,11 +3838,11 @@
       <c r="M17" s="109"/>
       <c r="N17" s="111">
         <f t="shared" si="2"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" si="3"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="P17" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3857,7 +3855,7 @@
       </c>
       <c r="S17" s="122">
         <f t="shared" si="9"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="T17" s="122">
         <v>1</v>
@@ -3888,20 +3886,20 @@
       </c>
       <c r="K18" s="99">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-2.3843517491423524E-7</v>
+        <v>3.8715050067928447E-6</v>
       </c>
       <c r="L18" s="99">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.244643753143753E-3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="111">
         <f t="shared" si="2"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" si="3"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="P18" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3914,18 +3912,18 @@
       </c>
       <c r="S18" s="122">
         <f t="shared" si="9"/>
-        <v>-41803</v>
+        <v>-41807</v>
       </c>
       <c r="T18" s="122">
         <v>1</v>
       </c>
       <c r="V18" s="82">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>10981</v>
+        <v>18012</v>
       </c>
       <c r="W18" s="83">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>90.5</v>
+        <v>123</v>
       </c>
       <c r="X18" s="84">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -3933,25 +3931,25 @@
       </c>
       <c r="Z18" s="67">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>9.5539992073115028E-9</v>
+        <v>2.3698871434684829E-8</v>
       </c>
       <c r="AB18" s="67">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.2014869864842765E-3</v>
+        <v>1.1845672916027039E-3</v>
       </c>
       <c r="AD18" s="73">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>4.9983338887037891E-4</v>
+        <v>5.5343029691050274E-4</v>
       </c>
       <c r="AE18" s="74">
-        <v>-1.0413195601466226E-3</v>
+        <v>-1.1554071110938559E-3</v>
       </c>
       <c r="AF18" s="75">
-        <v>5.4148617127624372E-4</v>
+        <v>6.0197681418335328E-4</v>
       </c>
       <c r="AH18" s="70">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>1.5178830414797062E-18</v>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -3960,7 +3958,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003b3#0001</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -3972,11 +3970,11 @@
       </c>
       <c r="E19" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41834</v>
+        <v>41837</v>
       </c>
       <c r="F19" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42018</v>
+        <v>42023</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
@@ -3984,11 +3982,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>6.149126562390258E-4</v>
+        <v>6.1543270839729597E-4</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>1.1850873437609741E-3</v>
+        <v>1.1845672916027039E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -3996,20 +3994,20 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.5230219574311341E-7</v>
+        <v>4.8153141935069259E-6</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.24715368391378E-3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="112">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="112">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P19" s="112">
         <f t="shared" si="7"/>
@@ -4017,7 +4015,7 @@
       </c>
       <c r="R19" s="91">
         <f t="shared" si="8"/>
-        <v>17950.333333333336</v>
+        <v>18012</v>
       </c>
       <c r="S19" s="91">
         <f t="shared" si="9"/>
@@ -4027,10 +4025,10 @@
         <v>1</v>
       </c>
       <c r="V19" s="85">
-        <v>17950.333333333336</v>
+        <v>26537.333333333332</v>
       </c>
       <c r="W19" s="86">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="X19" s="87">
         <v>1</v>
@@ -4039,25 +4037,25 @@
         <v>46</v>
       </c>
       <c r="Z19" s="68">
-        <v>-2.5533737804756473E-6</v>
+        <v>-8.0347043911483534E-6</v>
       </c>
       <c r="AA19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="68">
-        <v>1.1850873437609741E-3</v>
+        <v>1.1375322340816054E-3</v>
       </c>
       <c r="AD19" s="76">
-        <v>-0.13795401532822446</v>
+        <v>-0.18445734702992503</v>
       </c>
       <c r="AE19" s="77">
-        <v>0.25407086526713429</v>
+        <v>0.35000744379931692</v>
       </c>
       <c r="AF19" s="78">
-        <v>-0.11611684993890983</v>
+        <v>-0.16555009676939192</v>
       </c>
       <c r="AH19" s="71">
-        <v>1.7347234759768071E-18</v>
+        <v>-2.8189256484623115E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -4066,7 +4064,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003b2#0001</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4078,23 +4076,23 @@
       </c>
       <c r="E20" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41864</v>
+        <v>41869</v>
       </c>
       <c r="F20" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42048</v>
+        <v>42053</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>6.1240675621675601E-4</v>
+        <v>6.1246776591839457E-4</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>1.1875932437832438E-3</v>
+        <v>1.1375322340816054E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4102,62 +4100,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.1114994160826148E-7</v>
+        <v>3.6932864742909263E-6</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2216051259153718E-3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="112">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="112">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P20" s="112">
         <f t="shared" si="7"/>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R20" s="91">
         <f t="shared" si="8"/>
-        <v>26230.333333333332</v>
+        <v>26537.333333333332</v>
       </c>
       <c r="S20" s="91">
         <f t="shared" si="9"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T20" s="91">
         <v>1</v>
       </c>
       <c r="V20" s="88">
-        <v>26230.333333333332</v>
+        <v>36036.333333333328</v>
       </c>
       <c r="W20" s="89">
-        <v>153</v>
+        <v>182.5</v>
       </c>
       <c r="X20" s="90">
         <v>1</v>
       </c>
       <c r="Z20" s="69">
-        <v>1.3276548483218365E-3</v>
+        <v>1.7459718594324061E-3</v>
       </c>
       <c r="AB20" s="69">
-        <v>1.1875932437832438E-3</v>
+        <v>1.1336587386919488E-3</v>
       </c>
       <c r="AD20" s="79">
-        <v>7.9961679440186844</v>
+        <v>13.719867176728803</v>
       </c>
       <c r="AE20" s="80">
-        <v>-11.558683216705592</v>
+        <v>-22.239722702293452</v>
       </c>
       <c r="AF20" s="81">
-        <v>4.562515272686908</v>
+        <v>9.5198555255646493</v>
       </c>
       <c r="AH20" s="72">
-        <v>1.7347234759768071E-18</v>
+        <v>-3.2526065174565133E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -4166,7 +4164,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_003b4#0001</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4178,11 +4176,11 @@
       </c>
       <c r="E21" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="F21" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42079</v>
+        <v>42080</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
@@ -4190,11 +4188,11 @@
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>6.1536515712007627E-4</v>
+        <v>6.1634126130805111E-4</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>1.1346348428799237E-3</v>
+        <v>1.1336587386919488E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4202,32 +4200,32 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-3.5185338739133083E-7</v>
+        <v>3.1059143525806815E-6</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2651724496021075E-3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="112">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O21" s="112">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P21" s="112">
         <f t="shared" si="7"/>
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="R21" s="91">
         <f t="shared" si="8"/>
-        <v>37140.333333333328</v>
+        <v>36036.333333333328</v>
       </c>
       <c r="S21" s="91">
         <f t="shared" si="9"/>
-        <v>185.5</v>
+        <v>182.5</v>
       </c>
       <c r="T21" s="91">
         <v>1</v>
@@ -4243,7 +4241,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003b8#0001</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4255,11 +4253,11 @@
       </c>
       <c r="E22" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41926</v>
+        <v>41929</v>
       </c>
       <c r="F22" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42108</v>
+        <v>42111</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
@@ -4267,11 +4265,11 @@
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>6.0146489631280199E-4</v>
+        <v>6.016299477639898E-4</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>1.1485351036871977E-3</v>
+        <v>1.1483700522360099E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4279,32 +4277,32 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.1438009229586557E-7</v>
+        <v>2.6957043479718543E-6</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2402897831898282E-3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="112">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O22" s="112">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P22" s="112">
         <f t="shared" si="7"/>
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="R22" s="91">
         <f t="shared" si="8"/>
-        <v>48556.333333333328</v>
+        <v>48129.333333333328</v>
       </c>
       <c r="S22" s="91">
         <f t="shared" si="9"/>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T22" s="91">
         <v>1</v>
@@ -4320,7 +4318,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003bb#0001</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4332,11 +4330,11 @@
       </c>
       <c r="E23" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41956</v>
+        <v>41960</v>
       </c>
       <c r="F23" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42137</v>
+        <v>42142</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
@@ -4344,11 +4342,11 @@
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.8349413983311931E-4</v>
+        <v>5.8236776008173743E-4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>1.1665058601668804E-3</v>
+        <v>1.1676322399182624E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4356,11 +4354,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.1431740626600037E-7</v>
+        <v>2.3926890162259477E-6</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2221784370184225E-3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="112">
@@ -4369,19 +4367,19 @@
       </c>
       <c r="O23" s="112">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P23" s="112">
         <f t="shared" si="7"/>
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="R23" s="91">
         <f t="shared" si="8"/>
-        <v>62022.333333333336</v>
+        <v>62296.333333333328</v>
       </c>
       <c r="S23" s="91">
         <f t="shared" si="9"/>
-        <v>243.5</v>
+        <v>244</v>
       </c>
       <c r="T23" s="91">
         <v>1</v>
@@ -4397,7 +4395,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b5#0000</v>
+        <v>obj_003b7#0001</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -4409,23 +4407,23 @@
       </c>
       <c r="E24" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41988</v>
+        <v>41990</v>
       </c>
       <c r="F24" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>5.6653737662357856E-4</v>
+        <v>5.6681019324605843E-4</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>1.1834626233764214E-3</v>
+        <v>1.1331898067539416E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4433,32 +4431,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-4.8583188969959966E-8</v>
+        <v>2.0678646108648569E-6</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2102805436878393E-3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="112">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O24" s="112">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P24" s="112">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="R24" s="91">
         <f t="shared" si="8"/>
-        <v>78936.333333333328</v>
+        <v>77836.333333333328</v>
       </c>
       <c r="S24" s="91">
         <f t="shared" si="9"/>
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T24" s="91">
         <v>1</v>
@@ -4470,7 +4468,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_003bc#0001</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -4482,23 +4480,23 @@
       </c>
       <c r="E25" s="103">
         <f>SettlementDate</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F25" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="G25" s="105">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>3.3356999999999996E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="H25" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>5.9178082191789581E-4</v>
+        <v>5.9178082191796216E-4</v>
       </c>
       <c r="I25" s="107">
         <f t="shared" si="1"/>
-        <v>2.7439191780821038E-3</v>
+        <v>2.7082191780820378E-3</v>
       </c>
       <c r="J25" s="108" t="b">
         <v>0</v>
@@ -4512,20 +4510,20 @@
       </c>
       <c r="O25" s="111">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P25" s="111">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="108"/>
       <c r="R25" s="122">
         <f t="shared" si="8"/>
-        <v>44896.333333333336</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S25" s="122">
         <f t="shared" si="9"/>
-        <v>183.5</v>
+        <v>182.5</v>
       </c>
       <c r="T25" s="122">
         <v>1</v>
@@ -4538,7 +4536,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00376#0001</v>
+        <v>obj_00376#0002</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -4558,19 +4556,19 @@
       </c>
       <c r="G26" s="98">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>3.3356999999999996E-3</v>
-      </c>
-      <c r="H26" s="99">
+        <v>3.3E-3</v>
+      </c>
+      <c r="H26" s="99" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>5.9229336654059652E-4</v>
-      </c>
-      <c r="I26" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I26" s="100" t="e">
         <f t="shared" si="1"/>
-        <v>2.7434066334594033E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J26" s="108" t="b">
         <f>NOT(ISERROR(I26))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="110" t="e">
         <f>K27</f>
@@ -4583,24 +4581,24 @@
       <c r="M26" s="109"/>
       <c r="N26" s="111">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="O26" s="111">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P26" s="111">
         <f t="shared" si="7"/>
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="122">
         <f t="shared" si="8"/>
-        <v>44044.333333333328</v>
+        <v>42608.333333333328</v>
       </c>
       <c r="S26" s="122">
         <f t="shared" si="9"/>
-        <v>181.5</v>
+        <v>177.5</v>
       </c>
       <c r="T26" s="122">
         <v>1</v>
@@ -4613,7 +4611,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bb#0000</v>
+        <v>obj_003b5#0001</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -4625,11 +4623,11 @@
       </c>
       <c r="E27" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="F27" s="54">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42536</v>
+        <v>42538</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -4637,7 +4635,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.9093853772984946E-4</v>
+        <v>6.903107338162947E-4</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4658,23 +4656,23 @@
       <c r="M27" s="5"/>
       <c r="N27" s="112">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O27" s="112">
         <f t="shared" si="3"/>
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P27" s="112">
         <f t="shared" si="7"/>
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="R27" s="91">
         <f t="shared" si="8"/>
-        <v>313663</v>
+        <v>311467</v>
       </c>
       <c r="S27" s="91">
         <f t="shared" si="9"/>
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="T27" s="91">
         <v>1</v>
@@ -4721,16 +4719,16 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="94" t="s">
         <v>48</v>
@@ -4746,11 +4744,11 @@
       </c>
       <c r="V30" s="117">
         <f>Z9</f>
-        <v>-2.4852126474268938E-10</v>
+        <v>-4.1480281861728213E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>9.5539992073115028E-9</v>
+        <v>2.3698871434684829E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -4759,19 +4757,19 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>3.376979821309062E-4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>7.3336870801997021E-4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>1.2014869864842765E-3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>2.7434066334594033E-3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="58" t="s">
         <v>45</v>
@@ -4782,11 +4780,11 @@
       </c>
       <c r="O31" s="57">
         <f>K9</f>
-        <v>1.4225038392683219E-7</v>
+        <v>4.8791753016114797E-6</v>
       </c>
       <c r="P31" s="57">
         <f>AVERAGE(K19:K21)</f>
-        <v>-2.3843517491423524E-7</v>
+        <v>3.8715050067928447E-6</v>
       </c>
       <c r="Q31" s="57" t="e">
         <f>K26</f>
@@ -4797,11 +4795,11 @@
       </c>
       <c r="V31" s="63">
         <f>Z10</f>
-        <v>3.1479827137320877E-7</v>
+        <v>7.9030567392450658E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-2.5533737804756473E-6</v>
+        <v>-8.0347043911483534E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -4810,19 +4808,19 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>3.376979821309062E-4</v>
+        <v>0</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>7.3336870801997021E-4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>1.2014869864842765E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>2.7434066334594033E-3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="58" t="s">
         <v>44</v>
@@ -4833,11 +4831,11 @@
       </c>
       <c r="O32" s="57">
         <f>L9</f>
-        <v>7.1999717193084803E-4</v>
+        <v>0</v>
       </c>
       <c r="P32" s="57">
         <f>L18</f>
-        <v>1.244643753143753E-3</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="57" t="e">
         <f>L26</f>
@@ -4848,11 +4846,11 @@
       </c>
       <c r="V32" s="63">
         <f>Z11</f>
-        <v>7.1931303707056934E-4</v>
+        <v>4.0984986716880193E-4</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.3276548483218365E-3</v>
+        <v>1.7459718594324061E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -4910,7 +4908,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="123" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_0039f#0001</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -4921,35 +4919,35 @@
       </c>
       <c r="E34" s="51">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41806</v>
-      </c>
-      <c r="G34" s="32">
+        <v>41808</v>
+      </c>
+      <c r="G34" s="32" t="e">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
-        <v>9.7307675489193988E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>1.368747480781004E-3</v>
+        <v>1.0480078345684817E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>1.8368657592453103E-3</v>
-      </c>
-      <c r="J34" s="32">
+        <v>2.3761826726513215E-3</v>
+      </c>
+      <c r="J34" s="32" t="e">
         <f t="shared" si="14"/>
-        <v>3.3787854062204371E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K34" s="124">
         <f>F34-$E$6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>6.3537877276103368E-4</v>
+        <v>6.3422026579067789E-4</v>
       </c>
       <c r="N34" s="62" t="e">
         <f>N$31*$K34+N$32</f>
@@ -4957,11 +4955,11 @@
       </c>
       <c r="O34" s="63">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>7.1978448891383488E-4</v>
+        <v>4.1378756877780387E-4</v>
       </c>
       <c r="P34" s="63">
         <f t="shared" si="15"/>
-        <v>1.3238534496487449E-3</v>
+        <v>1.7419624068606436E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -4972,17 +4970,17 @@
       </c>
       <c r="V34" s="63">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>7.1978448891383488E-4</v>
+        <v>4.1378756877780387E-4</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.3238534496487449E-3</v>
+        <v>1.7419624068606436E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a5#0000</v>
+        <v>obj_003a7#0001</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -4993,27 +4991,27 @@
       </c>
       <c r="E35" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41810</v>
-      </c>
-      <c r="G35" s="32">
+        <v>41814</v>
+      </c>
+      <c r="G35" s="32" t="e">
         <f t="shared" si="14"/>
-        <v>9.7307675489193988E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>1.368747480781004E-3</v>
+        <v>1.0710533202764293E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>1.8368657592453103E-3</v>
-      </c>
-      <c r="J35" s="32">
+        <v>2.3524577414208315E-3</v>
+      </c>
+      <c r="J35" s="32" t="e">
         <f t="shared" si="14"/>
-        <v>3.3787854062204371E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K35" s="125">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
@@ -5021,7 +5019,7 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>6.3537877276103368E-4</v>
+        <v>6.3422026579067789E-4</v>
       </c>
       <c r="N35" s="62" t="e">
         <f>N$31*$K35+N$32</f>
@@ -5029,11 +5027,11 @@
       </c>
       <c r="O35" s="63">
         <f t="shared" si="15"/>
-        <v>7.2041077183971811E-4</v>
+        <v>4.3683305448575144E-4</v>
       </c>
       <c r="P35" s="63">
         <f t="shared" si="15"/>
-        <v>1.3188740887438912E-3</v>
+        <v>1.7182374756301534E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5044,17 +5042,17 @@
       </c>
       <c r="V35" s="63">
         <f t="shared" si="17"/>
-        <v>7.2041077183971811E-4</v>
+        <v>4.3683305448575144E-4</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.3188740887438912E-3</v>
+        <v>1.7182374756301534E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0000</v>
+        <v>obj_003ab#0001</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5065,27 +5063,27 @@
       </c>
       <c r="E36" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41817</v>
-      </c>
-      <c r="G36" s="32">
+        <v>41821</v>
+      </c>
+      <c r="G36" s="32" t="e">
         <f t="shared" si="14"/>
-        <v>9.741014745781873E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>1.3697722004672513E-3</v>
+        <v>1.0980920114739405E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>1.8378904789315576E-3</v>
-      </c>
-      <c r="J36" s="32">
+        <v>2.3269080471734899E-3</v>
+      </c>
+      <c r="J36" s="32" t="e">
         <f t="shared" si="14"/>
-        <v>3.3798101259066844E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K36" s="125">
         <f t="shared" si="18"/>
@@ -5093,7 +5091,7 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>6.364034924472811E-4</v>
+        <v>6.3563079221205603E-4</v>
       </c>
       <c r="N36" s="62" t="e">
         <f>N$31*$K36+N$32</f>
@@ -5101,11 +5099,11 @@
       </c>
       <c r="O36" s="63">
         <f t="shared" si="15"/>
-        <v>7.2150038824755197E-4</v>
+        <v>4.6246121926188448E-4</v>
       </c>
       <c r="P36" s="63">
         <f t="shared" si="15"/>
-        <v>1.3104054264733848E-3</v>
+        <v>1.6912772549614336E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5116,17 +5114,17 @@
       </c>
       <c r="V36" s="63">
         <f t="shared" si="17"/>
-        <v>7.2150038824755197E-4</v>
+        <v>4.6246121926188448E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.3104054264733848E-3</v>
+        <v>1.6912772549614336E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0000</v>
+        <v>obj_003ae#0001</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5137,27 +5135,27 @@
       </c>
       <c r="E37" s="52">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41824</v>
-      </c>
-      <c r="G37" s="35">
+        <v>41828</v>
+      </c>
+      <c r="G37" s="35" t="e">
         <f t="shared" si="14"/>
-        <v>9.7565552719620723E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="H37" s="35">
         <f>$L37+IF(H$30,H$32,O37)</f>
-        <v>1.3713262530852712E-3</v>
+        <v>1.1243724685512215E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>1.8394445315495775E-3</v>
-      </c>
-      <c r="J37" s="35">
+        <v>2.3027293044802673E-3</v>
+      </c>
+      <c r="J37" s="35" t="e">
         <f t="shared" si="14"/>
-        <v>3.3813641785247041E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K37" s="126">
         <f t="shared" si="18"/>
@@ -5165,7 +5163,7 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>6.3795754506530103E-4</v>
+        <v>6.3763810705402032E-4</v>
       </c>
       <c r="N37" s="92" t="e">
         <f>N$31*$K37+N$32</f>
@@ -5173,11 +5171,11 @@
       </c>
       <c r="O37" s="93">
         <f t="shared" si="15"/>
-        <v>7.2258188629407082E-4</v>
+        <v>4.8673436149720105E-4</v>
       </c>
       <c r="P37" s="93">
         <f t="shared" si="15"/>
-        <v>1.3022488615103171E-3</v>
+        <v>1.6650911974262471E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -5188,17 +5186,17 @@
       </c>
       <c r="V37" s="93">
         <f t="shared" si="17"/>
-        <v>7.2258188629407082E-4</v>
+        <v>4.8673436149720105E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.3022488615103171E-3</v>
+        <v>1.6650911974262471E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003a9#0001</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5209,35 +5207,35 @@
       </c>
       <c r="E38" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41834</v>
-      </c>
-      <c r="G38" s="34">
+        <v>41837</v>
+      </c>
+      <c r="G38" s="34" t="e">
         <f t="shared" si="14"/>
-        <v>9.7879387254164955E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>1.3744645984307136E-3</v>
+        <v>1.1570475241109062E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>1.8425828768950199E-3</v>
-      </c>
-      <c r="J38" s="34">
+        <v>2.2736568454075328E-3</v>
+      </c>
+      <c r="J38" s="34" t="e">
         <f t="shared" si="14"/>
-        <v>3.3845025238701467E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K38" s="124">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>6.4109589041074346E-4</v>
+        <v>6.4109589041194681E-4</v>
       </c>
       <c r="N38" s="62" t="e">
         <f>N$31*$K38+N$32</f>
@@ -5245,11 +5243,11 @@
       </c>
       <c r="O38" s="63">
         <f t="shared" si="15"/>
-        <v>7.2411280063171485E-4</v>
+        <v>5.1595163369895947E-4</v>
       </c>
       <c r="P38" s="63">
         <f t="shared" si="15"/>
-        <v>1.2911380191372062E-3</v>
+        <v>1.6325609549955862E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5260,17 +5258,17 @@
       </c>
       <c r="V38" s="63">
         <f t="shared" si="17"/>
-        <v>7.2411280063171485E-4</v>
+        <v>5.1595163369895947E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.2911380191372062E-3</v>
+        <v>1.6325609549955862E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0000</v>
+        <v>obj_003a4#0001</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -5281,41 +5279,41 @@
       </c>
       <c r="E39" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41864</v>
+        <v>41869</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>1.3744645984313055E-3</v>
+        <v>1.2427904486719374E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>1.8425828768956118E-3</v>
-      </c>
-      <c r="J39" s="32">
+        <v>2.1683580676504829E-3</v>
+      </c>
+      <c r="J39" s="32" t="e">
         <f t="shared" si="19"/>
-        <v>3.3845025238707386E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K39" s="125">
         <f t="shared" si="18"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>6.4109589041133521E-4</v>
+        <v>6.410958904120329E-4</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="63">
         <f t="shared" si="15"/>
-        <v>7.2860613513874972E-4</v>
+        <v>6.0169455825990451E-4</v>
       </c>
       <c r="P39" s="63">
         <f t="shared" si="15"/>
-        <v>1.261627091700798E-3</v>
+        <v>1.52726217723845E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5326,17 +5324,17 @@
       </c>
       <c r="V39" s="63">
         <f t="shared" si="17"/>
-        <v>7.2860613513874972E-4</v>
+        <v>6.0169455825990451E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.261627091700798E-3</v>
+        <v>1.52726217723845E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0000</v>
+        <v>obj_003a2#0001</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -5347,41 +5345,41 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41898</v>
+        <v>41899</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>1.349807064183966E-3</v>
+        <v>1.2727991314460728E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>1.8179253426482724E-3</v>
-      </c>
-      <c r="J40" s="32">
+        <v>2.0596762295451931E-3</v>
+      </c>
+      <c r="J40" s="32" t="e">
         <f t="shared" si="19"/>
-        <v>3.3598449896233991E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K40" s="125">
         <f t="shared" si="18"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>6.1643835616399573E-4</v>
+        <v>6.1643835616455366E-4</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="63">
         <f t="shared" si="15"/>
-        <v>7.3351832015602914E-4</v>
+        <v>6.5636077528151914E-4</v>
       </c>
       <c r="P40" s="63">
         <f t="shared" si="15"/>
-        <v>1.2351112080312388E-3</v>
+        <v>1.4432378733806393E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5392,17 +5390,17 @@
       </c>
       <c r="V40" s="63">
         <f t="shared" si="17"/>
-        <v>7.3351832015602914E-4</v>
+        <v>6.5636077528151914E-4</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.2351112080312388E-3</v>
+        <v>1.4432378733806393E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_003aa#0001</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -5413,35 +5411,35 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41926</v>
+        <v>41929</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="46"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>1.8179253426487102E-3</v>
-      </c>
-      <c r="J41" s="32">
+        <v>1.9898712485484351E-3</v>
+      </c>
+      <c r="J41" s="32" t="e">
         <f t="shared" si="20"/>
-        <v>3.3598449896238367E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K41" s="125">
         <f t="shared" si="18"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>6.1643835616443363E-4</v>
+        <v>6.1643835616479576E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="46"/>
       <c r="P41" s="63">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.2188031788250562E-3</v>
+        <v>1.3734328923836396E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5453,13 +5451,13 @@
       <c r="V41" s="63"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.2188031788250562E-3</v>
+        <v>1.3734328923836396E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0000</v>
+        <v>obj_003a1#0001</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -5470,21 +5468,21 @@
       </c>
       <c r="E42" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41956</v>
+        <v>41960</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="44"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>1.8179253426484042E-3</v>
-      </c>
-      <c r="J42" s="32">
+        <v>1.9326776234790529E-3</v>
+      </c>
+      <c r="J42" s="32" t="e">
         <f t="shared" si="20"/>
-        <v>3.359844989623531E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K42" s="125">
         <f t="shared" si="18"/>
@@ -5492,13 +5490,13 @@
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>6.1643835616412778E-4</v>
+        <v>6.1643835616465015E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="44"/>
       <c r="P42" s="63">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.2068716099301012E-3</v>
+        <v>1.3162392673144027E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5510,13 +5508,13 @@
       <c r="V42" s="63"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.2068716099301012E-3</v>
+        <v>1.3162392673144027E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0000</v>
+        <v>obj_003a5#0001</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -5527,35 +5525,35 @@
       </c>
       <c r="E43" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41988</v>
+        <v>41990</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="44"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>1.8179253426485907E-3</v>
-      </c>
-      <c r="J43" s="32">
+        <v>1.8917852656320775E-3</v>
+      </c>
+      <c r="J43" s="32" t="e">
         <f t="shared" si="20"/>
-        <v>3.3598449896237175E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K43" s="125">
         <f t="shared" si="18"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>6.1643835616431426E-4</v>
+        <v>6.1643835616435904E-4</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="44"/>
       <c r="P43" s="63">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.2004629812512513E-3</v>
+        <v>1.2753469094677185E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5567,13 +5565,13 @@
       <c r="V43" s="93"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.2004629812512513E-3</v>
+        <v>1.2753469094677185E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0000</v>
+        <v>obj_003ad#0001</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -5584,26 +5582,26 @@
       </c>
       <c r="E44" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42017</v>
+        <v>42023</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
       <c r="I44" s="46"/>
-      <c r="J44" s="32">
+      <c r="J44" s="32" t="e">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
-        <v>3.3620482609509742E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K44" s="125">
         <f t="shared" si="18"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>6.1864162749157093E-4</v>
+        <v>6.1902535194779962E-4</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -5616,7 +5614,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003a6#0001</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -5627,18 +5625,18 @@
       </c>
       <c r="E45" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42048</v>
+        <v>42052</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
       <c r="I45" s="44"/>
-      <c r="J45" s="32">
+      <c r="J45" s="32" t="e">
         <f t="shared" si="21"/>
-        <v>3.3630063608541217E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K45" s="125">
         <f t="shared" si="18"/>
@@ -5646,7 +5644,7 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>6.1959972739471822E-4</v>
+        <v>6.1977269886500806E-4</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
@@ -5659,7 +5657,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ab#0000</v>
+        <v>obj_003a0#0001</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -5670,18 +5668,18 @@
       </c>
       <c r="E46" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42076</v>
+        <v>42080</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
       <c r="I46" s="44"/>
-      <c r="J46" s="32">
+      <c r="J46" s="32" t="e">
         <f t="shared" si="21"/>
-        <v>3.3598449896238584E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K46" s="125">
         <f t="shared" si="18"/>
@@ -5689,7 +5687,7 @@
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>6.1643835616445521E-4</v>
+        <v>6.164383561644551E-4</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -5702,7 +5700,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a0#0000</v>
+        <v>obj_003a3#0001</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -5713,18 +5711,18 @@
       </c>
       <c r="E47" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42107</v>
+        <v>42111</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
       <c r="I47" s="44"/>
-      <c r="J47" s="32">
+      <c r="J47" s="32" t="e">
         <f t="shared" si="21"/>
-        <v>3.3513028495564231E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K47" s="125">
         <f t="shared" si="18"/>
@@ -5732,7 +5730,7 @@
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>6.0789621609701997E-4</v>
+        <v>6.076480402808066E-4</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -5745,7 +5743,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_003a8#0001</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -5756,26 +5754,26 @@
       </c>
       <c r="E48" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42137</v>
+        <v>42142</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
       <c r="I48" s="44"/>
-      <c r="J48" s="32">
+      <c r="J48" s="32" t="e">
         <f t="shared" si="21"/>
-        <v>3.34207482751709E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K48" s="125">
         <f t="shared" si="18"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>5.9866819405768692E-4</v>
+        <v>5.980112507474306E-4</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -5788,7 +5786,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a1#0000</v>
+        <v>obj_003ac#0001</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -5799,26 +5797,26 @@
       </c>
       <c r="E49" s="53">
         <f t="shared" si="13"/>
-        <v>41803</v>
+        <v>41807</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="32">
+      <c r="J49" s="32" t="e">
         <f t="shared" si="21"/>
-        <v>3.3351874553772991E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K49" s="125">
         <f t="shared" si="18"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>5.9178082191789581E-4</v>
+        <v>5.9178082191796216E-4</v>
       </c>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
@@ -5927,7 +5925,7 @@
       </c>
       <c r="P2" s="215">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5943,7 +5941,7 @@
       </c>
       <c r="D3" s="187" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1M_Quote#0000</v>
+        <v>JPYSND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E3" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -5954,22 +5952,22 @@
       <c r="I3" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="218">
+      <c r="J3" s="218" t="e">
         <f>ROUND(Depo_Calculation!$G34,6)</f>
-        <v>9.7300000000000002E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" s="156"/>
       <c r="L3" s="166">
         <v>9.7300000000000002E-4</v>
       </c>
       <c r="M3" s="140"/>
-      <c r="N3" s="169">
+      <c r="N3" s="169" t="e">
         <f t="array" ref="N3:N40">QuoteLive</f>
-        <v>9.7300000000000002E-4</v>
-      </c>
-      <c r="O3" s="170">
+        <v>#NUM!</v>
+      </c>
+      <c r="O3" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" s="190"/>
     </row>
@@ -5987,7 +5985,7 @@
       </c>
       <c r="D4" s="187" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1M_Quote#0000</v>
+        <v>JPYSWD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E4" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -5998,21 +5996,21 @@
       <c r="I4" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="218">
+      <c r="J4" s="218" t="e">
         <f>ROUND(Depo_Calculation!$G35,6)</f>
-        <v>9.7300000000000002E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="K4" s="156"/>
       <c r="L4" s="166">
         <v>9.7300000000000002E-4</v>
       </c>
       <c r="M4" s="140"/>
-      <c r="N4" s="169">
-        <v>9.7300000000000002E-4</v>
-      </c>
-      <c r="O4" s="170">
+      <c r="N4" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P4" s="190"/>
     </row>
@@ -6027,7 +6025,7 @@
       </c>
       <c r="D5" s="187" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1M_Quote#0000</v>
+        <v>JPY2WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E5" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -6038,21 +6036,21 @@
       <c r="I5" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="218">
+      <c r="J5" s="218" t="e">
         <f>ROUND(Depo_Calculation!$G36,6)</f>
-        <v>9.7400000000000004E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="K5" s="156"/>
       <c r="L5" s="166">
         <v>9.7400000000000004E-4</v>
       </c>
       <c r="M5" s="140"/>
-      <c r="N5" s="169">
-        <v>9.7400000000000004E-4</v>
-      </c>
-      <c r="O5" s="170">
+      <c r="N5" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P5" s="190"/>
     </row>
@@ -6067,7 +6065,7 @@
       </c>
       <c r="D6" s="187" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1M_Quote#0000</v>
+        <v>JPY3WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E6" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -6078,21 +6076,21 @@
       <c r="I6" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="220">
+      <c r="J6" s="220" t="e">
         <f>Depo_Calculation!$G37</f>
-        <v>9.7565552719620723E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="K6" s="156"/>
       <c r="L6" s="167">
         <v>9.7565552719620723E-4</v>
       </c>
       <c r="M6" s="140"/>
-      <c r="N6" s="171">
-        <v>9.7565552719620723E-4</v>
-      </c>
-      <c r="O6" s="170">
+      <c r="N6" s="171" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P6" s="190"/>
     </row>
@@ -6107,7 +6105,7 @@
       </c>
       <c r="D7" s="193" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1M_Quote#0000</v>
+        <v>JPY1MD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E7" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -6118,21 +6116,21 @@
       <c r="I7" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="219">
+      <c r="J7" s="219" t="e">
         <f>ROUND(Depo_Calculation!$G38,6)</f>
-        <v>9.7900000000000005E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="K7" s="156"/>
       <c r="L7" s="168">
         <v>9.7900000000000005E-4</v>
       </c>
       <c r="M7" s="140"/>
-      <c r="N7" s="172">
-        <v>9.7900000000000005E-4</v>
-      </c>
-      <c r="O7" s="240">
+      <c r="N7" s="172" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="240" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P7" s="190"/>
     </row>
@@ -6149,7 +6147,7 @@
       </c>
       <c r="D8" s="196" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH3M_Quote#0000</v>
+        <v>JPYSND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E8" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -6162,7 +6160,7 @@
       </c>
       <c r="J8" s="217">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
-        <v>1.369E-3</v>
+        <v>1.0480000000000001E-3</v>
       </c>
       <c r="K8" s="156"/>
       <c r="L8" s="166">
@@ -6170,15 +6168,15 @@
       </c>
       <c r="M8" s="140"/>
       <c r="N8" s="169">
-        <v>1.369E-3</v>
-      </c>
-      <c r="O8" s="239">
+        <v>1.0480000000000001E-3</v>
+      </c>
+      <c r="O8" s="239" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P8" s="216">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6195,7 +6193,7 @@
       </c>
       <c r="D9" s="186" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH3M_Quote#0000</v>
+        <v>JPYSWD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E9" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -6208,7 +6206,7 @@
       </c>
       <c r="J9" s="218">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
-        <v>1.369E-3</v>
+        <v>1.0709999999999999E-3</v>
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="166">
@@ -6216,11 +6214,11 @@
       </c>
       <c r="M9" s="140"/>
       <c r="N9" s="169">
-        <v>1.369E-3</v>
-      </c>
-      <c r="O9" s="170">
+        <v>1.0709999999999999E-3</v>
+      </c>
+      <c r="O9" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P9" s="190"/>
     </row>
@@ -6235,7 +6233,7 @@
       </c>
       <c r="D10" s="186" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH3M_Quote#0000</v>
+        <v>JPY2WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E10" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -6248,7 +6246,7 @@
       </c>
       <c r="J10" s="218">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
-        <v>1.3699999999999999E-3</v>
+        <v>1.098E-3</v>
       </c>
       <c r="K10" s="156"/>
       <c r="L10" s="166">
@@ -6256,11 +6254,11 @@
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="169">
-        <v>1.3699999999999999E-3</v>
-      </c>
-      <c r="O10" s="170">
+        <v>1.098E-3</v>
+      </c>
+      <c r="O10" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P10" s="190"/>
     </row>
@@ -6275,7 +6273,7 @@
       </c>
       <c r="D11" s="186" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH3M_Quote#0000</v>
+        <v>JPY3WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E11" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -6288,7 +6286,7 @@
       </c>
       <c r="J11" s="218">
         <f>ROUND(Depo_Calculation!$H37,6)</f>
-        <v>1.371E-3</v>
+        <v>1.124E-3</v>
       </c>
       <c r="K11" s="156"/>
       <c r="L11" s="166">
@@ -6296,11 +6294,11 @@
       </c>
       <c r="M11" s="140"/>
       <c r="N11" s="169">
-        <v>1.371E-3</v>
-      </c>
-      <c r="O11" s="170">
+        <v>1.124E-3</v>
+      </c>
+      <c r="O11" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P11" s="190"/>
     </row>
@@ -6315,7 +6313,7 @@
       </c>
       <c r="D12" s="186" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH3M_Quote#0000</v>
+        <v>JPY1MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E12" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -6328,7 +6326,7 @@
       </c>
       <c r="J12" s="218">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
-        <v>1.374E-3</v>
+        <v>1.157E-3</v>
       </c>
       <c r="K12" s="156"/>
       <c r="L12" s="166">
@@ -6336,11 +6334,11 @@
       </c>
       <c r="M12" s="140"/>
       <c r="N12" s="169">
-        <v>1.374E-3</v>
-      </c>
-      <c r="O12" s="170">
+        <v>1.157E-3</v>
+      </c>
+      <c r="O12" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P12" s="190"/>
     </row>
@@ -6355,7 +6353,7 @@
       </c>
       <c r="D13" s="186" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH3M_Quote#0000</v>
+        <v>JPY2MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E13" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -6368,7 +6366,7 @@
       </c>
       <c r="J13" s="218">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
-        <v>1.374E-3</v>
+        <v>1.243E-3</v>
       </c>
       <c r="K13" s="156"/>
       <c r="L13" s="166">
@@ -6376,11 +6374,11 @@
       </c>
       <c r="M13" s="140"/>
       <c r="N13" s="169">
-        <v>1.374E-3</v>
-      </c>
-      <c r="O13" s="170">
+        <v>1.243E-3</v>
+      </c>
+      <c r="O13" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P13" s="190"/>
     </row>
@@ -6395,7 +6393,7 @@
       </c>
       <c r="D14" s="193" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH3M_Quote#0000</v>
+        <v>JPY3MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E14" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -6408,7 +6406,7 @@
       </c>
       <c r="J14" s="219">
         <f>ROUND(Depo_Calculation!$H40,6)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.273E-3</v>
       </c>
       <c r="K14" s="206"/>
       <c r="L14" s="168">
@@ -6416,11 +6414,11 @@
       </c>
       <c r="M14" s="206"/>
       <c r="N14" s="172">
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="O14" s="173">
+        <v>1.273E-3</v>
+      </c>
+      <c r="O14" s="173" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P14" s="206"/>
     </row>
@@ -6437,7 +6435,7 @@
       </c>
       <c r="D15" s="196" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH6M_Quote#0000</v>
+        <v>JPYSND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E15" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -6450,7 +6448,7 @@
       </c>
       <c r="J15" s="217">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
-        <v>1.8370000000000001E-3</v>
+        <v>2.3760000000000001E-3</v>
       </c>
       <c r="K15" s="156"/>
       <c r="L15" s="166">
@@ -6458,15 +6456,15 @@
       </c>
       <c r="M15" s="140"/>
       <c r="N15" s="169">
-        <v>1.8370000000000001E-3</v>
-      </c>
-      <c r="O15" s="170">
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="O15" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P15" s="190">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6483,7 +6481,7 @@
       </c>
       <c r="D16" s="186" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH6M_Quote#0000</v>
+        <v>JPYSWD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E16" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -6496,7 +6494,7 @@
       </c>
       <c r="J16" s="218">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
-        <v>1.8370000000000001E-3</v>
+        <v>2.3519999999999999E-3</v>
       </c>
       <c r="K16" s="156"/>
       <c r="L16" s="166">
@@ -6504,11 +6502,11 @@
       </c>
       <c r="M16" s="140"/>
       <c r="N16" s="169">
-        <v>1.8370000000000001E-3</v>
-      </c>
-      <c r="O16" s="170">
+        <v>2.3519999999999999E-3</v>
+      </c>
+      <c r="O16" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P16" s="190"/>
     </row>
@@ -6523,7 +6521,7 @@
       </c>
       <c r="D17" s="186" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH6M_Quote#0000</v>
+        <v>JPY2WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E17" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -6536,7 +6534,7 @@
       </c>
       <c r="J17" s="218">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
-        <v>1.838E-3</v>
+        <v>2.3270000000000001E-3</v>
       </c>
       <c r="K17" s="156"/>
       <c r="L17" s="166">
@@ -6544,11 +6542,11 @@
       </c>
       <c r="M17" s="140"/>
       <c r="N17" s="169">
-        <v>1.838E-3</v>
-      </c>
-      <c r="O17" s="170">
+        <v>2.3270000000000001E-3</v>
+      </c>
+      <c r="O17" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P17" s="190"/>
     </row>
@@ -6563,7 +6561,7 @@
       </c>
       <c r="D18" s="186" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH6M_Quote#0000</v>
+        <v>JPY3WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E18" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -6576,7 +6574,7 @@
       </c>
       <c r="J18" s="218">
         <f>ROUND(Depo_Calculation!$I37,6)</f>
-        <v>1.8389999999999999E-3</v>
+        <v>2.3029999999999999E-3</v>
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="166">
@@ -6584,11 +6582,11 @@
       </c>
       <c r="M18" s="140"/>
       <c r="N18" s="169">
-        <v>1.8389999999999999E-3</v>
-      </c>
-      <c r="O18" s="170">
+        <v>2.3029999999999999E-3</v>
+      </c>
+      <c r="O18" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P18" s="190"/>
     </row>
@@ -6603,7 +6601,7 @@
       </c>
       <c r="D19" s="186" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH6M_Quote#0000</v>
+        <v>JPY1MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E19" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -6616,7 +6614,7 @@
       </c>
       <c r="J19" s="218">
         <f>ROUND(Depo_Calculation!$I38,6)</f>
-        <v>1.843E-3</v>
+        <v>2.274E-3</v>
       </c>
       <c r="K19" s="156"/>
       <c r="L19" s="166">
@@ -6624,11 +6622,11 @@
       </c>
       <c r="M19" s="140"/>
       <c r="N19" s="169">
-        <v>1.843E-3</v>
-      </c>
-      <c r="O19" s="170">
+        <v>2.274E-3</v>
+      </c>
+      <c r="O19" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P19" s="190"/>
     </row>
@@ -6643,7 +6641,7 @@
       </c>
       <c r="D20" s="186" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH6M_Quote#0000</v>
+        <v>JPY2MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E20" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -6656,7 +6654,7 @@
       </c>
       <c r="J20" s="218">
         <f>ROUND(Depo_Calculation!$I39,6)</f>
-        <v>1.843E-3</v>
+        <v>2.1679999999999998E-3</v>
       </c>
       <c r="K20" s="156"/>
       <c r="L20" s="166">
@@ -6664,11 +6662,11 @@
       </c>
       <c r="M20" s="140"/>
       <c r="N20" s="169">
-        <v>1.843E-3</v>
-      </c>
-      <c r="O20" s="170">
+        <v>2.1679999999999998E-3</v>
+      </c>
+      <c r="O20" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P20" s="190"/>
     </row>
@@ -6683,7 +6681,7 @@
       </c>
       <c r="D21" s="186" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH6M_Quote#0000</v>
+        <v>JPY3MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E21" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -6696,7 +6694,7 @@
       </c>
       <c r="J21" s="218">
         <f>ROUND(Depo_Calculation!$I40,6)</f>
-        <v>1.818E-3</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="K21" s="156"/>
       <c r="L21" s="166">
@@ -6704,11 +6702,11 @@
       </c>
       <c r="M21" s="140"/>
       <c r="N21" s="169">
-        <v>1.818E-3</v>
-      </c>
-      <c r="O21" s="170">
+        <v>2.0600000000000002E-3</v>
+      </c>
+      <c r="O21" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P21" s="190"/>
     </row>
@@ -6723,7 +6721,7 @@
       </c>
       <c r="D22" s="186" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH6M_Quote#0000</v>
+        <v>JPY4MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E22" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -6736,7 +6734,7 @@
       </c>
       <c r="J22" s="218">
         <f>ROUND(Depo_Calculation!$I41,6)</f>
-        <v>1.818E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="K22" s="156"/>
       <c r="L22" s="166">
@@ -6744,11 +6742,11 @@
       </c>
       <c r="M22" s="140"/>
       <c r="N22" s="169">
-        <v>1.818E-3</v>
-      </c>
-      <c r="O22" s="170">
+        <v>1.99E-3</v>
+      </c>
+      <c r="O22" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P22" s="190"/>
     </row>
@@ -6763,7 +6761,7 @@
       </c>
       <c r="D23" s="186" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH6M_Quote#0000</v>
+        <v>JPY5MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E23" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -6776,7 +6774,7 @@
       </c>
       <c r="J23" s="218">
         <f>ROUND(Depo_Calculation!$I42,6)</f>
-        <v>1.818E-3</v>
+        <v>1.933E-3</v>
       </c>
       <c r="K23" s="156"/>
       <c r="L23" s="166">
@@ -6784,11 +6782,11 @@
       </c>
       <c r="M23" s="140"/>
       <c r="N23" s="169">
-        <v>1.818E-3</v>
-      </c>
-      <c r="O23" s="170">
+        <v>1.933E-3</v>
+      </c>
+      <c r="O23" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P23" s="190"/>
     </row>
@@ -6803,7 +6801,7 @@
       </c>
       <c r="D24" s="186" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH6M_Quote#0000</v>
+        <v>JPY6MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E24" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -6816,7 +6814,7 @@
       </c>
       <c r="J24" s="219">
         <f>ROUND(Depo_Calculation!$I43,6)</f>
-        <v>1.818E-3</v>
+        <v>1.892E-3</v>
       </c>
       <c r="K24" s="211"/>
       <c r="L24" s="168">
@@ -6824,11 +6822,11 @@
       </c>
       <c r="M24" s="212"/>
       <c r="N24" s="172">
-        <v>1.818E-3</v>
-      </c>
-      <c r="O24" s="170">
+        <v>1.892E-3</v>
+      </c>
+      <c r="O24" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P24" s="213"/>
     </row>
@@ -6845,7 +6843,7 @@
       </c>
       <c r="D25" s="196" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1Y_Quote#0000</v>
+        <v>JPYSND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E25" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -6857,25 +6855,25 @@
       <c r="I25" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="217">
+      <c r="J25" s="217" t="e">
         <f>ROUND(Depo_Calculation!$J34,6)</f>
-        <v>3.3790000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K25" s="156"/>
       <c r="L25" s="237">
         <v>3.3790000000000001E-3</v>
       </c>
       <c r="M25" s="140"/>
-      <c r="N25" s="238">
-        <v>3.3790000000000001E-3</v>
-      </c>
-      <c r="O25" s="239">
+      <c r="N25" s="238" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O25" s="239" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P25" s="190">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
@@ -6892,7 +6890,7 @@
       </c>
       <c r="D26" s="186" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1Y_Quote#0000</v>
+        <v>JPYSWD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E26" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -6904,21 +6902,21 @@
       <c r="I26" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="218">
+      <c r="J26" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J35,6)</f>
-        <v>3.3790000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K26" s="156"/>
       <c r="L26" s="166">
         <v>3.3790000000000001E-3</v>
       </c>
       <c r="M26" s="140"/>
-      <c r="N26" s="169">
-        <v>3.3790000000000001E-3</v>
-      </c>
-      <c r="O26" s="170">
+      <c r="N26" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P26" s="190"/>
     </row>
@@ -6933,7 +6931,7 @@
       </c>
       <c r="D27" s="186" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1Y_Quote#0000</v>
+        <v>JPY2WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E27" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -6945,21 +6943,21 @@
       <c r="I27" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="218">
+      <c r="J27" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J36,6)</f>
-        <v>3.3800000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K27" s="156"/>
       <c r="L27" s="166">
         <v>3.3800000000000002E-3</v>
       </c>
       <c r="M27" s="140"/>
-      <c r="N27" s="169">
-        <v>3.3800000000000002E-3</v>
-      </c>
-      <c r="O27" s="170">
+      <c r="N27" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P27" s="190"/>
     </row>
@@ -6974,7 +6972,7 @@
       </c>
       <c r="D28" s="186" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1Y_Quote#0000</v>
+        <v>JPY3WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E28" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -6985,21 +6983,21 @@
       <c r="I28" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="218">
+      <c r="J28" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J37,6)</f>
-        <v>3.3809999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K28" s="156"/>
       <c r="L28" s="166">
         <v>3.3809999999999999E-3</v>
       </c>
       <c r="M28" s="140"/>
-      <c r="N28" s="169">
-        <v>3.3809999999999999E-3</v>
-      </c>
-      <c r="O28" s="170">
+      <c r="N28" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O28" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P28" s="190"/>
     </row>
@@ -7014,7 +7012,7 @@
       </c>
       <c r="D29" s="186" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY1MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E29" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -7025,21 +7023,21 @@
       <c r="I29" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="218">
+      <c r="J29" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J38,6)</f>
-        <v>3.385E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K29" s="156"/>
       <c r="L29" s="166">
         <v>3.385E-3</v>
       </c>
       <c r="M29" s="140"/>
-      <c r="N29" s="169">
-        <v>3.385E-3</v>
-      </c>
-      <c r="O29" s="170">
+      <c r="N29" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P29" s="190"/>
     </row>
@@ -7054,7 +7052,7 @@
       </c>
       <c r="D30" s="186" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY2MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E30" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -7065,21 +7063,21 @@
       <c r="I30" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="218">
+      <c r="J30" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J39,6)</f>
-        <v>3.385E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K30" s="156"/>
       <c r="L30" s="166">
         <v>3.385E-3</v>
       </c>
       <c r="M30" s="140"/>
-      <c r="N30" s="169">
-        <v>3.385E-3</v>
-      </c>
-      <c r="O30" s="170">
+      <c r="N30" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P30" s="190"/>
     </row>
@@ -7094,7 +7092,7 @@
       </c>
       <c r="D31" s="186" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY3MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E31" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -7105,21 +7103,21 @@
       <c r="I31" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="218">
+      <c r="J31" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J40,6)</f>
-        <v>3.3600000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K31" s="156"/>
       <c r="L31" s="166">
         <v>3.3600000000000001E-3</v>
       </c>
       <c r="M31" s="140"/>
-      <c r="N31" s="169">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="O31" s="170">
+      <c r="N31" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P31" s="190"/>
     </row>
@@ -7134,7 +7132,7 @@
       </c>
       <c r="D32" s="186" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY4MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E32" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -7145,21 +7143,21 @@
       <c r="I32" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="218">
+      <c r="J32" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J41,6)</f>
-        <v>3.3600000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K32" s="156"/>
       <c r="L32" s="166">
         <v>3.3600000000000001E-3</v>
       </c>
       <c r="M32" s="140"/>
-      <c r="N32" s="169">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="O32" s="170">
+      <c r="N32" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O32" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P32" s="190"/>
     </row>
@@ -7174,7 +7172,7 @@
       </c>
       <c r="D33" s="186" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY5MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E33" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -7185,21 +7183,21 @@
       <c r="I33" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="218">
+      <c r="J33" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J42,6)</f>
-        <v>3.3600000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K33" s="156"/>
       <c r="L33" s="166">
         <v>3.3600000000000001E-3</v>
       </c>
       <c r="M33" s="140"/>
-      <c r="N33" s="169">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="O33" s="170">
+      <c r="N33" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O33" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P33" s="190"/>
     </row>
@@ -7214,7 +7212,7 @@
       </c>
       <c r="D34" s="186" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY6MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E34" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -7225,21 +7223,21 @@
       <c r="I34" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="J34" s="218">
+      <c r="J34" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J43,6)</f>
-        <v>3.3600000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K34" s="156"/>
       <c r="L34" s="166">
         <v>3.3600000000000001E-3</v>
       </c>
       <c r="M34" s="140"/>
-      <c r="N34" s="169">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="O34" s="170">
+      <c r="N34" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O34" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P34" s="190"/>
     </row>
@@ -7254,7 +7252,7 @@
       </c>
       <c r="D35" s="186" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY7MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY7MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E35" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -7265,21 +7263,21 @@
       <c r="I35" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="218">
+      <c r="J35" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J44,6)</f>
-        <v>3.362E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K35" s="156"/>
       <c r="L35" s="166">
         <v>3.362E-3</v>
       </c>
       <c r="M35" s="140"/>
-      <c r="N35" s="169">
-        <v>3.362E-3</v>
-      </c>
-      <c r="O35" s="170">
+      <c r="N35" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O35" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P35" s="190"/>
     </row>
@@ -7294,7 +7292,7 @@
       </c>
       <c r="D36" s="186" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY8MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY8MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E36" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -7305,21 +7303,21 @@
       <c r="I36" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="218">
+      <c r="J36" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J45,6)</f>
-        <v>3.3630000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K36" s="156"/>
       <c r="L36" s="166">
         <v>3.3630000000000001E-3</v>
       </c>
       <c r="M36" s="140"/>
-      <c r="N36" s="169">
-        <v>3.3630000000000001E-3</v>
-      </c>
-      <c r="O36" s="170">
+      <c r="N36" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O36" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P36" s="190"/>
     </row>
@@ -7334,7 +7332,7 @@
       </c>
       <c r="D37" s="186" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY9MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY9MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E37" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -7345,21 +7343,21 @@
       <c r="I37" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="218">
+      <c r="J37" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J46,6)</f>
-        <v>3.3600000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K37" s="156"/>
       <c r="L37" s="166">
         <v>3.3600000000000001E-3</v>
       </c>
       <c r="M37" s="140"/>
-      <c r="N37" s="169">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="O37" s="170">
+      <c r="N37" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O37" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P37" s="190"/>
     </row>
@@ -7374,7 +7372,7 @@
       </c>
       <c r="D38" s="186" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY10MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY10MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E38" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -7385,21 +7383,21 @@
       <c r="I38" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="218">
+      <c r="J38" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J47,6)</f>
-        <v>3.3509999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K38" s="156"/>
       <c r="L38" s="166">
         <v>3.3509999999999998E-3</v>
       </c>
       <c r="M38" s="140"/>
-      <c r="N38" s="169">
-        <v>3.3509999999999998E-3</v>
-      </c>
-      <c r="O38" s="170">
+      <c r="N38" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O38" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P38" s="190"/>
     </row>
@@ -7414,7 +7412,7 @@
       </c>
       <c r="D39" s="186" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY11MD_SYNTH1Y_Quote#0000</v>
+        <v>JPY11MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E39" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -7425,21 +7423,21 @@
       <c r="I39" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="218">
+      <c r="J39" s="218" t="e">
         <f>ROUND(Depo_Calculation!$J48,6)</f>
-        <v>3.3419999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K39" s="156"/>
       <c r="L39" s="166">
         <v>3.3419999999999999E-3</v>
       </c>
       <c r="M39" s="140"/>
-      <c r="N39" s="169">
-        <v>3.3419999999999999E-3</v>
-      </c>
-      <c r="O39" s="170">
+      <c r="N39" s="169" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O39" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P39" s="190"/>
     </row>
@@ -7454,7 +7452,7 @@
       </c>
       <c r="D40" s="193" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1YD_SYNTH1Y_Quote#0000</v>
+        <v>JPY1YD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E40" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -7465,21 +7463,21 @@
       <c r="I40" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="219">
+      <c r="J40" s="219" t="e">
         <f>ROUND(Depo_Calculation!$J49,6)</f>
-        <v>3.3349999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K40" s="211"/>
       <c r="L40" s="168">
         <v>3.3349999999999999E-3</v>
       </c>
       <c r="M40" s="212"/>
-      <c r="N40" s="172">
-        <v>3.3349999999999999E-3</v>
-      </c>
-      <c r="O40" s="170">
+      <c r="N40" s="172" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O40" s="170" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="P40" s="190"/>
     </row>

--- a/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
@@ -1657,7 +1657,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="8">
@@ -1767,24 +1767,24 @@
       <sheetData sheetId="11">
         <row r="7">
           <cell r="D7" t="str">
-            <v>N4</v>
+            <v>Q4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="7">
           <cell r="D7" t="str">
-            <v>N4</v>
+            <v>Q4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
       </sheetData>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="138">
-        <v>41795.680763888886</v>
+        <v>41809.403344907405</v>
       </c>
       <c r="E11" s="134"/>
       <c r="G11" s="142"/>
@@ -2455,14 +2455,16 @@
       </c>
       <c r="D17" s="55">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="E17" s="223"/>
       <c r="G17" s="221"/>
       <c r="H17" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="55">
+        <v>41809.402881944443</v>
+      </c>
       <c r="J17" s="223"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
@@ -2472,7 +2474,7 @@
       </c>
       <c r="D18" s="55" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00378#0001</v>
+        <v>obj_00378#0000</v>
       </c>
       <c r="E18" s="223"/>
       <c r="G18" s="221"/>
@@ -2481,7 +2483,7 @@
       </c>
       <c r="I18" s="55">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41803</v>
+        <v>41809</v>
       </c>
       <c r="J18" s="223"/>
     </row>
@@ -2501,7 +2503,7 @@
       </c>
       <c r="I19" s="228">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="223"/>
     </row>
@@ -2722,7 +2724,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0001</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -2734,11 +2736,11 @@
       </c>
       <c r="E2" s="103">
         <f>SettlementDate</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F2" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41837</v>
+        <v>41843</v>
       </c>
       <c r="G2" s="105">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
@@ -2746,11 +2748,11 @@
       </c>
       <c r="H2" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>6.4109589041194681E-4</v>
+        <v>6.4109589040928217E-4</v>
       </c>
       <c r="I2" s="107">
         <f>G2-H2</f>
-        <v>3.2320410958805315E-4</v>
+        <v>3.232041095907178E-4</v>
       </c>
       <c r="J2" s="108" t="b">
         <v>0</v>
@@ -2790,7 +2792,7 @@
       </c>
       <c r="B3" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00375#0002</v>
+        <v>obj_00374#0003</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -2802,27 +2804,27 @@
       </c>
       <c r="E3" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41802</v>
+        <v>41810</v>
       </c>
       <c r="F3" s="97">
         <f>F2</f>
-        <v>41837</v>
+        <v>41843</v>
       </c>
       <c r="G3" s="98">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
         <v>9.6429999999999997E-4</v>
       </c>
-      <c r="H3" s="99" t="e">
+      <c r="H3" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I3" s="100" t="e">
+        <v>6.4136751218090251E-4</v>
+      </c>
+      <c r="I3" s="100">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>#NUM!</v>
+        <v>3.2293248781909746E-4</v>
       </c>
       <c r="J3" s="108" t="b">
         <f>NOT(ISERROR(I3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="110" t="e">
         <f>K4</f>
@@ -2835,7 +2837,7 @@
       <c r="M3" s="109"/>
       <c r="N3" s="111">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="O3" s="111">
         <f t="shared" si="0"/>
@@ -2843,16 +2845,16 @@
       </c>
       <c r="P3" s="111">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="108"/>
       <c r="R3" s="122">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>258.33333333333331</v>
+        <v>273</v>
       </c>
       <c r="S3" s="122">
         <f>(O3+N3)/2</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="T3" s="122">
         <v>1</v>
@@ -2865,7 +2867,7 @@
       </c>
       <c r="B4" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bd#0001</v>
+        <v>obj_003bd#0000</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -2876,11 +2878,11 @@
       </c>
       <c r="E4" s="53">
         <f>F3</f>
-        <v>41837</v>
+        <v>41843</v>
       </c>
       <c r="F4" s="54">
         <f>F5</f>
-        <v>41869</v>
+        <v>41877</v>
       </c>
       <c r="G4" s="27" t="e">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
@@ -2888,7 +2890,7 @@
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>6.4106164191307657E-4</v>
+        <v>6.4160718539508317E-4</v>
       </c>
       <c r="I4" s="16" t="e">
         <f>G4-H4</f>
@@ -2913,19 +2915,19 @@
       </c>
       <c r="O4" s="112">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" s="112">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R4" s="91">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2201.3333333333335</v>
+        <v>2305.333333333333</v>
       </c>
       <c r="S4" s="91">
         <f>(O4+N4)/2</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4" s="91">
         <v>1</v>
@@ -2941,11 +2943,11 @@
       </c>
       <c r="E5" s="53">
         <f>SettlementDate</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F5" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41869</v>
+        <v>41877</v>
       </c>
       <c r="G5" s="50" t="e">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -2972,7 +2974,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b0#0001</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -2984,11 +2986,11 @@
       </c>
       <c r="E6" s="103">
         <f>SettlementDate</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F6" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41899</v>
+        <v>41906</v>
       </c>
       <c r="G6" s="105">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
@@ -2996,11 +2998,11 @@
       </c>
       <c r="H6" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>6.1643835616455366E-4</v>
+        <v>6.4109589041074335E-4</v>
       </c>
       <c r="I6" s="107">
         <f t="shared" si="1"/>
-        <v>7.1926164383544634E-4</v>
+        <v>6.9460410958925665E-4</v>
       </c>
       <c r="J6" s="108" t="b">
         <v>0</v>
@@ -3014,20 +3016,20 @@
       </c>
       <c r="O6" s="111">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P6" s="111">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="108"/>
       <c r="R6" s="122">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2821.333333333333</v>
+        <v>2883</v>
       </c>
       <c r="S6" s="122">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>46</v>
+        <v>46.5</v>
       </c>
       <c r="T6" s="122">
         <v>1</v>
@@ -3040,7 +3042,7 @@
       </c>
       <c r="B7" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00374#0002</v>
+        <v>obj_00375#0003</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -3052,51 +3054,51 @@
       </c>
       <c r="E7" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41802</v>
+        <v>41810</v>
       </c>
       <c r="F7" s="97">
         <f>F6</f>
-        <v>41899</v>
+        <v>41906</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
         <v>1.3357E-3</v>
       </c>
-      <c r="H7" s="99" t="e">
+      <c r="H7" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" s="100" t="e">
+        <v>6.411915184267869E-4</v>
+      </c>
+      <c r="I7" s="100">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>6.945084815732131E-4</v>
       </c>
       <c r="J7" s="108" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="115"/>
       <c r="L7" s="109"/>
       <c r="M7" s="109"/>
       <c r="N7" s="111">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="O7" s="111">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P7" s="111">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="108"/>
       <c r="R7" s="122">
         <f t="shared" si="4"/>
-        <v>2676.3333333333335</v>
+        <v>2793</v>
       </c>
       <c r="S7" s="122">
         <f t="shared" si="5"/>
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="T7" s="122">
         <v>1</v>
@@ -3127,11 +3129,11 @@
       <c r="M8" s="109"/>
       <c r="N8" s="111">
         <f t="shared" si="2"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="O8" s="111">
         <f t="shared" si="3"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="P8" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3144,7 +3146,7 @@
       </c>
       <c r="S8" s="122">
         <f t="shared" si="5"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="T8" s="122">
         <v>1</v>
@@ -3175,20 +3177,20 @@
       </c>
       <c r="K9" s="99">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>4.8791753016114797E-6</v>
+        <v>7.6009942372359606E-7</v>
       </c>
       <c r="L9" s="99">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.2609953343808946E-4</v>
       </c>
       <c r="M9" s="109"/>
       <c r="N9" s="111">
         <f t="shared" si="2"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="O9" s="111">
         <f t="shared" si="3"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="P9" s="111" t="e">
         <f t="shared" si="6"/>
@@ -3201,18 +3203,18 @@
       </c>
       <c r="S9" s="122">
         <f t="shared" si="5"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="T9" s="122">
         <v>1</v>
       </c>
       <c r="V9" s="82">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>6481.333333333333</v>
+        <v>2793</v>
       </c>
       <c r="W9" s="83">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="X9" s="84">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -3220,35 +3222,35 @@
       </c>
       <c r="Z9" s="67">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>-4.1480281861728213E-8</v>
+        <v>-1.8634497894170552E-8</v>
       </c>
       <c r="AB9" s="67">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>7.4163464584494493E-4</v>
+        <v>6.945084815732131E-4</v>
       </c>
       <c r="AD9" s="73">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>5.124374652584775E-4</v>
+        <v>4.813091609176957E-4</v>
       </c>
       <c r="AE9" s="74">
-        <v>-1.0683018343524192E-3</v>
+        <v>-9.2014986646030074E-4</v>
       </c>
       <c r="AF9" s="75">
-        <v>5.5586436909394192E-4</v>
+        <v>4.3884070554260499E-4</v>
       </c>
       <c r="AH9" s="70">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>8.6736173798840355E-19</v>
+        <v>-5.4210108624275222E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="214" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0001</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -3256,15 +3258,15 @@
       </c>
       <c r="D10" s="11" t="str">
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
-        <v>JPYFUT3MM4_Quote</v>
+        <v>JPYFUT3MN4_Quote</v>
       </c>
       <c r="E10" s="53">
         <f>_xll.qlIMMdate(A10)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="F10" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="G10" s="50" t="e">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
@@ -3272,7 +3274,7 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>6.1588920278960639E-4</v>
+        <v>6.1555509893980291E-4</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3293,32 +3295,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="112">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O10" s="112">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P10" s="112">
         <f t="shared" si="6"/>
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="R10" s="91">
         <f t="shared" si="4"/>
-        <v>2914.3333333333335</v>
+        <v>5466.3333333333339</v>
       </c>
       <c r="S10" s="91">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="T10" s="91">
         <v>1</v>
       </c>
       <c r="V10" s="85">
-        <v>12369.333333333334</v>
+        <v>6481.333333333333</v>
       </c>
       <c r="W10" s="86">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="X10" s="87">
         <v>1</v>
@@ -3327,35 +3329,35 @@
         <v>46</v>
       </c>
       <c r="Z10" s="68">
-        <v>7.9030567392450658E-6</v>
+        <v>3.7373033549632822E-6</v>
       </c>
       <c r="AA10" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB10" s="68">
-        <v>7.5029656189893039E-4</v>
+        <v>7.4163464584407605E-4</v>
       </c>
       <c r="AD10" s="76">
-        <v>-0.12553849360755986</v>
+        <v>-8.9523503930691417E-2</v>
       </c>
       <c r="AE10" s="77">
-        <v>0.22781753752084516</v>
+        <v>0.14173611045573362</v>
       </c>
       <c r="AF10" s="78">
-        <v>-0.10227904391328532</v>
+        <v>-5.2212606525042199E-2</v>
       </c>
       <c r="AH10" s="71">
-        <v>1.8431436932253575E-18</v>
+        <v>-8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="214" t="str">
         <f>_xll.qlIMMNextCode(E10,IF(_xll.qlIMMIsIMMdate(E10,TRUE),FALSE,TRUE))</f>
-        <v>N4</v>
+        <v>U4</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0001</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -3363,15 +3365,15 @@
       </c>
       <c r="D11" s="11" t="str">
         <f>Currency&amp;"FUT3M"&amp;A11&amp;QuoteSuffix</f>
-        <v>JPYFUT3MN4_Quote</v>
+        <v>JPYFUT3MU4_Quote</v>
       </c>
       <c r="E11" s="53">
         <f>_xll.qlIMMdate(A11)</f>
-        <v>41836</v>
+        <v>41899</v>
       </c>
       <c r="F11" s="54">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"3M","mf")</f>
-        <v>41928</v>
+        <v>41990</v>
       </c>
       <c r="G11" s="50" t="e">
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
@@ -3379,7 +3381,7 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>6.0865532577915858E-4</v>
+        <v>5.9004131845595358E-4</v>
       </c>
       <c r="I11" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3400,53 +3402,53 @@
       <c r="M11" s="5"/>
       <c r="N11" s="112">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="O11" s="112">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="P11" s="112">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="R11" s="91">
         <f t="shared" si="4"/>
-        <v>6330.333333333333</v>
+        <v>17982.333333333332</v>
       </c>
       <c r="S11" s="91">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>131.5</v>
       </c>
       <c r="T11" s="91">
         <v>1</v>
       </c>
       <c r="V11" s="88">
-        <v>19596.333333333332</v>
+        <v>12805.333333333334</v>
       </c>
       <c r="W11" s="89">
-        <v>137.5</v>
+        <v>110</v>
       </c>
       <c r="X11" s="90">
         <v>1</v>
       </c>
       <c r="Z11" s="69">
-        <v>4.0984986716880193E-4</v>
+        <v>5.7837598321828316E-4</v>
       </c>
       <c r="AB11" s="69">
-        <v>6.8365873869194894E-4</v>
+        <v>7.5085839523009331E-4</v>
       </c>
       <c r="AD11" s="79">
-        <v>7.2196474893459364</v>
+        <v>3.6842611904379892</v>
       </c>
       <c r="AE11" s="80">
-        <v>-10.390112562534751</v>
+        <v>-3.8081463934843924</v>
       </c>
       <c r="AF11" s="81">
-        <v>4.1704650731888151</v>
+        <v>1.1238852030464028</v>
       </c>
       <c r="AH11" s="72">
-        <v>3.0357660829594124E-18</v>
+        <v>-1.0842021724855044E-18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -3455,7 +3457,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b6#0001</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -3467,11 +3469,11 @@
       </c>
       <c r="E12" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41837</v>
+        <v>41843</v>
       </c>
       <c r="F12" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41929</v>
+        <v>41935</v>
       </c>
       <c r="G12" s="50">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -3479,11 +3481,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>6.0836535415505514E-4</v>
+        <v>6.0836535415592402E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>7.4163464584494493E-4</v>
+        <v>7.4163464584407605E-4</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -3491,11 +3493,11 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>4.8791753016114797E-6</v>
+        <v>7.6009942372359606E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.2609953343808946E-4</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="112">
@@ -3531,7 +3533,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0001</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -3543,11 +3545,11 @@
       </c>
       <c r="E13" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41869</v>
+        <v>41877</v>
       </c>
       <c r="F13" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41961</v>
+        <v>41969</v>
       </c>
       <c r="G13" s="50">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -3555,11 +3557,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>5.9970343810106968E-4</v>
+        <v>5.9914160476990676E-4</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>7.5029656189893039E-4</v>
+        <v>7.5085839523009331E-4</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -3567,32 +3569,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>3.4735951939765298E-6</v>
+        <v>4.3346087428369395E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.5549700288768066E-4</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="112">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O13" s="112">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P13" s="112">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="R13" s="91">
         <f t="shared" si="4"/>
-        <v>12369.333333333334</v>
+        <v>12805.333333333334</v>
       </c>
       <c r="S13" s="91">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="T13" s="91">
         <v>1</v>
@@ -3607,7 +3609,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ba#0001</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -3619,23 +3621,23 @@
       </c>
       <c r="E14" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41899</v>
+        <v>41906</v>
       </c>
       <c r="F14" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41990</v>
+        <v>41997</v>
       </c>
       <c r="G14" s="50">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>6.16341261308051E-4</v>
+        <v>5.9114099542170511E-4</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>6.8365873869194894E-4</v>
+        <v>7.5885900457829496E-4</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -3643,32 +3645,32 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>2.4860317770616326E-6</v>
+        <v>3.4412044387744313E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.6353764162424317E-4</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="112">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" s="112">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P14" s="112">
         <f t="shared" si="6"/>
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R14" s="91">
         <f t="shared" si="4"/>
-        <v>19596.333333333332</v>
+        <v>19872.333333333332</v>
       </c>
       <c r="S14" s="91">
         <f t="shared" si="5"/>
-        <v>137.5</v>
+        <v>138.5</v>
       </c>
       <c r="T14" s="91">
         <v>1</v>
@@ -3683,7 +3685,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b1#0001</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -3695,23 +3697,23 @@
       </c>
       <c r="E15" s="103">
         <f>SettlementDate</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F15" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41990</v>
+        <v>41997</v>
       </c>
       <c r="G15" s="105">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>1.7963999999999999E-3</v>
+        <v>1.7929E-3</v>
       </c>
       <c r="H15" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>6.1643835616435904E-4</v>
+        <v>6.1643835616411932E-4</v>
       </c>
       <c r="I15" s="107">
         <f t="shared" si="1"/>
-        <v>1.1799616438356408E-3</v>
+        <v>1.1764616438358806E-3</v>
       </c>
       <c r="J15" s="108" t="b">
         <v>0</v>
@@ -3725,20 +3727,20 @@
       </c>
       <c r="O15" s="111">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" s="111">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="108"/>
       <c r="R15" s="122">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11163</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="S15" s="122">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>91.5</v>
+        <v>92</v>
       </c>
       <c r="T15" s="122">
         <v>1</v>
@@ -3751,7 +3753,7 @@
       </c>
       <c r="B16" s="56" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00377#0002</v>
+        <v>obj_00376#0003</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -3763,51 +3765,51 @@
       </c>
       <c r="E16" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41802</v>
+        <v>41810</v>
       </c>
       <c r="F16" s="97">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41985</v>
+        <v>41995</v>
       </c>
       <c r="G16" s="98">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.7963999999999999E-3</v>
-      </c>
-      <c r="H16" s="99" t="e">
+        <v>1.7929E-3</v>
+      </c>
+      <c r="H16" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" s="100" t="e">
+        <v>6.1687926473666919E-4</v>
+      </c>
+      <c r="I16" s="100">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.176020735263331E-3</v>
       </c>
       <c r="J16" s="108" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="109"/>
       <c r="L16" s="109"/>
       <c r="M16" s="109"/>
       <c r="N16" s="111">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="O16" s="111">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P16" s="111">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="122">
         <f t="shared" si="8"/>
-        <v>10273</v>
+        <v>10862.333333333334</v>
       </c>
       <c r="S16" s="122">
         <f t="shared" si="9"/>
-        <v>86.5</v>
+        <v>89.5</v>
       </c>
       <c r="T16" s="122">
         <v>1</v>
@@ -3838,11 +3840,11 @@
       <c r="M17" s="109"/>
       <c r="N17" s="111">
         <f t="shared" si="2"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="O17" s="111">
         <f t="shared" si="3"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="P17" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3855,7 +3857,7 @@
       </c>
       <c r="S17" s="122">
         <f t="shared" si="9"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="T17" s="122">
         <v>1</v>
@@ -3886,20 +3888,20 @@
       </c>
       <c r="K18" s="99">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>3.8715050067928447E-6</v>
+        <v>-3.5429550960406981E-7</v>
       </c>
       <c r="L18" s="99">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2394396314824594E-3</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="111">
         <f t="shared" si="2"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="O18" s="111">
         <f t="shared" si="3"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="P18" s="111" t="e">
         <f t="shared" si="7"/>
@@ -3912,18 +3914,18 @@
       </c>
       <c r="S18" s="122">
         <f t="shared" si="9"/>
-        <v>-41807</v>
+        <v>-41813</v>
       </c>
       <c r="T18" s="122">
         <v>1</v>
       </c>
       <c r="V18" s="82">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>18012</v>
+        <v>10862.333333333334</v>
       </c>
       <c r="W18" s="83">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>123</v>
+        <v>89.5</v>
       </c>
       <c r="X18" s="84">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -3931,25 +3933,25 @@
       </c>
       <c r="Z18" s="67">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>2.3698871434684829E-8</v>
+        <v>1.9774504360062751E-8</v>
       </c>
       <c r="AB18" s="67">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.1845672916027039E-3</v>
+        <v>1.176020735263331E-3</v>
       </c>
       <c r="AD18" s="73">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.5343029691050274E-4</v>
+        <v>4.5620437956204486E-4</v>
       </c>
       <c r="AE18" s="74">
-        <v>-1.1554071110938559E-3</v>
+        <v>-8.9228209531988175E-4</v>
       </c>
       <c r="AF18" s="75">
-        <v>6.0197681418335328E-4</v>
+        <v>4.3607771575783705E-4</v>
       </c>
       <c r="AH18" s="70">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>-2.1684043449710089E-18</v>
+        <v>3.2526065174565133E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -3958,7 +3960,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0001</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -3970,23 +3972,23 @@
       </c>
       <c r="E19" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41837</v>
+        <v>41843</v>
       </c>
       <c r="F19" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42023</v>
+        <v>42027</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>1.8E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>6.1543270839729597E-4</v>
+        <v>6.1452486124291073E-4</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>1.1845672916027039E-3</v>
+        <v>1.1354751387570891E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -3994,11 +3996,11 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>4.8153141935069259E-6</v>
+        <v>-6.2377840778833651E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2876770702574432E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="112">
@@ -4007,28 +4009,28 @@
       </c>
       <c r="O19" s="112">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P19" s="112">
         <f t="shared" si="7"/>
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R19" s="91">
         <f t="shared" si="8"/>
-        <v>18012</v>
+        <v>17705.333333333336</v>
       </c>
       <c r="S19" s="91">
         <f t="shared" si="9"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T19" s="91">
         <v>1</v>
       </c>
       <c r="V19" s="85">
-        <v>26537.333333333332</v>
+        <v>17705.333333333336</v>
       </c>
       <c r="W19" s="86">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="X19" s="87">
         <v>1</v>
@@ -4037,25 +4039,25 @@
         <v>46</v>
       </c>
       <c r="Z19" s="68">
-        <v>-8.0347043911483534E-6</v>
+        <v>-5.4111547643738352E-6</v>
       </c>
       <c r="AA19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="68">
-        <v>1.1375322340816054E-3</v>
+        <v>1.1354751387570891E-3</v>
       </c>
       <c r="AD19" s="76">
-        <v>-0.18445734702992503</v>
+        <v>-0.12682481751824842</v>
       </c>
       <c r="AE19" s="77">
-        <v>0.35000744379931692</v>
+        <v>0.21864265779304473</v>
       </c>
       <c r="AF19" s="78">
-        <v>-0.16555009676939192</v>
+        <v>-9.1817840274796295E-2</v>
       </c>
       <c r="AH19" s="71">
-        <v>-2.8189256484623115E-18</v>
+        <v>4.7704895589362195E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -4064,7 +4066,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0001</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4076,11 +4078,11 @@
       </c>
       <c r="E20" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41869</v>
+        <v>41877</v>
       </c>
       <c r="F20" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42053</v>
+        <v>42061</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
@@ -4088,11 +4090,11 @@
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>6.1246776591839457E-4</v>
+        <v>6.1159550802031043E-4</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>1.1375322340816054E-3</v>
+        <v>1.1384044919796894E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4100,62 +4102,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>3.6932864742909263E-6</v>
+        <v>-2.8282889686948553E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2266471078029688E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="112">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="112">
         <f t="shared" si="3"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P20" s="112">
         <f t="shared" si="7"/>
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="R20" s="91">
         <f t="shared" si="8"/>
-        <v>26537.333333333332</v>
+        <v>27157.333333333332</v>
       </c>
       <c r="S20" s="91">
         <f t="shared" si="9"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T20" s="91">
         <v>1</v>
       </c>
       <c r="V20" s="88">
-        <v>36036.333333333328</v>
+        <v>27157.333333333332</v>
       </c>
       <c r="W20" s="89">
-        <v>182.5</v>
+        <v>156</v>
       </c>
       <c r="X20" s="90">
         <v>1</v>
       </c>
       <c r="Z20" s="69">
-        <v>1.7459718594324061E-3</v>
+        <v>1.4455218288143374E-3</v>
       </c>
       <c r="AB20" s="69">
-        <v>1.1336587386919488E-3</v>
+        <v>1.1384044919796894E-3</v>
       </c>
       <c r="AD20" s="79">
-        <v>13.719867176728803</v>
+        <v>7.3953771289537835</v>
       </c>
       <c r="AE20" s="80">
-        <v>-22.239722702293452</v>
+        <v>-9.8762523257478403</v>
       </c>
       <c r="AF20" s="81">
-        <v>9.5198555255646493</v>
+        <v>3.4808751967940568</v>
       </c>
       <c r="AH20" s="72">
-        <v>-3.2526065174565133E-18</v>
+        <v>7.1557343384043293E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -4164,7 +4166,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b4#0001</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4176,11 +4178,11 @@
       </c>
       <c r="E21" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41899</v>
+        <v>41906</v>
       </c>
       <c r="F21" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
@@ -4188,11 +4190,11 @@
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>6.1634126130805111E-4</v>
+        <v>6.0335975887769379E-4</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>1.1336587386919488E-3</v>
+        <v>1.1466402411223061E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4200,32 +4202,32 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>3.1059143525806815E-6</v>
+        <v>-1.5627922415438741E-7</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2039947163869664E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="112">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O21" s="112">
         <f t="shared" si="3"/>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P21" s="112">
         <f t="shared" si="7"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="R21" s="91">
         <f t="shared" si="8"/>
-        <v>36036.333333333328</v>
+        <v>36402.333333333328</v>
       </c>
       <c r="S21" s="91">
         <f t="shared" si="9"/>
-        <v>182.5</v>
+        <v>183.5</v>
       </c>
       <c r="T21" s="91">
         <v>1</v>
@@ -4241,7 +4243,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0001</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4253,11 +4255,11 @@
       </c>
       <c r="E22" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41929</v>
+        <v>41935</v>
       </c>
       <c r="F22" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42111</v>
+        <v>42117</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
@@ -4265,11 +4267,11 @@
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>6.016299477639898E-4</v>
+        <v>6.0191629010415834E-4</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>1.1483700522360099E-3</v>
+        <v>1.1480837098958416E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4277,11 +4279,11 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.6957043479718543E-6</v>
+        <v>-1.1310536586028087E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.1962665957523213E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="112">
@@ -4318,7 +4320,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bb#0001</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4330,23 +4332,23 @@
       </c>
       <c r="E23" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41960</v>
+        <v>41968</v>
       </c>
       <c r="F23" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42142</v>
+        <v>42150</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.8236776008173743E-4</v>
+        <v>5.8141415780020263E-4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>1.1676322399182624E-3</v>
+        <v>1.1185858421997974E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4354,32 +4356,32 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.3926890162259477E-6</v>
+        <v>-1.8349806090585809E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2088668881654796E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="112">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O23" s="112">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P23" s="112">
         <f t="shared" si="7"/>
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="R23" s="91">
         <f t="shared" si="8"/>
-        <v>62296.333333333328</v>
+        <v>63276.333333333328</v>
       </c>
       <c r="S23" s="91">
         <f t="shared" si="9"/>
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="T23" s="91">
         <v>1</v>
@@ -4395,7 +4397,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0001</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -4407,11 +4409,11 @@
       </c>
       <c r="E24" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41990</v>
+        <v>41997</v>
       </c>
       <c r="F24" s="54">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42172</v>
+        <v>42179</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
@@ -4419,11 +4421,11 @@
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>5.6681019324605843E-4</v>
+        <v>5.6641552536965643E-4</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>1.1331898067539416E-3</v>
+        <v>1.1335844746303435E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4431,32 +4433,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.0678646108648569E-6</v>
+        <v>-1.1438345184093665E-7</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.1964953731428585E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="112">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O24" s="112">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P24" s="112">
         <f t="shared" si="7"/>
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="R24" s="91">
         <f t="shared" si="8"/>
-        <v>77836.333333333328</v>
+        <v>78385.333333333328</v>
       </c>
       <c r="S24" s="91">
         <f t="shared" si="9"/>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T24" s="91">
         <v>1</v>
@@ -4468,7 +4470,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bc#0001</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -4480,23 +4482,23 @@
       </c>
       <c r="E25" s="103">
         <f>SettlementDate</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F25" s="104">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42172</v>
+        <v>42178</v>
       </c>
       <c r="G25" s="105">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>3.3E-3</v>
+        <v>3.2713999999999998E-3</v>
       </c>
       <c r="H25" s="106">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>5.9178082191796216E-4</v>
+        <v>5.9178082191774315E-4</v>
       </c>
       <c r="I25" s="107">
         <f t="shared" si="1"/>
-        <v>2.7082191780820378E-3</v>
+        <v>2.6796191780822567E-3</v>
       </c>
       <c r="J25" s="108" t="b">
         <v>0</v>
@@ -4536,7 +4538,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00376#0002</v>
+        <v>obj_00377#0003</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -4548,27 +4550,27 @@
       </c>
       <c r="E26" s="96">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41802</v>
+        <v>41810</v>
       </c>
       <c r="F26" s="97">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42167</v>
+        <v>42177</v>
       </c>
       <c r="G26" s="98">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>3.3E-3</v>
-      </c>
-      <c r="H26" s="99" t="e">
+        <v>3.2713999999999998E-3</v>
+      </c>
+      <c r="H26" s="99">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I26" s="100" t="e">
+        <v>5.9234485102970414E-4</v>
+      </c>
+      <c r="I26" s="100">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.6790551489702958E-3</v>
       </c>
       <c r="J26" s="108" t="b">
         <f>NOT(ISERROR(I26))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="110" t="e">
         <f>K27</f>
@@ -4581,24 +4583,24 @@
       <c r="M26" s="109"/>
       <c r="N26" s="111">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="O26" s="111">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P26" s="111">
         <f t="shared" si="7"/>
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="122">
         <f t="shared" si="8"/>
-        <v>42608.333333333328</v>
+        <v>43804.333333333336</v>
       </c>
       <c r="S26" s="122">
         <f t="shared" si="9"/>
-        <v>177.5</v>
+        <v>180.5</v>
       </c>
       <c r="T26" s="122">
         <v>1</v>
@@ -4611,7 +4613,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b5#0001</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -4623,11 +4625,11 @@
       </c>
       <c r="E27" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42172</v>
+        <v>42178</v>
       </c>
       <c r="F27" s="54">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42538</v>
+        <v>42544</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -4635,7 +4637,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.903107338162947E-4</v>
+        <v>6.9031073381651306E-4</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4744,11 +4746,11 @@
       </c>
       <c r="V30" s="117">
         <f>Z9</f>
-        <v>-4.1480281861728213E-8</v>
+        <v>-1.8634497894170552E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>2.3698871434684829E-8</v>
+        <v>1.9774504360062751E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -4757,19 +4759,19 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>0</v>
+        <v>3.2293248781909746E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>0</v>
+        <v>6.945084815732131E-4</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>0</v>
+        <v>1.176020735263331E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>0</v>
+        <v>2.6790551489702958E-3</v>
       </c>
       <c r="M31" s="58" t="s">
         <v>45</v>
@@ -4780,11 +4782,11 @@
       </c>
       <c r="O31" s="57">
         <f>K9</f>
-        <v>4.8791753016114797E-6</v>
+        <v>7.6009942372359606E-7</v>
       </c>
       <c r="P31" s="57">
         <f>AVERAGE(K19:K21)</f>
-        <v>3.8715050067928447E-6</v>
+        <v>-3.5429550960406981E-7</v>
       </c>
       <c r="Q31" s="57" t="e">
         <f>K26</f>
@@ -4795,11 +4797,11 @@
       </c>
       <c r="V31" s="63">
         <f>Z10</f>
-        <v>7.9030567392450658E-6</v>
+        <v>3.7373033549632822E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-8.0347043911483534E-6</v>
+        <v>-5.4111547643738352E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -4808,19 +4810,19 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>0</v>
+        <v>3.2293248781909746E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>0</v>
+        <v>6.945084815732131E-4</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>0</v>
+        <v>1.176020735263331E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>0</v>
+        <v>2.6790551489702958E-3</v>
       </c>
       <c r="M32" s="58" t="s">
         <v>44</v>
@@ -4831,11 +4833,11 @@
       </c>
       <c r="O32" s="57">
         <f>L9</f>
-        <v>0</v>
+        <v>6.2609953343808946E-4</v>
       </c>
       <c r="P32" s="57">
         <f>L18</f>
-        <v>0</v>
+        <v>1.2394396314824594E-3</v>
       </c>
       <c r="Q32" s="57" t="e">
         <f>L26</f>
@@ -4846,11 +4848,11 @@
       </c>
       <c r="V32" s="63">
         <f>Z11</f>
-        <v>4.0984986716880193E-4</v>
+        <v>5.7837598321828316E-4</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.7459718594324061E-3</v>
+        <v>1.4455218288143374E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -4908,7 +4910,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="123" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039f#0001</v>
+        <v>obj_0039f#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -4919,11 +4921,11 @@
       </c>
       <c r="E34" s="51">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41808</v>
+        <v>41814</v>
       </c>
       <c r="G34" s="32" t="e">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
@@ -4931,11 +4933,11 @@
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>1.0480078345684817E-3</v>
+        <v>1.2239209599711983E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>2.3761826726513215E-3</v>
+        <v>2.0865053795083356E-3</v>
       </c>
       <c r="J34" s="32" t="e">
         <f t="shared" si="14"/>
@@ -4947,7 +4949,7 @@
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>6.3422026579067789E-4</v>
+        <v>6.4368253657473172E-4</v>
       </c>
       <c r="N34" s="62" t="e">
         <f>N$31*$K34+N$32</f>
@@ -4955,11 +4957,11 @@
       </c>
       <c r="O34" s="63">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>4.1378756877780387E-4</v>
+        <v>5.8023842339646671E-4</v>
       </c>
       <c r="P34" s="63">
         <f t="shared" si="15"/>
-        <v>1.7419624068606436E-3</v>
+        <v>1.4428228429336038E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -4970,17 +4972,17 @@
       </c>
       <c r="V34" s="63">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>4.1378756877780387E-4</v>
+        <v>5.8023842339646671E-4</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.7419624068606436E-3</v>
+        <v>1.4428228429336038E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0001</v>
+        <v>obj_003a3#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -4991,11 +4993,11 @@
       </c>
       <c r="E35" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41814</v>
+        <v>41820</v>
       </c>
       <c r="G35" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5003,11 +5005,11 @@
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>1.0710533202764293E-3</v>
+        <v>1.2348347180697816E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>2.3524577414208315E-3</v>
+        <v>2.0705883072849752E-3</v>
       </c>
       <c r="J35" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5019,7 +5021,7 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>6.3422026579067789E-4</v>
+        <v>6.4368253657473172E-4</v>
       </c>
       <c r="N35" s="62" t="e">
         <f>N$31*$K35+N$32</f>
@@ -5027,11 +5029,11 @@
       </c>
       <c r="O35" s="63">
         <f t="shared" si="15"/>
-        <v>4.3683305448575144E-4</v>
+        <v>5.9115218149504985E-4</v>
       </c>
       <c r="P35" s="63">
         <f t="shared" si="15"/>
-        <v>1.7182374756301534E-3</v>
+        <v>1.4269057707102435E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5042,17 +5044,17 @@
       </c>
       <c r="V35" s="63">
         <f t="shared" si="17"/>
-        <v>4.3683305448575144E-4</v>
+        <v>5.9115218149504985E-4</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.7182374756301534E-3</v>
+        <v>1.4269057707102435E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ab#0001</v>
+        <v>obj_003a1#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5063,11 +5065,11 @@
       </c>
       <c r="E36" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41821</v>
+        <v>41827</v>
       </c>
       <c r="G36" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5075,11 +5077,11 @@
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>1.0980920114739405E-3</v>
+        <v>1.24647333777857E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>2.3269080471734899E-3</v>
+        <v>2.0520893646865409E-3</v>
       </c>
       <c r="J36" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5091,7 +5093,7 @@
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>6.3563079221205603E-4</v>
+        <v>6.4315368493796294E-4</v>
       </c>
       <c r="N36" s="62" t="e">
         <f>N$31*$K36+N$32</f>
@@ -5099,11 +5101,11 @@
       </c>
       <c r="O36" s="63">
         <f t="shared" si="15"/>
-        <v>4.6246121926188448E-4</v>
+        <v>6.0331965284060704E-4</v>
       </c>
       <c r="P36" s="63">
         <f t="shared" si="15"/>
-        <v>1.6912772549614336E-3</v>
+        <v>1.408935679748578E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5114,17 +5116,17 @@
       </c>
       <c r="V36" s="63">
         <f t="shared" si="17"/>
-        <v>4.6246121926188448E-4</v>
+        <v>6.0331965284060704E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.6912772549614336E-3</v>
+        <v>1.408935679748578E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ae#0001</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5135,11 +5137,11 @@
       </c>
       <c r="E37" s="52">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41828</v>
+        <v>41834</v>
       </c>
       <c r="G37" s="35" t="e">
         <f t="shared" si="14"/>
@@ -5147,11 +5149,11 @@
       </c>
       <c r="H37" s="35">
         <f>$L37+IF(H$30,H$32,O37)</f>
-        <v>1.1243724685512215E-3</v>
+        <v>1.2572771442179265E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>2.3027293044802673E-3</v>
+        <v>2.0340103028923134E-3</v>
       </c>
       <c r="J37" s="35" t="e">
         <f t="shared" si="14"/>
@@ -5163,7 +5165,7 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>6.3763810705402032E-4</v>
+        <v>6.4239874696297202E-4</v>
       </c>
       <c r="N37" s="92" t="e">
         <f>N$31*$K37+N$32</f>
@@ -5171,11 +5173,11 @@
       </c>
       <c r="O37" s="93">
         <f t="shared" si="15"/>
-        <v>4.8673436149720105E-4</v>
+        <v>6.1487839725495454E-4</v>
       </c>
       <c r="P37" s="93">
         <f t="shared" si="15"/>
-        <v>1.6650911974262471E-3</v>
+        <v>1.3916115559293415E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -5186,17 +5188,17 @@
       </c>
       <c r="V37" s="93">
         <f t="shared" si="17"/>
-        <v>4.8673436149720105E-4</v>
+        <v>6.1487839725495454E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.6650911974262471E-3</v>
+        <v>1.3916115559293415E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0001</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5207,11 +5209,11 @@
       </c>
       <c r="E38" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41837</v>
+        <v>41843</v>
       </c>
       <c r="G38" s="34" t="e">
         <f t="shared" si="14"/>
@@ -5219,11 +5221,11 @@
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>1.1570475241109062E-3</v>
+        <v>1.2699410745837633E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>2.2736568454075328E-3</v>
+        <v>2.0113827490660309E-3</v>
       </c>
       <c r="J38" s="34" t="e">
         <f t="shared" si="14"/>
@@ -5235,7 +5237,7 @@
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>6.4109589041194681E-4</v>
+        <v>6.4109589040928217E-4</v>
       </c>
       <c r="N38" s="62" t="e">
         <f>N$31*$K38+N$32</f>
@@ -5243,11 +5245,11 @@
       </c>
       <c r="O38" s="63">
         <f t="shared" si="15"/>
-        <v>5.1595163369895947E-4</v>
+        <v>6.2884518417448128E-4</v>
       </c>
       <c r="P38" s="63">
         <f t="shared" si="15"/>
-        <v>1.6325609549955862E-3</v>
+        <v>1.3702868586567486E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5258,17 +5260,17 @@
       </c>
       <c r="V38" s="63">
         <f t="shared" si="17"/>
-        <v>5.1595163369895947E-4</v>
+        <v>6.2884518417448128E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.6325609549955862E-3</v>
+        <v>1.3702868586567486E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0001</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -5279,20 +5281,20 @@
       </c>
       <c r="E39" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41869</v>
+        <v>41877</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>1.2427904486719374E-3</v>
+        <v>1.3139131153212654E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>2.1683580676504829E-3</v>
+        <v>1.9407493921763119E-3</v>
       </c>
       <c r="J39" s="32" t="e">
         <f t="shared" si="19"/>
@@ -5300,20 +5302,20 @@
       </c>
       <c r="K39" s="125">
         <f t="shared" si="18"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>6.410958904120329E-4</v>
+        <v>6.4138572586899811E-4</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="63">
         <f t="shared" si="15"/>
-        <v>6.0169455825990451E-4</v>
+        <v>6.7252738945226733E-4</v>
       </c>
       <c r="P39" s="63">
         <f t="shared" si="15"/>
-        <v>1.52726217723845E-3</v>
+        <v>1.2993636663073138E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5324,17 +5326,17 @@
       </c>
       <c r="V39" s="63">
         <f t="shared" si="17"/>
-        <v>6.0169455825990451E-4</v>
+        <v>6.7252738945226733E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.52726217723845E-3</v>
+        <v>1.2993636663073138E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0001</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -5345,20 +5347,20 @@
       </c>
       <c r="E40" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41899</v>
+        <v>41906</v>
       </c>
       <c r="G40" s="45"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>1.2727991314460728E-3</v>
+        <v>1.3395332222059255E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>2.0596762295451931E-3</v>
+        <v>1.8920089187517584E-3</v>
       </c>
       <c r="J40" s="32" t="e">
         <f t="shared" si="19"/>
@@ -5366,20 +5368,20 @@
       </c>
       <c r="K40" s="125">
         <f t="shared" si="18"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>6.1643835616455366E-4</v>
+        <v>6.4109589041074335E-4</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="63">
         <f t="shared" si="15"/>
-        <v>6.5636077528151914E-4</v>
+        <v>6.9843733179518214E-4</v>
       </c>
       <c r="P40" s="63">
         <f t="shared" si="15"/>
-        <v>1.4432378733806393E-3</v>
+        <v>1.2509130283410151E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5390,17 +5392,17 @@
       </c>
       <c r="V40" s="63">
         <f t="shared" si="17"/>
-        <v>6.5636077528151914E-4</v>
+        <v>6.9843733179518214E-4</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.4432378733806393E-3</v>
+        <v>1.2509130283410151E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0001</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -5411,17 +5413,17 @@
       </c>
       <c r="E41" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41929</v>
+        <v>41935</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="46"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>1.9898712485484351E-3</v>
+        <v>1.8299876519833986E-3</v>
       </c>
       <c r="J41" s="32" t="e">
         <f t="shared" si="20"/>
@@ -5433,13 +5435,13 @@
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>6.1643835616479576E-4</v>
+        <v>6.1643835616414058E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="46"/>
       <c r="P41" s="63">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.3734328923836396E-3</v>
+        <v>1.2135492958192582E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5451,13 +5453,13 @@
       <c r="V41" s="63"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.3734328923836396E-3</v>
+        <v>1.2135492958192582E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a1#0001</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -5468,17 +5470,17 @@
       </c>
       <c r="E42" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41960</v>
+        <v>41968</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="44"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>1.9326776234790529E-3</v>
+        <v>1.8009565131562784E-3</v>
       </c>
       <c r="J42" s="32" t="e">
         <f t="shared" si="20"/>
@@ -5486,17 +5488,17 @@
       </c>
       <c r="K42" s="125">
         <f t="shared" si="18"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>6.1643835616465015E-4</v>
+        <v>6.1643835616407715E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="44"/>
       <c r="P42" s="63">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.3162392673144027E-3</v>
+        <v>1.1845181569922012E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5508,13 +5510,13 @@
       <c r="V42" s="63"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.3162392673144027E-3</v>
+        <v>1.1845181569922012E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a5#0001</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -5525,17 +5527,17 @@
       </c>
       <c r="E43" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41990</v>
+        <v>41997</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="44"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>1.8917852656320775E-3</v>
+        <v>1.7872958198608254E-3</v>
       </c>
       <c r="J43" s="32" t="e">
         <f t="shared" si="20"/>
@@ -5543,17 +5545,17 @@
       </c>
       <c r="K43" s="125">
         <f t="shared" si="18"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>6.1643835616435904E-4</v>
+        <v>6.1643835616411932E-4</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="44"/>
       <c r="P43" s="63">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.2753469094677185E-3</v>
+        <v>1.170857463696706E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5565,13 +5567,13 @@
       <c r="V43" s="93"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.2753469094677185E-3</v>
+        <v>1.170857463696706E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ad#0001</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -5582,11 +5584,11 @@
       </c>
       <c r="E44" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42023</v>
+        <v>42027</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
@@ -5597,11 +5599,11 @@
       </c>
       <c r="K44" s="125">
         <f t="shared" si="18"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>6.1902535194779962E-4</v>
+        <v>6.1827800020814675E-4</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -5614,7 +5616,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0001</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -5625,11 +5627,11 @@
       </c>
       <c r="E45" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42052</v>
+        <v>42058</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
@@ -5644,7 +5646,7 @@
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>6.1977269886500806E-4</v>
+        <v>6.1942906235800321E-4</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
@@ -5657,7 +5659,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a0#0001</v>
+        <v>obj_003a5#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -5668,11 +5670,11 @@
       </c>
       <c r="E46" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42080</v>
+        <v>42086</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
@@ -5687,7 +5689,7 @@
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>6.164383561644551E-4</v>
+        <v>6.1643835616445499E-4</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -5700,7 +5702,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0001</v>
+        <v>obj_003a0#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -5711,11 +5713,11 @@
       </c>
       <c r="E47" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42111</v>
+        <v>42117</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
@@ -5730,7 +5732,7 @@
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>6.076480402808066E-4</v>
+        <v>6.0781950473081335E-4</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -5743,7 +5745,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0001</v>
+        <v>obj_003a4#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -5754,11 +5756,11 @@
       </c>
       <c r="E48" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42142</v>
+        <v>42150</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
@@ -5769,11 +5771,11 @@
       </c>
       <c r="K48" s="125">
         <f t="shared" si="18"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>5.980112507474306E-4</v>
+        <v>5.9760654901021184E-4</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -5786,7 +5788,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ac#0001</v>
+        <v>obj_003a2#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -5797,11 +5799,11 @@
       </c>
       <c r="E49" s="53">
         <f t="shared" si="13"/>
-        <v>41807</v>
+        <v>41813</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42172</v>
+        <v>42178</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
@@ -5816,7 +5818,7 @@
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>5.9178082191796216E-4</v>
+        <v>5.9178082191774315E-4</v>
       </c>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
@@ -5925,7 +5927,7 @@
       </c>
       <c r="P2" s="215">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5941,7 +5943,7 @@
       </c>
       <c r="D3" s="187" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1M_Quote#0001</v>
+        <v>JPYSND_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E3" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -5957,8 +5959,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K3" s="156"/>
-      <c r="L3" s="166">
-        <v>9.7300000000000002E-4</v>
+      <c r="L3" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="140"/>
       <c r="N3" s="169" t="e">
@@ -5985,7 +5987,7 @@
       </c>
       <c r="D4" s="187" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1M_Quote#0001</v>
+        <v>JPYSWD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E4" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -6001,8 +6003,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K4" s="156"/>
-      <c r="L4" s="166">
-        <v>9.7300000000000002E-4</v>
+      <c r="L4" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M4" s="140"/>
       <c r="N4" s="169" t="e">
@@ -6025,7 +6027,7 @@
       </c>
       <c r="D5" s="187" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1M_Quote#0001</v>
+        <v>JPY2WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E5" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -6041,8 +6043,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K5" s="156"/>
-      <c r="L5" s="166">
-        <v>9.7400000000000004E-4</v>
+      <c r="L5" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M5" s="140"/>
       <c r="N5" s="169" t="e">
@@ -6065,7 +6067,7 @@
       </c>
       <c r="D6" s="187" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1M_Quote#0001</v>
+        <v>JPY3WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E6" s="188" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -6081,8 +6083,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K6" s="156"/>
-      <c r="L6" s="167">
-        <v>9.7565552719620723E-4</v>
+      <c r="L6" s="167" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="140"/>
       <c r="N6" s="171" t="e">
@@ -6105,7 +6107,7 @@
       </c>
       <c r="D7" s="193" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1M_Quote#0001</v>
+        <v>JPY1MD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E7" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -6121,8 +6123,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K7" s="156"/>
-      <c r="L7" s="168">
-        <v>9.7900000000000005E-4</v>
+      <c r="L7" s="168" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M7" s="140"/>
       <c r="N7" s="172" t="e">
@@ -6147,7 +6149,7 @@
       </c>
       <c r="D8" s="196" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH3M_Quote#0001</v>
+        <v>JPYSND_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E8" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -6160,23 +6162,23 @@
       </c>
       <c r="J8" s="217">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
-        <v>1.0480000000000001E-3</v>
+        <v>1.224E-3</v>
       </c>
       <c r="K8" s="156"/>
       <c r="L8" s="166">
-        <v>1.369E-3</v>
+        <v>1.224E-3</v>
       </c>
       <c r="M8" s="140"/>
       <c r="N8" s="169">
-        <v>1.0480000000000001E-3</v>
-      </c>
-      <c r="O8" s="239" t="e">
+        <v>1.224E-3</v>
+      </c>
+      <c r="O8" s="239">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P8" s="216">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6193,7 +6195,7 @@
       </c>
       <c r="D9" s="186" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH3M_Quote#0001</v>
+        <v>JPYSWD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E9" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -6206,19 +6208,19 @@
       </c>
       <c r="J9" s="218">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
-        <v>1.0709999999999999E-3</v>
+        <v>1.235E-3</v>
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="166">
-        <v>1.369E-3</v>
+        <v>1.235E-3</v>
       </c>
       <c r="M9" s="140"/>
       <c r="N9" s="169">
-        <v>1.0709999999999999E-3</v>
-      </c>
-      <c r="O9" s="170" t="e">
+        <v>1.235E-3</v>
+      </c>
+      <c r="O9" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P9" s="190"/>
     </row>
@@ -6233,7 +6235,7 @@
       </c>
       <c r="D10" s="186" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH3M_Quote#0001</v>
+        <v>JPY2WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E10" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -6246,19 +6248,19 @@
       </c>
       <c r="J10" s="218">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
-        <v>1.098E-3</v>
+        <v>1.2459999999999999E-3</v>
       </c>
       <c r="K10" s="156"/>
       <c r="L10" s="166">
-        <v>1.3699999999999999E-3</v>
+        <v>1.2459999999999999E-3</v>
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="169">
-        <v>1.098E-3</v>
-      </c>
-      <c r="O10" s="170" t="e">
+        <v>1.2459999999999999E-3</v>
+      </c>
+      <c r="O10" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P10" s="190"/>
     </row>
@@ -6273,7 +6275,7 @@
       </c>
       <c r="D11" s="186" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH3M_Quote#0001</v>
+        <v>JPY3WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E11" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -6286,19 +6288,19 @@
       </c>
       <c r="J11" s="218">
         <f>ROUND(Depo_Calculation!$H37,6)</f>
-        <v>1.124E-3</v>
+        <v>1.2570000000000001E-3</v>
       </c>
       <c r="K11" s="156"/>
       <c r="L11" s="166">
-        <v>1.371E-3</v>
+        <v>1.2570000000000001E-3</v>
       </c>
       <c r="M11" s="140"/>
       <c r="N11" s="169">
-        <v>1.124E-3</v>
-      </c>
-      <c r="O11" s="170" t="e">
+        <v>1.2570000000000001E-3</v>
+      </c>
+      <c r="O11" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P11" s="190"/>
     </row>
@@ -6313,7 +6315,7 @@
       </c>
       <c r="D12" s="186" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH3M_Quote#0001</v>
+        <v>JPY1MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E12" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -6326,19 +6328,19 @@
       </c>
       <c r="J12" s="218">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
-        <v>1.157E-3</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="K12" s="156"/>
       <c r="L12" s="166">
-        <v>1.374E-3</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="M12" s="140"/>
       <c r="N12" s="169">
-        <v>1.157E-3</v>
-      </c>
-      <c r="O12" s="170" t="e">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="O12" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P12" s="190"/>
     </row>
@@ -6353,7 +6355,7 @@
       </c>
       <c r="D13" s="186" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH3M_Quote#0001</v>
+        <v>JPY2MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E13" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -6366,19 +6368,19 @@
       </c>
       <c r="J13" s="218">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
-        <v>1.243E-3</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="K13" s="156"/>
       <c r="L13" s="166">
-        <v>1.374E-3</v>
+        <v>1.3140000000000001E-3</v>
       </c>
       <c r="M13" s="140"/>
       <c r="N13" s="169">
-        <v>1.243E-3</v>
-      </c>
-      <c r="O13" s="170" t="e">
+        <v>1.3140000000000001E-3</v>
+      </c>
+      <c r="O13" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P13" s="190"/>
     </row>
@@ -6393,7 +6395,7 @@
       </c>
       <c r="D14" s="193" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH3M_Quote#0001</v>
+        <v>JPY3MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E14" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -6406,19 +6408,19 @@
       </c>
       <c r="J14" s="219">
         <f>ROUND(Depo_Calculation!$H40,6)</f>
-        <v>1.273E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="K14" s="206"/>
       <c r="L14" s="168">
-        <v>1.3500000000000001E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="M14" s="206"/>
       <c r="N14" s="172">
-        <v>1.273E-3</v>
-      </c>
-      <c r="O14" s="173" t="e">
+        <v>1.34E-3</v>
+      </c>
+      <c r="O14" s="173">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P14" s="206"/>
     </row>
@@ -6435,7 +6437,7 @@
       </c>
       <c r="D15" s="196" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH6M_Quote#0001</v>
+        <v>JPYSND_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E15" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -6448,23 +6450,23 @@
       </c>
       <c r="J15" s="217">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
-        <v>2.3760000000000001E-3</v>
+        <v>2.0869999999999999E-3</v>
       </c>
       <c r="K15" s="156"/>
       <c r="L15" s="166">
-        <v>1.8370000000000001E-3</v>
+        <v>2.0869999999999999E-3</v>
       </c>
       <c r="M15" s="140"/>
       <c r="N15" s="169">
-        <v>2.3760000000000001E-3</v>
-      </c>
-      <c r="O15" s="170" t="e">
+        <v>2.0869999999999999E-3</v>
+      </c>
+      <c r="O15" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P15" s="190">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6481,7 +6483,7 @@
       </c>
       <c r="D16" s="186" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH6M_Quote#0001</v>
+        <v>JPYSWD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E16" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -6494,19 +6496,19 @@
       </c>
       <c r="J16" s="218">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
-        <v>2.3519999999999999E-3</v>
+        <v>2.0709999999999999E-3</v>
       </c>
       <c r="K16" s="156"/>
       <c r="L16" s="166">
-        <v>1.8370000000000001E-3</v>
+        <v>2.0709999999999999E-3</v>
       </c>
       <c r="M16" s="140"/>
       <c r="N16" s="169">
-        <v>2.3519999999999999E-3</v>
-      </c>
-      <c r="O16" s="170" t="e">
+        <v>2.0709999999999999E-3</v>
+      </c>
+      <c r="O16" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P16" s="190"/>
     </row>
@@ -6521,7 +6523,7 @@
       </c>
       <c r="D17" s="186" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH6M_Quote#0001</v>
+        <v>JPY2WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E17" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -6534,19 +6536,19 @@
       </c>
       <c r="J17" s="218">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
-        <v>2.3270000000000001E-3</v>
+        <v>2.052E-3</v>
       </c>
       <c r="K17" s="156"/>
       <c r="L17" s="166">
-        <v>1.838E-3</v>
+        <v>2.052E-3</v>
       </c>
       <c r="M17" s="140"/>
       <c r="N17" s="169">
-        <v>2.3270000000000001E-3</v>
-      </c>
-      <c r="O17" s="170" t="e">
+        <v>2.052E-3</v>
+      </c>
+      <c r="O17" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P17" s="190"/>
     </row>
@@ -6561,7 +6563,7 @@
       </c>
       <c r="D18" s="186" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH6M_Quote#0001</v>
+        <v>JPY3WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E18" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -6574,19 +6576,19 @@
       </c>
       <c r="J18" s="218">
         <f>ROUND(Depo_Calculation!$I37,6)</f>
-        <v>2.3029999999999999E-3</v>
+        <v>2.0339999999999998E-3</v>
       </c>
       <c r="K18" s="156"/>
       <c r="L18" s="166">
-        <v>1.8389999999999999E-3</v>
+        <v>2.0339999999999998E-3</v>
       </c>
       <c r="M18" s="140"/>
       <c r="N18" s="169">
-        <v>2.3029999999999999E-3</v>
-      </c>
-      <c r="O18" s="170" t="e">
+        <v>2.0339999999999998E-3</v>
+      </c>
+      <c r="O18" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P18" s="190"/>
     </row>
@@ -6601,7 +6603,7 @@
       </c>
       <c r="D19" s="186" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH6M_Quote#0001</v>
+        <v>JPY1MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E19" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -6614,19 +6616,19 @@
       </c>
       <c r="J19" s="218">
         <f>ROUND(Depo_Calculation!$I38,6)</f>
-        <v>2.274E-3</v>
+        <v>2.0110000000000002E-3</v>
       </c>
       <c r="K19" s="156"/>
       <c r="L19" s="166">
-        <v>1.843E-3</v>
+        <v>2.0110000000000002E-3</v>
       </c>
       <c r="M19" s="140"/>
       <c r="N19" s="169">
-        <v>2.274E-3</v>
-      </c>
-      <c r="O19" s="170" t="e">
+        <v>2.0110000000000002E-3</v>
+      </c>
+      <c r="O19" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P19" s="190"/>
     </row>
@@ -6641,7 +6643,7 @@
       </c>
       <c r="D20" s="186" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH6M_Quote#0001</v>
+        <v>JPY2MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E20" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -6654,19 +6656,19 @@
       </c>
       <c r="J20" s="218">
         <f>ROUND(Depo_Calculation!$I39,6)</f>
-        <v>2.1679999999999998E-3</v>
+        <v>1.941E-3</v>
       </c>
       <c r="K20" s="156"/>
       <c r="L20" s="166">
-        <v>1.843E-3</v>
+        <v>1.941E-3</v>
       </c>
       <c r="M20" s="140"/>
       <c r="N20" s="169">
-        <v>2.1679999999999998E-3</v>
-      </c>
-      <c r="O20" s="170" t="e">
+        <v>1.941E-3</v>
+      </c>
+      <c r="O20" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P20" s="190"/>
     </row>
@@ -6681,7 +6683,7 @@
       </c>
       <c r="D21" s="186" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH6M_Quote#0001</v>
+        <v>JPY3MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E21" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -6694,19 +6696,19 @@
       </c>
       <c r="J21" s="218">
         <f>ROUND(Depo_Calculation!$I40,6)</f>
-        <v>2.0600000000000002E-3</v>
+        <v>1.892E-3</v>
       </c>
       <c r="K21" s="156"/>
       <c r="L21" s="166">
-        <v>1.818E-3</v>
+        <v>1.892E-3</v>
       </c>
       <c r="M21" s="140"/>
       <c r="N21" s="169">
-        <v>2.0600000000000002E-3</v>
-      </c>
-      <c r="O21" s="170" t="e">
+        <v>1.892E-3</v>
+      </c>
+      <c r="O21" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P21" s="190"/>
     </row>
@@ -6721,7 +6723,7 @@
       </c>
       <c r="D22" s="186" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH6M_Quote#0001</v>
+        <v>JPY4MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E22" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -6734,19 +6736,19 @@
       </c>
       <c r="J22" s="218">
         <f>ROUND(Depo_Calculation!$I41,6)</f>
-        <v>1.99E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="K22" s="156"/>
       <c r="L22" s="166">
-        <v>1.818E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="M22" s="140"/>
       <c r="N22" s="169">
-        <v>1.99E-3</v>
-      </c>
-      <c r="O22" s="170" t="e">
+        <v>1.83E-3</v>
+      </c>
+      <c r="O22" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P22" s="190"/>
     </row>
@@ -6761,7 +6763,7 @@
       </c>
       <c r="D23" s="186" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH6M_Quote#0001</v>
+        <v>JPY5MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E23" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -6774,19 +6776,19 @@
       </c>
       <c r="J23" s="218">
         <f>ROUND(Depo_Calculation!$I42,6)</f>
-        <v>1.933E-3</v>
+        <v>1.8010000000000001E-3</v>
       </c>
       <c r="K23" s="156"/>
       <c r="L23" s="166">
-        <v>1.818E-3</v>
+        <v>1.8010000000000001E-3</v>
       </c>
       <c r="M23" s="140"/>
       <c r="N23" s="169">
-        <v>1.933E-3</v>
-      </c>
-      <c r="O23" s="170" t="e">
+        <v>1.8010000000000001E-3</v>
+      </c>
+      <c r="O23" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P23" s="190"/>
     </row>
@@ -6801,7 +6803,7 @@
       </c>
       <c r="D24" s="186" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH6M_Quote#0001</v>
+        <v>JPY6MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E24" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -6814,19 +6816,19 @@
       </c>
       <c r="J24" s="219">
         <f>ROUND(Depo_Calculation!$I43,6)</f>
-        <v>1.892E-3</v>
+        <v>1.787E-3</v>
       </c>
       <c r="K24" s="211"/>
       <c r="L24" s="168">
-        <v>1.818E-3</v>
+        <v>1.787E-3</v>
       </c>
       <c r="M24" s="212"/>
       <c r="N24" s="172">
-        <v>1.892E-3</v>
-      </c>
-      <c r="O24" s="170" t="e">
+        <v>1.787E-3</v>
+      </c>
+      <c r="O24" s="170">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P24" s="213"/>
     </row>
@@ -6843,7 +6845,7 @@
       </c>
       <c r="D25" s="196" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1Y_Quote#0001</v>
+        <v>JPYSND_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E25" s="197" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -6860,8 +6862,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" s="156"/>
-      <c r="L25" s="237">
-        <v>3.3790000000000001E-3</v>
+      <c r="L25" s="237" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M25" s="140"/>
       <c r="N25" s="238" t="e">
@@ -6873,7 +6875,7 @@
       </c>
       <c r="P25" s="190">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
@@ -6890,7 +6892,7 @@
       </c>
       <c r="D26" s="186" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1Y_Quote#0001</v>
+        <v>JPYSWD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E26" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -6907,8 +6909,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" s="156"/>
-      <c r="L26" s="166">
-        <v>3.3790000000000001E-3</v>
+      <c r="L26" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M26" s="140"/>
       <c r="N26" s="169" t="e">
@@ -6931,7 +6933,7 @@
       </c>
       <c r="D27" s="186" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1Y_Quote#0001</v>
+        <v>JPY2WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E27" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -6948,8 +6950,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" s="156"/>
-      <c r="L27" s="166">
-        <v>3.3800000000000002E-3</v>
+      <c r="L27" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M27" s="140"/>
       <c r="N27" s="169" t="e">
@@ -6972,7 +6974,7 @@
       </c>
       <c r="D28" s="186" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1Y_Quote#0001</v>
+        <v>JPY3WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E28" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -6988,8 +6990,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" s="156"/>
-      <c r="L28" s="166">
-        <v>3.3809999999999999E-3</v>
+      <c r="L28" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M28" s="140"/>
       <c r="N28" s="169" t="e">
@@ -7012,7 +7014,7 @@
       </c>
       <c r="D29" s="186" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY1MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E29" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -7028,8 +7030,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" s="156"/>
-      <c r="L29" s="166">
-        <v>3.385E-3</v>
+      <c r="L29" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M29" s="140"/>
       <c r="N29" s="169" t="e">
@@ -7052,7 +7054,7 @@
       </c>
       <c r="D30" s="186" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY2MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E30" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -7068,8 +7070,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" s="156"/>
-      <c r="L30" s="166">
-        <v>3.385E-3</v>
+      <c r="L30" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M30" s="140"/>
       <c r="N30" s="169" t="e">
@@ -7092,7 +7094,7 @@
       </c>
       <c r="D31" s="186" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY3MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E31" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -7108,8 +7110,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" s="156"/>
-      <c r="L31" s="166">
-        <v>3.3600000000000001E-3</v>
+      <c r="L31" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M31" s="140"/>
       <c r="N31" s="169" t="e">
@@ -7132,7 +7134,7 @@
       </c>
       <c r="D32" s="186" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY4MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E32" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -7148,8 +7150,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" s="156"/>
-      <c r="L32" s="166">
-        <v>3.3600000000000001E-3</v>
+      <c r="L32" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M32" s="140"/>
       <c r="N32" s="169" t="e">
@@ -7172,7 +7174,7 @@
       </c>
       <c r="D33" s="186" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY5MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E33" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -7188,8 +7190,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" s="156"/>
-      <c r="L33" s="166">
-        <v>3.3600000000000001E-3</v>
+      <c r="L33" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M33" s="140"/>
       <c r="N33" s="169" t="e">
@@ -7212,7 +7214,7 @@
       </c>
       <c r="D34" s="186" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY6MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E34" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -7228,8 +7230,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" s="156"/>
-      <c r="L34" s="166">
-        <v>3.3600000000000001E-3</v>
+      <c r="L34" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M34" s="140"/>
       <c r="N34" s="169" t="e">
@@ -7252,7 +7254,7 @@
       </c>
       <c r="D35" s="186" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY7MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY7MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E35" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -7268,8 +7270,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" s="156"/>
-      <c r="L35" s="166">
-        <v>3.362E-3</v>
+      <c r="L35" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M35" s="140"/>
       <c r="N35" s="169" t="e">
@@ -7292,7 +7294,7 @@
       </c>
       <c r="D36" s="186" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY8MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY8MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E36" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -7308,8 +7310,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" s="156"/>
-      <c r="L36" s="166">
-        <v>3.3630000000000001E-3</v>
+      <c r="L36" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M36" s="140"/>
       <c r="N36" s="169" t="e">
@@ -7332,7 +7334,7 @@
       </c>
       <c r="D37" s="186" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY9MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY9MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E37" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -7348,8 +7350,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" s="156"/>
-      <c r="L37" s="166">
-        <v>3.3600000000000001E-3</v>
+      <c r="L37" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M37" s="140"/>
       <c r="N37" s="169" t="e">
@@ -7372,7 +7374,7 @@
       </c>
       <c r="D38" s="186" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY10MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY10MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E38" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -7388,8 +7390,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" s="156"/>
-      <c r="L38" s="166">
-        <v>3.3509999999999998E-3</v>
+      <c r="L38" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M38" s="140"/>
       <c r="N38" s="169" t="e">
@@ -7412,7 +7414,7 @@
       </c>
       <c r="D39" s="186" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY11MD_SYNTH1Y_Quote#0001</v>
+        <v>JPY11MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E39" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -7428,8 +7430,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" s="156"/>
-      <c r="L39" s="166">
-        <v>3.3419999999999999E-3</v>
+      <c r="L39" s="166" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M39" s="140"/>
       <c r="N39" s="169" t="e">
@@ -7452,7 +7454,7 @@
       </c>
       <c r="D40" s="193" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1YD_SYNTH1Y_Quote#0001</v>
+        <v>JPY1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E40" s="208" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -7468,8 +7470,8 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" s="211"/>
-      <c r="L40" s="168">
-        <v>3.3349999999999999E-3</v>
+      <c r="L40" s="168" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M40" s="212"/>
       <c r="N40" s="172" t="e">

--- a/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="-15" windowWidth="15345" windowHeight="8280" tabRatio="826"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12570" windowHeight="11250" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <definedName name="LastDayInYear">'General Settings'!$D$19</definedName>
     <definedName name="LastFixingsTrigger">'General Settings'!$I$20</definedName>
     <definedName name="LastUpdate">'General Settings'!$D$11</definedName>
+    <definedName name="LiborCalendar">'General Settings'!$D$26</definedName>
     <definedName name="LiveDataFeed">'General Settings'!$D$12</definedName>
+    <definedName name="LocalCalendar">'General Settings'!$D$25</definedName>
     <definedName name="Months12M" localSheetId="2">Contribution!$A$25</definedName>
     <definedName name="Months1M" localSheetId="2">Contribution!$A$3</definedName>
     <definedName name="Months3M" localSheetId="2">Contribution!$A$8</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t>Currency</t>
   </si>
@@ -328,15 +330,6 @@
     <t>JpyTonar</t>
   </si>
   <si>
-    <t>Joint Calendar</t>
-  </si>
-  <si>
-    <t>Joint Calendar Rule</t>
-  </si>
-  <si>
-    <t>JoinHolidays</t>
-  </si>
-  <si>
     <t>Calendar 1</t>
   </si>
   <si>
@@ -346,7 +339,10 @@
     <t>Calendar 2</t>
   </si>
   <si>
-    <t>Join Calendar</t>
+    <t>CALENDAR SETTINGS</t>
+  </si>
+  <si>
+    <t>HolidayCheck</t>
   </si>
 </sst>
 </file>
@@ -368,7 +364,7 @@
     <numFmt numFmtId="175" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -437,17 +433,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -459,24 +444,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
     <font>
@@ -491,13 +459,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="MS Sans Serif"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1130,25 +1106,25 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1156,7 +1132,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1213,13 +1189,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1227,20 +1196,11 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="9" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1281,7 +1241,7 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1307,7 +1267,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1324,58 +1284,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="4" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="21" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,7 +1335,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1498,19 +1412,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="31" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="33" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="32" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1522,49 +1423,116 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="46" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="18" fillId="9" borderId="13" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="4" fillId="9" borderId="13" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="4" borderId="20" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="13" xfId="18" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="4" fillId="9" borderId="13" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="4" fillId="9" borderId="13" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Euro" xfId="1"/>
@@ -1633,18 +1601,18 @@
       <sheetName val="LiborSwapIsdaFixAm"/>
       <sheetName val="LiborSwapForBasisCalc"/>
       <sheetName val="LiborSwapIsdaFixPm"/>
+      <sheetName val="Deposits"/>
       <sheetName val="OIS"/>
-      <sheetName val="BasisSwap1MxM"/>
-      <sheetName val="BasisSwap3M6M"/>
-      <sheetName val="Deposits"/>
       <sheetName val="FRA"/>
       <sheetName val="Futures3M_TIBOR"/>
       <sheetName val="Futures3M"/>
       <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="Swap3M_TIBOR"/>
+      <sheetName val="Swap6M"/>
       <sheetName val="Swaps1M"/>
-      <sheetName val="Swap3M_TIBOR"/>
       <sheetName val="Swap3M"/>
-      <sheetName val="Swap6M"/>
       <sheetName val="ON"/>
       <sheetName val="1M (2)"/>
       <sheetName val="3M (2)"/>
@@ -1657,7 +1625,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="8">
@@ -1667,7 +1635,18 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="7">
+          <cell r="D7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
         <row r="7">
           <cell r="D7" t="str">
@@ -1707,6 +1686,18 @@
       <sheetData sheetId="6">
         <row r="7">
           <cell r="D7" t="str">
+            <v>JPYSND_Quote#0000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>JPYSWD_Quote#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="7">
+          <cell r="D7" t="str">
             <v>3W</v>
           </cell>
         </row>
@@ -1716,7 +1707,44 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7">
+      <sheetData sheetId="8">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>JPY3x6F_Quote</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>JPY4x7F_Quote</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>Q4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>U4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>Q4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>U4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
         <row r="7">
           <cell r="D7" t="str">
             <v>6L</v>
@@ -1728,7 +1756,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
+      <sheetData sheetId="13">
         <row r="7">
           <cell r="D7" t="str">
             <v>6L</v>
@@ -1740,56 +1768,31 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
+      <sheetData sheetId="14">
         <row r="7">
           <cell r="D7" t="str">
-            <v>JPYSND_Quote#0000</v>
+            <v>3T</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>JPYSWD_Quote#0000</v>
+            <v>3T</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10">
+      <sheetData sheetId="15">
         <row r="7">
           <cell r="D7" t="str">
-            <v>JPY3x6F_Quote</v>
+            <v>6L</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>JPY4x7F_Quote</v>
+            <v>6L</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>Q4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>U4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>Q4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>U4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
+      <sheetData sheetId="16">
         <row r="7">
           <cell r="D7" t="str">
             <v>X1S</v>
@@ -1801,19 +1804,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>3T</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>3T</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
+      <sheetData sheetId="17">
         <row r="7">
           <cell r="D7" t="str">
             <v>3L</v>
@@ -1822,18 +1813,6 @@
         <row r="8">
           <cell r="D8" t="str">
             <v>3L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>6L</v>
           </cell>
         </row>
       </sheetData>
@@ -2163,441 +2142,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.83203125" style="130" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="130" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" style="130" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="130" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" style="130" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="130" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="130" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="130" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="130"/>
+    <col min="1" max="2" width="2.83203125" style="205" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="205" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="205" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.83203125" style="205" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="205" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="205" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="205"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="130" t="str">
+      <c r="B1" s="205" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="250" t="s">
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="252"/>
-      <c r="G2" s="253" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="201"/>
+      <c r="G2" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="255"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B3" s="133"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="134"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="133"/>
-      <c r="C4" s="48" t="s">
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="252"/>
+    </row>
+    <row r="3" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="207"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="209"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="212"/>
+    </row>
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="207"/>
+      <c r="C4" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="145" t="s">
+      <c r="E4" s="209"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="147"/>
-    </row>
-    <row r="5" spans="1:35" s="132" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="48" t="s">
+      <c r="I4" s="216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="217"/>
+    </row>
+    <row r="5" spans="1:35" s="219" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="205"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="218" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="145" t="s">
+      <c r="E5" s="209"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="146" t="b">
+      <c r="I5" s="216" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="147"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-    </row>
-    <row r="6" spans="1:35" s="132" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="130"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="48" t="s">
+      <c r="J5" s="217"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="205"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="205"/>
+      <c r="W5" s="205"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="205"/>
+      <c r="AB5" s="205"/>
+      <c r="AC5" s="205"/>
+      <c r="AD5" s="205"/>
+      <c r="AE5" s="205"/>
+      <c r="AF5" s="205"/>
+      <c r="AG5" s="205"/>
+      <c r="AH5" s="205"/>
+      <c r="AI5" s="205"/>
+    </row>
+    <row r="6" spans="1:35" s="219" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="205"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="213" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="128" t="str">
+      <c r="D6" s="218" t="str">
         <f>IF(UPPER(Currency)&lt;&gt;"EUR","L","")&amp;"ibor"</f>
         <v>Libor</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="145" t="s">
+      <c r="E6" s="209"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="146" t="b">
+      <c r="I6" s="216" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B7" s="133"/>
-      <c r="C7" s="48" t="s">
+      <c r="J6" s="217"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="205"/>
+      <c r="W6" s="205"/>
+      <c r="X6" s="205"/>
+      <c r="Y6" s="205"/>
+      <c r="Z6" s="205"/>
+      <c r="AA6" s="205"/>
+      <c r="AB6" s="205"/>
+      <c r="AC6" s="205"/>
+      <c r="AD6" s="205"/>
+      <c r="AE6" s="205"/>
+      <c r="AF6" s="205"/>
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+    </row>
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="207"/>
+      <c r="C7" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="220" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="145" t="s">
+      <c r="E7" s="209"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B8" s="133"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="134"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="145" t="s">
+      <c r="I7" s="221"/>
+      <c r="J7" s="217"/>
+    </row>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="209"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="147"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B9" s="133"/>
-      <c r="C9" s="48" t="s">
+      <c r="I8" s="223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="217"/>
+    </row>
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="207"/>
+      <c r="C9" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="224" t="str">
         <f>Currency&amp;"ON"</f>
         <v>JPYON</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="144"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B10" s="133"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="134"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="145" t="s">
+      <c r="E9" s="209"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="212"/>
+    </row>
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="209"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="149" t="s">
+      <c r="I10" s="223" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="147"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B11" s="133"/>
-      <c r="C11" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="138">
+      <c r="J10" s="217"/>
+    </row>
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="207"/>
+      <c r="C11" s="225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="226">
         <v>41809.403344907405</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="145" t="s">
+      <c r="E11" s="209"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="150">
+      <c r="I11" s="227">
         <v>1E-4</v>
       </c>
-      <c r="J11" s="147"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B12" s="133"/>
-      <c r="C12" s="42" t="s">
+      <c r="J11" s="217"/>
+    </row>
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="207"/>
+      <c r="C12" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="134"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="145" t="s">
+      <c r="D12" s="228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="209"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="151">
+      <c r="I12" s="229">
         <v>-0.01</v>
       </c>
-      <c r="J12" s="147"/>
-    </row>
-    <row r="13" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
-    </row>
-    <row r="14" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="256" t="s">
+      <c r="J12" s="217"/>
+    </row>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="232"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="235"/>
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="251" t="s">
+      <c r="C15" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="251"/>
-      <c r="E15" s="252"/>
-      <c r="G15" s="256" t="s">
+      <c r="D15" s="200"/>
+      <c r="E15" s="201"/>
+      <c r="G15" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="251" t="s">
+      <c r="H15" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B16" s="221"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="229"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="229"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="221"/>
-      <c r="C17" s="224" t="s">
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
+    </row>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="207"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="237"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="237"/>
+    </row>
+    <row r="17" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="207"/>
+      <c r="C17" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="238">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41813</v>
-      </c>
-      <c r="E17" s="223"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="224" t="s">
+        <v>41831</v>
+      </c>
+      <c r="E17" s="209"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="55">
-        <v>41809.402881944443</v>
-      </c>
-      <c r="J17" s="223"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="221"/>
-      <c r="C18" s="224" t="s">
+      <c r="I17" s="238">
+        <v>41829.516250000001</v>
+      </c>
+      <c r="J17" s="209"/>
+    </row>
+    <row r="18" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="207"/>
+      <c r="C18" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="55" t="str">
+      <c r="D18" s="238" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_00378#0000</v>
-      </c>
-      <c r="E18" s="223"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="224" t="s">
+        <v>obj_0037f#0004</v>
+      </c>
+      <c r="E18" s="209"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="238">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41809</v>
-      </c>
-      <c r="J18" s="223"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="221"/>
-      <c r="C19" s="224" t="s">
+        <v>41829</v>
+      </c>
+      <c r="J18" s="209"/>
+    </row>
+    <row r="19" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="207"/>
+      <c r="C19" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="238">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate),12,31),"Preceding")</f>
-        <v>42003</v>
-      </c>
-      <c r="E19" s="223"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="224" t="s">
+        <v>42004</v>
+      </c>
+      <c r="E19" s="209"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="228">
+      <c r="I19" s="239">
         <f>[1]!TriggerCounter</f>
-        <v>4</v>
-      </c>
-      <c r="J19" s="223"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="221"/>
-      <c r="C20" s="224" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="209"/>
+    </row>
+    <row r="20" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="207"/>
+      <c r="C20" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="238">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding")</f>
-        <v>42368</v>
-      </c>
-      <c r="E20" s="223"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="224" t="s">
+        <v>42369</v>
+      </c>
+      <c r="E20" s="209"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="228">
+      <c r="I20" s="239">
         <f>[1]!LastFixingsTrigger</f>
         <v>0</v>
       </c>
-      <c r="J20" s="223"/>
-    </row>
-    <row r="21" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="225"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="227"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="226"/>
-      <c r="J21" s="227"/>
-    </row>
-    <row r="22" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
+      <c r="J20" s="209"/>
+    </row>
+    <row r="21" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="230"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="232"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="231"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="232"/>
+    </row>
+    <row r="22" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="257" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="258"/>
-      <c r="D23" s="258"/>
-      <c r="E23" s="259"/>
-    </row>
-    <row r="24" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
+    </row>
+    <row r="24" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="241"/>
       <c r="C24" s="242"/>
       <c r="D24" s="242"/>
       <c r="E24" s="243"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="241"/>
       <c r="C25" s="244" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="245" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E25" s="243"/>
     </row>
-    <row r="26" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="241"/>
       <c r="C26" s="244" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="246" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="243"/>
     </row>
-    <row r="27" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="241"/>
       <c r="C27" s="244" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="245" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="D27" s="246" t="b">
+        <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),"2D","f",FALSE,Trigger))</f>
+        <v>0</v>
       </c>
       <c r="E27" s="243"/>
     </row>
-    <row r="28" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="241"/>
       <c r="C28" s="244" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="245" t="str">
-        <f>D25&amp;"("&amp;D26&amp;","&amp;D27&amp;")"</f>
-        <v>JoinHolidays(UnitedKingdom::Exchange,Japan)</v>
+        <v>16</v>
+      </c>
+      <c r="D28" s="246" t="str">
+        <f>IF(D27,LocalCalendar,LiborCalendar)</f>
+        <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E28" s="243"/>
     </row>
-    <row r="29" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="247"/>
       <c r="C29" s="248"/>
       <c r="D29" s="248"/>
@@ -2617,15 +2595,12 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D26:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D25:D26">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
-      <formula1>"JoinBusinessDays,JoinHolidays"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2701,173 +2676,173 @@
       <c r="I1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b6#0000</v>
+        <v>obj_003be#0004</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="102" t="str">
+      <c r="D2" s="96" t="str">
         <f>Currency&amp;A3&amp;"D_Quote"</f>
         <v>JPY1MD_Quote</v>
       </c>
-      <c r="E2" s="103">
+      <c r="E2" s="97">
         <f>SettlementDate</f>
-        <v>41813</v>
-      </c>
-      <c r="F2" s="104">
+        <v>41831</v>
+      </c>
+      <c r="F2" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41843</v>
-      </c>
-      <c r="G2" s="105">
+        <v>41862</v>
+      </c>
+      <c r="G2" s="99">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>9.6429999999999997E-4</v>
-      </c>
-      <c r="H2" s="106">
+        <v>9.7860000000000004E-4</v>
+      </c>
+      <c r="H2" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>6.4109589040928217E-4</v>
-      </c>
-      <c r="I2" s="107">
+        <v>6.4109589040816468E-4</v>
+      </c>
+      <c r="I2" s="101">
         <f>G2-H2</f>
-        <v>3.232041095907178E-4</v>
-      </c>
-      <c r="J2" s="108" t="b">
+        <v>3.3750410959183536E-4</v>
+      </c>
+      <c r="J2" s="102" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111">
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="105">
         <f t="shared" ref="N2:O4" si="0">E2-SettlementDate</f>
         <v>0</v>
       </c>
-      <c r="O2" s="111">
+      <c r="O2" s="105">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P2" s="111">
+        <v>31</v>
+      </c>
+      <c r="P2" s="105">
         <f>(O2^2-N2^2)/(O2-N2)</f>
-        <v>30</v>
-      </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="122">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="116">
         <f>(O2^3-N2^3)/3/(O2-N2)</f>
-        <v>300</v>
-      </c>
-      <c r="S2" s="122">
+        <v>320.33333333333337</v>
+      </c>
+      <c r="S2" s="116">
         <f>(O2+N2)/2</f>
-        <v>15</v>
-      </c>
-      <c r="T2" s="122">
+        <v>15.5</v>
+      </c>
+      <c r="T2" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="214" t="str">
+      <c r="A3" s="182" t="str">
         <f>_xll.qlPeriodEquivalent(A2&amp;"M")</f>
         <v>1M</v>
       </c>
-      <c r="B3" s="56" t="str">
+      <c r="B3" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00374#0003</v>
+        <v>obj_0037c#0005</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="95" t="str">
+      <c r="D3" s="89" t="str">
         <f>PROPER(Currency&amp;FamilyName)&amp;A3&amp;"LastFixing_Quote"</f>
         <v>Jpylibor1MLastFixing_Quote</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
-      </c>
-      <c r="F3" s="97">
+        <v>41822</v>
+      </c>
+      <c r="F3" s="91">
         <f>F2</f>
-        <v>41843</v>
-      </c>
-      <c r="G3" s="98">
+        <v>41862</v>
+      </c>
+      <c r="G3" s="92">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>9.6429999999999997E-4</v>
-      </c>
-      <c r="H3" s="99">
+        <v>9.7860000000000004E-4</v>
+      </c>
+      <c r="H3" s="93" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>6.4136751218090251E-4</v>
-      </c>
-      <c r="I3" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" s="94" t="e">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>3.2293248781909746E-4</v>
-      </c>
-      <c r="J3" s="108" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" s="102" t="b">
         <f>NOT(ISERROR(I3))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="110" t="e">
+        <v>0</v>
+      </c>
+      <c r="K3" s="104" t="e">
         <f>K4</f>
         <v>#NUM!</v>
       </c>
-      <c r="L3" s="99" t="e">
+      <c r="L3" s="93" t="e">
         <f>_xll.ohFilter($I$2:$I$3,$J$2:$J$3)-K3*_xll.ohFilter($P$2:$P$3,$J$2:$J$3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="111">
+      <c r="M3" s="103"/>
+      <c r="N3" s="105">
         <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="O3" s="111">
+        <v>-9</v>
+      </c>
+      <c r="O3" s="105">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P3" s="111">
+        <v>31</v>
+      </c>
+      <c r="P3" s="105">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>27</v>
-      </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="122">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="116">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>273</v>
-      </c>
-      <c r="S3" s="122">
+        <v>254.33333333333334</v>
+      </c>
+      <c r="S3" s="116">
         <f>(O3+N3)/2</f>
-        <v>13.5</v>
-      </c>
-      <c r="T3" s="122">
+        <v>11</v>
+      </c>
+      <c r="T3" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="str">
+      <c r="A4" s="40" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;A3</f>
         <v>JpyLibor1M</v>
       </c>
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E4,F4,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bd#0000</v>
+        <v>obj_003c4#0004</v>
       </c>
       <c r="C4" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B4,OisEngine)</f>
@@ -2876,13 +2851,13 @@
       <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="48">
         <f>F3</f>
-        <v>41843</v>
-      </c>
-      <c r="F4" s="54">
+        <v>41862</v>
+      </c>
+      <c r="F4" s="49">
         <f>F5</f>
-        <v>41877</v>
+        <v>41893</v>
       </c>
       <c r="G4" s="27" t="e">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
@@ -2890,7 +2865,7 @@
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>6.4160718539508317E-4</v>
+        <v>6.4106050035856431E-4</v>
       </c>
       <c r="I4" s="16" t="e">
         <f>G4-H4</f>
@@ -2909,47 +2884,47 @@
         <v>#NUM!</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="112">
+      <c r="N4" s="106">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O4" s="112">
+        <v>31</v>
+      </c>
+      <c r="O4" s="106">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="P4" s="112">
+        <v>62</v>
+      </c>
+      <c r="P4" s="106">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>94</v>
-      </c>
-      <c r="R4" s="91">
+        <v>93</v>
+      </c>
+      <c r="R4" s="85">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2305.333333333333</v>
-      </c>
-      <c r="S4" s="91">
+        <v>2242.333333333333</v>
+      </c>
+      <c r="S4" s="85">
         <f>(O4+N4)/2</f>
-        <v>47</v>
-      </c>
-      <c r="T4" s="91">
+        <v>46.5</v>
+      </c>
+      <c r="T4" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="12"/>
       <c r="D5" s="9" t="str">
         <f>Currency&amp;"2X1S"&amp;QuoteSuffix</f>
         <v>JPY2X1S_Quote</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="48">
         <f>SettlementDate</f>
-        <v>41813</v>
-      </c>
-      <c r="F5" s="54">
+        <v>41831</v>
+      </c>
+      <c r="F5" s="49">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41877</v>
-      </c>
-      <c r="G5" s="50" t="e">
+        <v>41893</v>
+      </c>
+      <c r="G5" s="45" t="e">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
         <v>#NUM!</v>
       </c>
@@ -2958,197 +2933,197 @@
       <c r="J5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="A6" s="40">
         <v>3</v>
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bc#0000</v>
+        <v>obj_003b7#0004</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="102" t="str">
+      <c r="D6" s="96" t="str">
         <f>Currency&amp;A7&amp;"D_Quote"</f>
         <v>JPY3MD_Quote</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="97">
         <f>SettlementDate</f>
-        <v>41813</v>
-      </c>
-      <c r="F6" s="104">
+        <v>41831</v>
+      </c>
+      <c r="F6" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41906</v>
-      </c>
-      <c r="G6" s="105">
+        <v>41925</v>
+      </c>
+      <c r="G6" s="99">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.3357E-3</v>
-      </c>
-      <c r="H6" s="106">
+        <v>1.3286000000000001E-3</v>
+      </c>
+      <c r="H6" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>6.4109589041074335E-4</v>
-      </c>
-      <c r="I6" s="107">
+        <v>6.1643835616399583E-4</v>
+      </c>
+      <c r="I6" s="101">
         <f t="shared" si="1"/>
-        <v>6.9460410958925665E-4</v>
-      </c>
-      <c r="J6" s="108" t="b">
+        <v>7.1216164383600426E-4</v>
+      </c>
+      <c r="J6" s="102" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="111">
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="105">
         <f t="shared" ref="N6:N27" si="2">E6-SettlementDate</f>
         <v>0</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="105">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>93</v>
-      </c>
-      <c r="P6" s="111">
+        <v>94</v>
+      </c>
+      <c r="P6" s="105">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>93</v>
-      </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="122">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="116">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2883</v>
-      </c>
-      <c r="S6" s="122">
+        <v>2945.333333333333</v>
+      </c>
+      <c r="S6" s="116">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>46.5</v>
-      </c>
-      <c r="T6" s="122">
+        <v>47</v>
+      </c>
+      <c r="T6" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="214" t="str">
+      <c r="A7" s="182" t="str">
         <f>_xll.qlPeriodEquivalent(A6&amp;"M")</f>
         <v>3M</v>
       </c>
-      <c r="B7" s="56" t="str">
+      <c r="B7" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00375#0003</v>
+        <v>obj_0037b#0005</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="89" t="str">
         <f>PROPER(Currency&amp;FamilyName)&amp;A7&amp;"LastFixing_Quote"</f>
         <v>Jpylibor3MLastFixing_Quote</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
-      </c>
-      <c r="F7" s="97">
+        <v>41822</v>
+      </c>
+      <c r="F7" s="91">
         <f>F6</f>
-        <v>41906</v>
-      </c>
-      <c r="G7" s="98">
+        <v>41925</v>
+      </c>
+      <c r="G7" s="92">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.3357E-3</v>
-      </c>
-      <c r="H7" s="99">
+        <v>1.3286000000000001E-3</v>
+      </c>
+      <c r="H7" s="93" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>6.411915184267869E-4</v>
-      </c>
-      <c r="I7" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" s="94" t="e">
         <f t="shared" si="1"/>
-        <v>6.945084815732131E-4</v>
-      </c>
-      <c r="J7" s="108" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="102" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="111">
+        <v>0</v>
+      </c>
+      <c r="K7" s="109"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="105">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="O7" s="111">
+        <v>-9</v>
+      </c>
+      <c r="O7" s="105">
         <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="P7" s="111">
+        <v>94</v>
+      </c>
+      <c r="P7" s="105">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>90</v>
-      </c>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="122">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="116">
         <f t="shared" si="4"/>
-        <v>2793</v>
-      </c>
-      <c r="S7" s="122">
+        <v>2690.333333333333</v>
+      </c>
+      <c r="S7" s="116">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="T7" s="122">
+        <v>42.5</v>
+      </c>
+      <c r="T7" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="214" t="str">
+      <c r="A8" s="182" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;A7</f>
         <v>JpyLibor3M</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100" t="e">
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J8" s="108" t="b">
+      <c r="J8" s="102" t="b">
         <f>AND(E8&gt;E7,NOT(ISERROR(I8)))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="111">
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="105">
         <f t="shared" si="2"/>
-        <v>-41813</v>
-      </c>
-      <c r="O8" s="111">
+        <v>-41831</v>
+      </c>
+      <c r="O8" s="105">
         <f t="shared" si="3"/>
-        <v>-41813</v>
-      </c>
-      <c r="P8" s="111" t="e">
+        <v>-41831</v>
+      </c>
+      <c r="P8" s="105" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="122" t="e">
+      <c r="Q8" s="102"/>
+      <c r="R8" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="122">
+      <c r="S8" s="116">
         <f t="shared" si="5"/>
-        <v>-41813</v>
-      </c>
-      <c r="T8" s="122">
+        <v>-41831</v>
+      </c>
+      <c r="T8" s="116">
         <v>1</v>
       </c>
       <c r="AD8" s="1" t="s">
@@ -3159,98 +3134,98 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="29"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="100" t="e">
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J9" s="108" t="b">
+      <c r="J9" s="102" t="b">
         <f>AND(NOT(J7),NOT(ISERROR(I9)))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="93">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>7.6009942372359606E-7</v>
-      </c>
-      <c r="L9" s="99">
+        <v>4.4928813704964221E-6</v>
+      </c>
+      <c r="L9" s="93">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>6.2609953343808946E-4</v>
-      </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="111">
+        <v>0</v>
+      </c>
+      <c r="M9" s="103"/>
+      <c r="N9" s="105">
         <f t="shared" si="2"/>
-        <v>-41813</v>
-      </c>
-      <c r="O9" s="111">
+        <v>-41831</v>
+      </c>
+      <c r="O9" s="105">
         <f t="shared" si="3"/>
-        <v>-41813</v>
-      </c>
-      <c r="P9" s="111" t="e">
+        <v>-41831</v>
+      </c>
+      <c r="P9" s="105" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="122" t="e">
+      <c r="Q9" s="102"/>
+      <c r="R9" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="122">
+      <c r="S9" s="116">
         <f t="shared" si="5"/>
-        <v>-41813</v>
-      </c>
-      <c r="T9" s="122">
-        <v>1</v>
-      </c>
-      <c r="V9" s="82">
+        <v>-41831</v>
+      </c>
+      <c r="T9" s="116">
+        <v>1</v>
+      </c>
+      <c r="V9" s="76">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>2793</v>
-      </c>
-      <c r="W9" s="83">
+        <v>6634.333333333333</v>
+      </c>
+      <c r="W9" s="77">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>45</v>
-      </c>
-      <c r="X9" s="84">
+        <v>77</v>
+      </c>
+      <c r="X9" s="78">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
         <v>1</v>
       </c>
-      <c r="Z9" s="67">
+      <c r="Z9" s="61">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>-1.8634497894170552E-8</v>
-      </c>
-      <c r="AB9" s="67">
+        <v>1.180493316930795E-8</v>
+      </c>
+      <c r="AB9" s="61">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>6.945084815732131E-4</v>
-      </c>
-      <c r="AD9" s="73">
+        <v>6.91903731056449E-4</v>
+      </c>
+      <c r="AD9" s="67">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>4.813091609176957E-4</v>
-      </c>
-      <c r="AE9" s="74">
-        <v>-9.2014986646030074E-4</v>
-      </c>
-      <c r="AF9" s="75">
-        <v>4.3884070554260499E-4</v>
-      </c>
-      <c r="AH9" s="70">
+        <v>5.1254149614805128E-4</v>
+      </c>
+      <c r="AE9" s="68">
+        <v>-9.9354197714853019E-4</v>
+      </c>
+      <c r="AF9" s="69">
+        <v>4.8100048100047896E-4</v>
+      </c>
+      <c r="AH9" s="64">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>-5.4210108624275222E-19</v>
+        <v>7.589415207398531E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="214" t="str">
+      <c r="A10" s="182" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
         <v>N4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0000</v>
+        <v>obj_003c5#0004</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -3260,21 +3235,21 @@
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
         <v>JPYFUT3MN4_Quote</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="48">
         <f>_xll.qlIMMdate(A10)</f>
         <v>41836</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="49">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
         <v>41928</v>
       </c>
-      <c r="G10" s="50" t="e">
+      <c r="G10" s="45" t="e">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
         <v>#NUM!</v>
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>6.1555509893980291E-4</v>
+        <v>6.1470989784025945E-4</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3293,71 +3268,71 @@
         <v>#NUM!</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="112">
+      <c r="N10" s="106">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="O10" s="112">
+        <v>5</v>
+      </c>
+      <c r="O10" s="106">
         <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="P10" s="112">
+        <v>97</v>
+      </c>
+      <c r="P10" s="106">
         <f t="shared" si="6"/>
-        <v>138</v>
-      </c>
-      <c r="R10" s="91">
+        <v>102</v>
+      </c>
+      <c r="R10" s="85">
         <f t="shared" si="4"/>
-        <v>5466.3333333333339</v>
-      </c>
-      <c r="S10" s="91">
+        <v>3306.3333333333335</v>
+      </c>
+      <c r="S10" s="85">
         <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="T10" s="91">
-        <v>1</v>
-      </c>
-      <c r="V10" s="85">
-        <v>6481.333333333333</v>
-      </c>
-      <c r="W10" s="86">
-        <v>76</v>
-      </c>
-      <c r="X10" s="87">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="85">
+        <v>1</v>
+      </c>
+      <c r="V10" s="79">
+        <v>12246.333333333332</v>
+      </c>
+      <c r="W10" s="80">
+        <v>107.5</v>
+      </c>
+      <c r="X10" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="Z10" s="68">
-        <v>3.7373033549632822E-6</v>
-      </c>
-      <c r="AA10" s="58" t="s">
+      <c r="Z10" s="62">
+        <v>-1.8926404614297418E-6</v>
+      </c>
+      <c r="AA10" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AB10" s="68">
-        <v>7.4163464584407605E-4</v>
-      </c>
-      <c r="AD10" s="76">
-        <v>-8.9523503930691417E-2</v>
-      </c>
-      <c r="AE10" s="77">
-        <v>0.14173611045573362</v>
-      </c>
-      <c r="AF10" s="78">
-        <v>-5.2212606525042199E-2</v>
-      </c>
-      <c r="AH10" s="71">
-        <v>-8.6736173798840355E-19</v>
+      <c r="AB10" s="62">
+        <v>7.0042748192899811E-4</v>
+      </c>
+      <c r="AD10" s="70">
+        <v>-0.12709452053714301</v>
+      </c>
+      <c r="AE10" s="71">
+        <v>0.21559860904123107</v>
+      </c>
+      <c r="AF10" s="72">
+        <v>-8.8504088504088071E-2</v>
+      </c>
+      <c r="AH10" s="65">
+        <v>7.589415207398531E-19</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="214" t="str">
+      <c r="A11" s="182" t="str">
         <f>_xll.qlIMMNextCode(E10,IF(_xll.qlIMMIsIMMdate(E10,TRUE),FALSE,TRUE))</f>
         <v>U4</v>
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_003c6#0004</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -3367,21 +3342,21 @@
         <f>Currency&amp;"FUT3M"&amp;A11&amp;QuoteSuffix</f>
         <v>JPYFUT3MU4_Quote</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="48">
         <f>_xll.qlIMMdate(A11)</f>
         <v>41899</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="49">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"3M","mf")</f>
         <v>41990</v>
       </c>
-      <c r="G11" s="50" t="e">
+      <c r="G11" s="45" t="e">
         <f>1-_xll.qlQuoteValue($D11,AllTriggers)/100</f>
         <v>#NUM!</v>
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>5.9004131845595358E-4</v>
+        <v>5.9503417092060962E-4</v>
       </c>
       <c r="I11" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3400,64 +3375,64 @@
         <v>#NUM!</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="112">
+      <c r="N11" s="106">
         <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="O11" s="112">
+        <v>68</v>
+      </c>
+      <c r="O11" s="106">
         <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="P11" s="112">
+        <v>159</v>
+      </c>
+      <c r="P11" s="106">
         <f t="shared" si="6"/>
-        <v>263</v>
-      </c>
-      <c r="R11" s="91">
+        <v>227</v>
+      </c>
+      <c r="R11" s="85">
         <f t="shared" si="4"/>
-        <v>17982.333333333332</v>
-      </c>
-      <c r="S11" s="91">
+        <v>13572.333333333332</v>
+      </c>
+      <c r="S11" s="85">
         <f t="shared" si="5"/>
-        <v>131.5</v>
-      </c>
-      <c r="T11" s="91">
-        <v>1</v>
-      </c>
-      <c r="V11" s="88">
-        <v>12805.333333333334</v>
-      </c>
-      <c r="W11" s="89">
-        <v>110</v>
-      </c>
-      <c r="X11" s="90">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="69">
-        <v>5.7837598321828316E-4</v>
-      </c>
-      <c r="AB11" s="69">
-        <v>7.5085839523009331E-4</v>
-      </c>
-      <c r="AD11" s="79">
-        <v>3.6842611904379892</v>
-      </c>
-      <c r="AE11" s="80">
-        <v>-3.8081463934843924</v>
-      </c>
-      <c r="AF11" s="81">
-        <v>1.1238852030464028</v>
-      </c>
-      <c r="AH11" s="72">
-        <v>-1.0842021724855044E-18</v>
+        <v>113.5</v>
+      </c>
+      <c r="T11" s="85">
+        <v>1</v>
+      </c>
+      <c r="V11" s="82">
+        <v>20305.333333333336</v>
+      </c>
+      <c r="W11" s="83">
+        <v>140</v>
+      </c>
+      <c r="X11" s="84">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="63">
+        <v>7.593191849636278E-4</v>
+      </c>
+      <c r="AB11" s="63">
+        <v>7.3405262334398441E-4</v>
+      </c>
+      <c r="AD11" s="73">
+        <v>7.3859069487484561</v>
+      </c>
+      <c r="AE11" s="74">
+        <v>-10.009604239112393</v>
+      </c>
+      <c r="AF11" s="75">
+        <v>3.6236972903639377</v>
+      </c>
+      <c r="AH11" s="66">
+        <v>6.5052130349130266E-19</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="43">
+      <c r="A12" s="40">
         <v>1</v>
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0000</v>
+        <v>obj_003bb#0004</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -3467,25 +3442,25 @@
         <f>Currency&amp;A12&amp;"x"&amp;A12+3&amp;"F"&amp;QuoteSuffix</f>
         <v>JPY1x4F_Quote</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41843</v>
-      </c>
-      <c r="F12" s="54">
+        <v>41862</v>
+      </c>
+      <c r="F12" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41935</v>
-      </c>
-      <c r="G12" s="50">
+        <v>41954</v>
+      </c>
+      <c r="G12" s="45">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>6.0836535415592402E-4</v>
+        <v>6.0809626894355094E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>7.4163464584407605E-4</v>
+        <v>6.91903731056449E-4</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -3493,47 +3468,47 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>7.6009942372359606E-7</v>
+        <v>4.4928813704964221E-6</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>6.2609953343808946E-4</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="112">
+      <c r="N12" s="106">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O12" s="112">
+        <v>31</v>
+      </c>
+      <c r="O12" s="106">
         <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="P12" s="112">
+        <v>123</v>
+      </c>
+      <c r="P12" s="106">
         <f t="shared" si="6"/>
-        <v>152</v>
-      </c>
-      <c r="R12" s="91">
+        <v>154</v>
+      </c>
+      <c r="R12" s="85">
         <f t="shared" si="4"/>
-        <v>6481.333333333333</v>
-      </c>
-      <c r="S12" s="91">
+        <v>6634.333333333333</v>
+      </c>
+      <c r="S12" s="85">
         <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="T12" s="91">
-        <v>1</v>
-      </c>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
+        <v>77</v>
+      </c>
+      <c r="T12" s="85">
+        <v>1</v>
+      </c>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="43">
+      <c r="A13" s="40">
         <v>2</v>
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0000</v>
+        <v>obj_003bd#0004</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -3543,25 +3518,25 @@
         <f>Currency&amp;A13&amp;"x"&amp;A13+3&amp;"F"&amp;QuoteSuffix</f>
         <v>JPY2x5F_Quote</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41877</v>
-      </c>
-      <c r="F13" s="54">
+        <v>41893</v>
+      </c>
+      <c r="F13" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41969</v>
-      </c>
-      <c r="G13" s="50">
+        <v>41984</v>
+      </c>
+      <c r="G13" s="45">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>5.9914160476990676E-4</v>
+        <v>5.9957251807100183E-4</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>7.5085839523009331E-4</v>
+        <v>7.0042748192899811E-4</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -3569,47 +3544,47 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>4.3346087428369395E-7</v>
+        <v>3.2578022415302239E-6</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>6.5549700288768066E-4</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="112">
+      <c r="N13" s="106">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="O13" s="112">
+        <v>62</v>
+      </c>
+      <c r="O13" s="106">
         <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="P13" s="112">
+        <v>153</v>
+      </c>
+      <c r="P13" s="106">
         <f t="shared" si="6"/>
-        <v>220</v>
-      </c>
-      <c r="R13" s="91">
+        <v>215</v>
+      </c>
+      <c r="R13" s="85">
         <f t="shared" si="4"/>
-        <v>12805.333333333334</v>
-      </c>
-      <c r="S13" s="91">
+        <v>12246.333333333332</v>
+      </c>
+      <c r="S13" s="85">
         <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="T13" s="91">
-        <v>1</v>
-      </c>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
+        <v>107.5</v>
+      </c>
+      <c r="T13" s="85">
+        <v>1</v>
+      </c>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="43">
+      <c r="A14" s="40">
         <v>3</v>
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b0#0000</v>
+        <v>obj_003b8#0004</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -3619,25 +3594,25 @@
         <f>Currency&amp;A14&amp;"x"&amp;A14+3&amp;"F"&amp;QuoteSuffix</f>
         <v>JPY3x6F_Quote</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41906</v>
-      </c>
-      <c r="F14" s="54">
+        <v>41925</v>
+      </c>
+      <c r="F14" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>41997</v>
-      </c>
-      <c r="G14" s="50">
+        <v>42017</v>
+      </c>
+      <c r="G14" s="45">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>1.3500000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>5.9114099542170511E-4</v>
+        <v>5.6594737665601553E-4</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>7.5885900457829496E-4</v>
+        <v>7.3405262334398441E-4</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -3645,221 +3620,221 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>3.4412044387744313E-7</v>
+        <v>2.6216165119428013E-6</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>6.6353764162424317E-4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="112">
+      <c r="N14" s="106">
         <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="O14" s="112">
+        <v>94</v>
+      </c>
+      <c r="O14" s="106">
         <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="P14" s="112">
+        <v>186</v>
+      </c>
+      <c r="P14" s="106">
         <f t="shared" si="6"/>
-        <v>277</v>
-      </c>
-      <c r="R14" s="91">
+        <v>280</v>
+      </c>
+      <c r="R14" s="85">
         <f t="shared" si="4"/>
-        <v>19872.333333333332</v>
-      </c>
-      <c r="S14" s="91">
+        <v>20305.333333333336</v>
+      </c>
+      <c r="S14" s="85">
         <f t="shared" si="5"/>
-        <v>138.5</v>
-      </c>
-      <c r="T14" s="91">
-        <v>1</v>
-      </c>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
+        <v>140</v>
+      </c>
+      <c r="T14" s="85">
+        <v>1</v>
+      </c>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="43">
+      <c r="A15" s="40">
         <v>6</v>
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0000</v>
+        <v>obj_003bc#0004</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="102" t="str">
+      <c r="D15" s="96" t="str">
         <f>Currency&amp;A16&amp;"D_Quote"</f>
         <v>JPY6MD_Quote</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E15" s="97">
         <f>SettlementDate</f>
-        <v>41813</v>
-      </c>
-      <c r="F15" s="104">
+        <v>41831</v>
+      </c>
+      <c r="F15" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>41997</v>
-      </c>
-      <c r="G15" s="105">
+        <v>42016</v>
+      </c>
+      <c r="G15" s="99">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>1.7929E-3</v>
-      </c>
-      <c r="H15" s="106">
+        <v>1.7857000000000001E-3</v>
+      </c>
+      <c r="H15" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>6.1643835616411932E-4</v>
-      </c>
-      <c r="I15" s="107">
+        <v>5.9178082191784073E-4</v>
+      </c>
+      <c r="I15" s="101">
         <f t="shared" si="1"/>
-        <v>1.1764616438358806E-3</v>
-      </c>
-      <c r="J15" s="108" t="b">
+        <v>1.1939191780821594E-3</v>
+      </c>
+      <c r="J15" s="102" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="111">
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="105">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="111">
+      <c r="O15" s="105">
         <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="P15" s="111">
+        <v>185</v>
+      </c>
+      <c r="P15" s="105">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>184</v>
-      </c>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="122">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="116">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11285.333333333332</v>
-      </c>
-      <c r="S15" s="122">
+        <v>11408.333333333332</v>
+      </c>
+      <c r="S15" s="116">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>92</v>
-      </c>
-      <c r="T15" s="122">
+        <v>92.5</v>
+      </c>
+      <c r="T15" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="214" t="str">
+      <c r="A16" s="182" t="str">
         <f>_xll.qlPeriodEquivalent(A15&amp;"M")</f>
         <v>6M</v>
       </c>
-      <c r="B16" s="56" t="str">
+      <c r="B16" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00376#0003</v>
+        <v>obj_0037d#0005</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D16" s="95" t="str">
+      <c r="D16" s="89" t="str">
         <f>PROPER(Currency&amp;FamilyName)&amp;A16&amp;"LastFixing_Quote"</f>
         <v>Jpylibor6MLastFixing_Quote</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
-      </c>
-      <c r="F16" s="97">
+        <v>41822</v>
+      </c>
+      <c r="F16" s="91">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>41995</v>
-      </c>
-      <c r="G16" s="98">
+        <v>42009</v>
+      </c>
+      <c r="G16" s="92">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.7929E-3</v>
-      </c>
-      <c r="H16" s="99">
+        <v>1.7857000000000001E-3</v>
+      </c>
+      <c r="H16" s="93" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>6.1687926473666919E-4</v>
-      </c>
-      <c r="I16" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I16" s="94" t="e">
         <f t="shared" si="1"/>
-        <v>1.176020735263331E-3</v>
-      </c>
-      <c r="J16" s="108" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="J16" s="102" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="111">
+        <v>0</v>
+      </c>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="105">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="O16" s="111">
+        <v>-9</v>
+      </c>
+      <c r="O16" s="105">
         <f t="shared" si="3"/>
-        <v>182</v>
-      </c>
-      <c r="P16" s="111">
+        <v>178</v>
+      </c>
+      <c r="P16" s="105">
         <f t="shared" si="7"/>
-        <v>179</v>
-      </c>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="122">
+        <v>169</v>
+      </c>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="116">
         <f t="shared" si="8"/>
-        <v>10862.333333333334</v>
-      </c>
-      <c r="S16" s="122">
+        <v>10054.333333333332</v>
+      </c>
+      <c r="S16" s="116">
         <f t="shared" si="9"/>
-        <v>89.5</v>
-      </c>
-      <c r="T16" s="122">
+        <v>84.5</v>
+      </c>
+      <c r="T16" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="214" t="str">
+      <c r="A17" s="182" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;A16</f>
         <v>JpyLibor6M</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100" t="e">
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="108" t="b">
+      <c r="J17" s="102" t="b">
         <f>AND(E17&gt;E16,NOT(ISERROR(I17)))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="111">
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="105">
         <f t="shared" si="2"/>
-        <v>-41813</v>
-      </c>
-      <c r="O17" s="111">
+        <v>-41831</v>
+      </c>
+      <c r="O17" s="105">
         <f t="shared" si="3"/>
-        <v>-41813</v>
-      </c>
-      <c r="P17" s="111" t="e">
+        <v>-41831</v>
+      </c>
+      <c r="P17" s="105" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="122" t="e">
+      <c r="Q17" s="102"/>
+      <c r="R17" s="116" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="122">
+      <c r="S17" s="116">
         <f t="shared" si="9"/>
-        <v>-41813</v>
-      </c>
-      <c r="T17" s="122">
+        <v>-41831</v>
+      </c>
+      <c r="T17" s="116">
         <v>1</v>
       </c>
       <c r="AD17" s="1" t="s">
@@ -3870,97 +3845,97 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="29"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100" t="e">
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="108" t="b">
+      <c r="J18" s="102" t="b">
         <f>AND(NOT(J16),NOT(ISERROR(I18)))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="99">
+      <c r="K18" s="93">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>-3.5429550960406981E-7</v>
-      </c>
-      <c r="L18" s="99">
+        <v>3.833961433432469E-6</v>
+      </c>
+      <c r="L18" s="93">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2394396314824594E-3</v>
-      </c>
-      <c r="M18" s="109"/>
-      <c r="N18" s="111">
+        <v>0</v>
+      </c>
+      <c r="M18" s="103"/>
+      <c r="N18" s="105">
         <f t="shared" si="2"/>
-        <v>-41813</v>
-      </c>
-      <c r="O18" s="111">
+        <v>-41831</v>
+      </c>
+      <c r="O18" s="105">
         <f t="shared" si="3"/>
-        <v>-41813</v>
-      </c>
-      <c r="P18" s="111" t="e">
+        <v>-41831</v>
+      </c>
+      <c r="P18" s="105" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="122" t="e">
+      <c r="Q18" s="102"/>
+      <c r="R18" s="116" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="122">
+      <c r="S18" s="116">
         <f t="shared" si="9"/>
-        <v>-41813</v>
-      </c>
-      <c r="T18" s="122">
-        <v>1</v>
-      </c>
-      <c r="V18" s="82">
+        <v>-41831</v>
+      </c>
+      <c r="T18" s="116">
+        <v>1</v>
+      </c>
+      <c r="V18" s="76">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>10862.333333333334</v>
-      </c>
-      <c r="W18" s="83">
+        <v>18104.333333333332</v>
+      </c>
+      <c r="W18" s="77">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>89.5</v>
-      </c>
-      <c r="X18" s="84">
+        <v>123.5</v>
+      </c>
+      <c r="X18" s="78">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
         <v>1</v>
       </c>
-      <c r="Z18" s="67">
+      <c r="Z18" s="61">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>1.9774504360062751E-8</v>
-      </c>
-      <c r="AB18" s="67">
+        <v>1.7521251948597226E-8</v>
+      </c>
+      <c r="AB18" s="61">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.176020735263331E-3</v>
-      </c>
-      <c r="AD18" s="73">
+        <v>1.1756365155780428E-3</v>
+      </c>
+      <c r="AD18" s="67">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>4.5620437956204486E-4</v>
-      </c>
-      <c r="AE18" s="74">
-        <v>-8.9228209531988175E-4</v>
-      </c>
-      <c r="AF18" s="75">
-        <v>4.3607771575783705E-4</v>
-      </c>
-      <c r="AH18" s="70">
+        <v>5.1746648409387583E-4</v>
+      </c>
+      <c r="AE18" s="68">
+        <v>-9.7920580836225748E-4</v>
+      </c>
+      <c r="AF18" s="69">
+        <v>4.6173932426838164E-4</v>
+      </c>
+      <c r="AH18" s="64">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>3.2526065174565133E-18</v>
+        <v>-6.0715321659188248E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
+      <c r="A19" s="40">
         <v>1</v>
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0000</v>
+        <v>obj_003c1#0004</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -3970,13 +3945,13 @@
         <f t="shared" ref="D19:D24" si="10">Currency&amp;A19&amp;"x"&amp;A19+6&amp;"F"&amp;QuoteSuffix</f>
         <v>JPY1x7F_Quote</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41843</v>
-      </c>
-      <c r="F19" s="54">
+        <v>41862</v>
+      </c>
+      <c r="F19" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42027</v>
+        <v>42047</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
@@ -3984,11 +3959,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>6.1452486124291073E-4</v>
+        <v>5.7436348442195713E-4</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>1.1354751387570891E-3</v>
+        <v>1.1756365155780428E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -3996,77 +3971,77 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-6.2377840778833651E-7</v>
+        <v>4.7596620063888372E-6</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2876770702574432E-3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="112">
+      <c r="N19" s="106">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O19" s="112">
+        <v>31</v>
+      </c>
+      <c r="O19" s="106">
         <f t="shared" si="3"/>
-        <v>214</v>
-      </c>
-      <c r="P19" s="112">
+        <v>216</v>
+      </c>
+      <c r="P19" s="106">
         <f t="shared" si="7"/>
-        <v>244</v>
-      </c>
-      <c r="R19" s="91">
+        <v>247</v>
+      </c>
+      <c r="R19" s="85">
         <f t="shared" si="8"/>
-        <v>17705.333333333336</v>
-      </c>
-      <c r="S19" s="91">
+        <v>18104.333333333332</v>
+      </c>
+      <c r="S19" s="85">
         <f t="shared" si="9"/>
-        <v>122</v>
-      </c>
-      <c r="T19" s="91">
-        <v>1</v>
-      </c>
-      <c r="V19" s="85">
-        <v>17705.333333333336</v>
-      </c>
-      <c r="W19" s="86">
-        <v>122</v>
-      </c>
-      <c r="X19" s="87">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="58" t="s">
+        <v>123.5</v>
+      </c>
+      <c r="T19" s="85">
+        <v>1</v>
+      </c>
+      <c r="V19" s="79">
+        <v>25986.333333333332</v>
+      </c>
+      <c r="W19" s="80">
+        <v>152.5</v>
+      </c>
+      <c r="X19" s="81">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="Z19" s="68">
-        <v>-5.4111547643738352E-6</v>
-      </c>
-      <c r="AA19" s="58" t="s">
+      <c r="Z19" s="62">
+        <v>-6.2634170837818227E-6</v>
+      </c>
+      <c r="AA19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AB19" s="68">
-        <v>1.1354751387570891E-3</v>
-      </c>
-      <c r="AD19" s="76">
-        <v>-0.12682481751824842</v>
-      </c>
-      <c r="AE19" s="77">
-        <v>0.21864265779304473</v>
-      </c>
-      <c r="AF19" s="78">
-        <v>-9.1817840274796295E-2</v>
-      </c>
-      <c r="AH19" s="71">
-        <v>4.7704895589362195E-18</v>
+      <c r="AB19" s="62">
+        <v>1.1320999280072144E-3</v>
+      </c>
+      <c r="AD19" s="70">
+        <v>-0.1751265802630321</v>
+      </c>
+      <c r="AE19" s="71">
+        <v>0.30062414419004535</v>
+      </c>
+      <c r="AF19" s="72">
+        <v>-0.12549756392701328</v>
+      </c>
+      <c r="AH19" s="65">
+        <v>-7.1557343384043293E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="43">
+      <c r="A20" s="40">
         <v>2</v>
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b5#0000</v>
+        <v>obj_003b6#0004</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4076,25 +4051,25 @@
         <f t="shared" si="10"/>
         <v>JPY2x8F_Quote</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41877</v>
-      </c>
-      <c r="F20" s="54">
+        <v>41893</v>
+      </c>
+      <c r="F20" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42061</v>
+        <v>42074</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>6.1159550802031043E-4</v>
+        <v>5.6790007199278552E-4</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>1.1384044919796894E-3</v>
+        <v>1.1320999280072144E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4102,71 +4077,71 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-2.8282889686948553E-7</v>
+        <v>3.7118030426466046E-6</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2266471078029688E-3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="112">
+      <c r="N20" s="106">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="O20" s="112">
+        <v>62</v>
+      </c>
+      <c r="O20" s="106">
         <f t="shared" si="3"/>
-        <v>248</v>
-      </c>
-      <c r="P20" s="112">
+        <v>243</v>
+      </c>
+      <c r="P20" s="106">
         <f t="shared" si="7"/>
-        <v>312</v>
-      </c>
-      <c r="R20" s="91">
+        <v>305</v>
+      </c>
+      <c r="R20" s="85">
         <f t="shared" si="8"/>
-        <v>27157.333333333332</v>
-      </c>
-      <c r="S20" s="91">
+        <v>25986.333333333332</v>
+      </c>
+      <c r="S20" s="85">
         <f t="shared" si="9"/>
-        <v>156</v>
-      </c>
-      <c r="T20" s="91">
-        <v>1</v>
-      </c>
-      <c r="V20" s="88">
-        <v>27157.333333333332</v>
-      </c>
-      <c r="W20" s="89">
-        <v>156</v>
-      </c>
-      <c r="X20" s="90">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="69">
-        <v>1.4455218288143374E-3</v>
-      </c>
-      <c r="AB20" s="69">
-        <v>1.1384044919796894E-3</v>
-      </c>
-      <c r="AD20" s="79">
-        <v>7.3953771289537835</v>
-      </c>
-      <c r="AE20" s="80">
-        <v>-9.8762523257478403</v>
-      </c>
-      <c r="AF20" s="81">
-        <v>3.4808751967940568</v>
-      </c>
-      <c r="AH20" s="72">
-        <v>7.1557343384043293E-18</v>
+        <v>152.5</v>
+      </c>
+      <c r="T20" s="85">
+        <v>1</v>
+      </c>
+      <c r="V20" s="82">
+        <v>36985.333333333336</v>
+      </c>
+      <c r="W20" s="83">
+        <v>185</v>
+      </c>
+      <c r="X20" s="84">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="63">
+        <v>1.6319579397303715E-3</v>
+      </c>
+      <c r="AB20" s="63">
+        <v>1.1212551229669273E-3</v>
+      </c>
+      <c r="AD20" s="73">
+        <v>13.259746945620904</v>
+      </c>
+      <c r="AE20" s="74">
+        <v>-19.399213450944174</v>
+      </c>
+      <c r="AF20" s="75">
+        <v>7.1394665053232691</v>
+      </c>
+      <c r="AH20" s="66">
+        <v>-8.2399365108898337E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="43">
+      <c r="A21" s="40">
         <v>3</v>
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_003bf#0004</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4176,25 +4151,25 @@
         <f t="shared" si="10"/>
         <v>JPY3x9F_Quote</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41906</v>
-      </c>
-      <c r="F21" s="54">
+        <v>41925</v>
+      </c>
+      <c r="F21" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42087</v>
+        <v>42107</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>6.0335975887769379E-4</v>
+        <v>5.7874487703307264E-4</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>1.1466402411223061E-3</v>
+        <v>1.1212551229669273E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4202,48 +4177,48 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.5627922415438741E-7</v>
+        <v>3.0304192512619656E-6</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2039947163869664E-3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5"/>
-      <c r="N21" s="112">
+      <c r="N21" s="106">
         <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="O21" s="112">
+        <v>94</v>
+      </c>
+      <c r="O21" s="106">
         <f t="shared" si="3"/>
-        <v>274</v>
-      </c>
-      <c r="P21" s="112">
+        <v>276</v>
+      </c>
+      <c r="P21" s="106">
         <f t="shared" si="7"/>
-        <v>367</v>
-      </c>
-      <c r="R21" s="91">
+        <v>370</v>
+      </c>
+      <c r="R21" s="85">
         <f t="shared" si="8"/>
-        <v>36402.333333333328</v>
-      </c>
-      <c r="S21" s="91">
+        <v>36985.333333333336</v>
+      </c>
+      <c r="S21" s="85">
         <f t="shared" si="9"/>
-        <v>183.5</v>
-      </c>
-      <c r="T21" s="91">
-        <v>1</v>
-      </c>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="91"/>
-      <c r="AB21" s="57"/>
+        <v>185</v>
+      </c>
+      <c r="T21" s="85">
+        <v>1</v>
+      </c>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="AB21" s="51"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="43">
+      <c r="A22" s="40">
         <v>4</v>
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b4#0000</v>
+        <v>obj_003c3#0004</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4253,25 +4228,25 @@
         <f t="shared" si="10"/>
         <v>JPY4x10F_Quote</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41935</v>
-      </c>
-      <c r="F22" s="54">
+        <v>41954</v>
+      </c>
+      <c r="F22" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42117</v>
+        <v>42135</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>1.7499999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>6.0191629010415834E-4</v>
+        <v>5.7741973150164552E-4</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>1.1480837098958416E-3</v>
+        <v>1.1225802684983544E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4279,48 +4254,48 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.1310536586028087E-7</v>
+        <v>2.6289936030406427E-6</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.1962665957523213E-3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="112">
+      <c r="N22" s="106">
         <f t="shared" si="2"/>
-        <v>122</v>
-      </c>
-      <c r="O22" s="112">
+        <v>123</v>
+      </c>
+      <c r="O22" s="106">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="P22" s="112">
+      <c r="P22" s="106">
         <f t="shared" si="7"/>
-        <v>426</v>
-      </c>
-      <c r="R22" s="91">
+        <v>427</v>
+      </c>
+      <c r="R22" s="85">
         <f t="shared" si="8"/>
-        <v>48129.333333333328</v>
-      </c>
-      <c r="S22" s="91">
+        <v>48312.333333333336</v>
+      </c>
+      <c r="S22" s="85">
         <f t="shared" si="9"/>
-        <v>213</v>
-      </c>
-      <c r="T22" s="91">
-        <v>1</v>
-      </c>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="AB22" s="57"/>
+        <v>213.5</v>
+      </c>
+      <c r="T22" s="85">
+        <v>1</v>
+      </c>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="AB22" s="51"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" s="43">
+      <c r="A23" s="40">
         <v>5</v>
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bb#0000</v>
+        <v>obj_003c2#0004</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4330,25 +4305,25 @@
         <f t="shared" si="10"/>
         <v>JPY5x11F_Quote</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41968</v>
-      </c>
-      <c r="F23" s="54">
+        <v>41984</v>
+      </c>
+      <c r="F23" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42150</v>
+        <v>42166</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.8141415780020263E-4</v>
+        <v>5.7274148229014867E-4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>1.1185858421997974E-3</v>
+        <v>1.0772585177098513E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4356,48 +4331,48 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.8349806090585809E-7</v>
+        <v>2.2074969625201873E-6</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.2088668881654796E-3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5"/>
-      <c r="N23" s="112">
+      <c r="N23" s="106">
         <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="O23" s="112">
+        <v>153</v>
+      </c>
+      <c r="O23" s="106">
         <f t="shared" si="3"/>
-        <v>337</v>
-      </c>
-      <c r="P23" s="112">
+        <v>335</v>
+      </c>
+      <c r="P23" s="106">
         <f t="shared" si="7"/>
-        <v>492</v>
-      </c>
-      <c r="R23" s="91">
+        <v>488</v>
+      </c>
+      <c r="R23" s="85">
         <f t="shared" si="8"/>
-        <v>63276.333333333328</v>
-      </c>
-      <c r="S23" s="91">
+        <v>62296.333333333328</v>
+      </c>
+      <c r="S23" s="85">
         <f t="shared" si="9"/>
-        <v>246</v>
-      </c>
-      <c r="T23" s="91">
-        <v>1</v>
-      </c>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="AB23" s="57"/>
+        <v>244</v>
+      </c>
+      <c r="T23" s="85">
+        <v>1</v>
+      </c>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="AB23" s="51"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="43">
+      <c r="A24" s="40">
         <v>6</v>
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0000</v>
+        <v>obj_003c0#0004</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -4407,25 +4382,25 @@
         <f t="shared" si="10"/>
         <v>JPY6x12F_Quote</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>41997</v>
-      </c>
-      <c r="F24" s="54">
+        <v>42016</v>
+      </c>
+      <c r="F24" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42179</v>
+        <v>42198</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>5.6641552536965643E-4</v>
+        <v>5.9159993821038216E-4</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>1.1335844746303435E-3</v>
+        <v>1.0584000617896178E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4433,187 +4408,187 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>-1.1438345184093665E-7</v>
+        <v>1.9173914162855397E-6</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>1.1964953731428585E-3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="112">
+      <c r="N24" s="106">
         <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="O24" s="112">
+        <v>185</v>
+      </c>
+      <c r="O24" s="106">
         <f t="shared" si="3"/>
-        <v>366</v>
-      </c>
-      <c r="P24" s="112">
+        <v>367</v>
+      </c>
+      <c r="P24" s="106">
         <f t="shared" si="7"/>
-        <v>550</v>
-      </c>
-      <c r="R24" s="91">
+        <v>552</v>
+      </c>
+      <c r="R24" s="85">
         <f t="shared" si="8"/>
-        <v>78385.333333333328</v>
-      </c>
-      <c r="S24" s="91">
+        <v>78936.333333333328</v>
+      </c>
+      <c r="S24" s="85">
         <f t="shared" si="9"/>
-        <v>275</v>
-      </c>
-      <c r="T24" s="91">
+        <v>276</v>
+      </c>
+      <c r="T24" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="43">
+      <c r="A25" s="40">
         <v>12</v>
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0000</v>
+        <v>obj_003b9#0004</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="102" t="str">
+      <c r="D25" s="96" t="str">
         <f>Currency&amp;A26&amp;"D_Quote"</f>
         <v>JPY1YD_Quote</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="97">
         <f>SettlementDate</f>
-        <v>41813</v>
-      </c>
-      <c r="F25" s="104">
+        <v>41831</v>
+      </c>
+      <c r="F25" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42178</v>
-      </c>
-      <c r="G25" s="105">
+        <v>42198</v>
+      </c>
+      <c r="G25" s="99">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>3.2713999999999998E-3</v>
-      </c>
-      <c r="H25" s="106">
+        <v>3.2714000000000003E-3</v>
+      </c>
+      <c r="H25" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>5.9178082191774315E-4</v>
-      </c>
-      <c r="I25" s="107">
+        <v>5.9178082191767799E-4</v>
+      </c>
+      <c r="I25" s="101">
         <f t="shared" si="1"/>
-        <v>2.6796191780822567E-3</v>
-      </c>
-      <c r="J25" s="108" t="b">
+        <v>2.6796191780823222E-3</v>
+      </c>
+      <c r="J25" s="102" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="111">
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="105">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="111">
+      <c r="O25" s="105">
         <f t="shared" si="3"/>
-        <v>365</v>
-      </c>
-      <c r="P25" s="111">
+        <v>367</v>
+      </c>
+      <c r="P25" s="105">
         <f t="shared" si="7"/>
-        <v>365</v>
-      </c>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="122">
+        <v>367</v>
+      </c>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="116">
         <f t="shared" si="8"/>
-        <v>44408.333333333328</v>
-      </c>
-      <c r="S25" s="122">
+        <v>44896.333333333336</v>
+      </c>
+      <c r="S25" s="116">
         <f t="shared" si="9"/>
-        <v>182.5</v>
-      </c>
-      <c r="T25" s="122">
+        <v>183.5</v>
+      </c>
+      <c r="T25" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="214" t="str">
+      <c r="A26" s="182" t="str">
         <f>_xll.qlPeriodEquivalent(A25&amp;"M")</f>
         <v>1Y</v>
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_00377#0003</v>
+        <v>obj_0037e#0005</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="95" t="str">
+      <c r="D26" s="89" t="str">
         <f>PROPER(Currency&amp;FamilyName)&amp;A26&amp;"LastFixing_Quote"</f>
         <v>Jpylibor1YLastFixing_Quote</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41810</v>
-      </c>
-      <c r="F26" s="97">
+        <v>41822</v>
+      </c>
+      <c r="F26" s="91">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42177</v>
-      </c>
-      <c r="G26" s="98">
+        <v>42187</v>
+      </c>
+      <c r="G26" s="92">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>3.2713999999999998E-3</v>
-      </c>
-      <c r="H26" s="99">
+        <v>3.2714000000000003E-3</v>
+      </c>
+      <c r="H26" s="93" t="e">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>5.9234485102970414E-4</v>
-      </c>
-      <c r="I26" s="100">
+        <v>#NUM!</v>
+      </c>
+      <c r="I26" s="94" t="e">
         <f t="shared" si="1"/>
-        <v>2.6790551489702958E-3</v>
-      </c>
-      <c r="J26" s="108" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="J26" s="102" t="b">
         <f>NOT(ISERROR(I26))</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="110" t="e">
+        <v>0</v>
+      </c>
+      <c r="K26" s="104" t="e">
         <f>K27</f>
         <v>#NUM!</v>
       </c>
-      <c r="L26" s="99" t="e">
+      <c r="L26" s="93" t="e">
         <f>L27</f>
         <v>#NUM!</v>
       </c>
-      <c r="M26" s="109"/>
-      <c r="N26" s="111">
+      <c r="M26" s="103"/>
+      <c r="N26" s="105">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="O26" s="111">
+        <v>-9</v>
+      </c>
+      <c r="O26" s="105">
         <f t="shared" si="3"/>
-        <v>364</v>
-      </c>
-      <c r="P26" s="111">
+        <v>356</v>
+      </c>
+      <c r="P26" s="105">
         <f t="shared" si="7"/>
-        <v>361</v>
-      </c>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="122">
+        <v>347</v>
+      </c>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="116">
         <f t="shared" si="8"/>
-        <v>43804.333333333336</v>
-      </c>
-      <c r="S26" s="122">
+        <v>41204.333333333328</v>
+      </c>
+      <c r="S26" s="116">
         <f t="shared" si="9"/>
-        <v>180.5</v>
-      </c>
-      <c r="T26" s="122">
+        <v>173.5</v>
+      </c>
+      <c r="T26" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="214" t="str">
+      <c r="A27" s="182" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;A26</f>
         <v>JpyLibor1Y</v>
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b1#0000</v>
+        <v>obj_003ba#0004</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -4623,13 +4598,13 @@
         <f>Currency&amp;"12x24F"&amp;QuoteSuffix</f>
         <v>JPY12x24F_Quote</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42178</v>
-      </c>
-      <c r="F27" s="54">
+        <v>42198</v>
+      </c>
+      <c r="F27" s="49">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42544</v>
+        <v>42564</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -4637,7 +4612,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>6.9031073381651306E-4</v>
+        <v>5.9201941546689054E-4</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4656,60 +4631,60 @@
         <v>#NUM!</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="112">
+      <c r="N27" s="106">
         <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="O27" s="112">
+        <v>367</v>
+      </c>
+      <c r="O27" s="106">
         <f t="shared" si="3"/>
-        <v>731</v>
-      </c>
-      <c r="P27" s="112">
+        <v>733</v>
+      </c>
+      <c r="P27" s="106">
         <f t="shared" si="7"/>
-        <v>1096</v>
-      </c>
-      <c r="R27" s="91">
+        <v>1100</v>
+      </c>
+      <c r="R27" s="85">
         <f t="shared" si="8"/>
-        <v>311467</v>
-      </c>
-      <c r="S27" s="91">
+        <v>313663</v>
+      </c>
+      <c r="S27" s="85">
         <f t="shared" si="9"/>
-        <v>548</v>
-      </c>
-      <c r="T27" s="91">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="230"/>
+        <v>550</v>
+      </c>
+      <c r="T27" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="189"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-      <c r="O28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="AA28" s="61"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+      <c r="O28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="AA28" s="55"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="52" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4720,139 +4695,139 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="58" t="b">
+      <c r="G30" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="58" t="b">
+      <c r="H30" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="I30" s="58" t="b">
+      <c r="I30" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="58" t="b">
+      <c r="J30" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="M30" s="94" t="s">
+      <c r="M30" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="O30" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="P30" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" s="116" t="s">
+      <c r="O30" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="117">
+      <c r="V30" s="111">
         <f>Z9</f>
-        <v>-1.8634497894170552E-8</v>
+        <v>1.180493316930795E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>1.9774504360062751E-8</v>
+        <v>1.7521251948597226E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="40" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>3.2293248781909746E-4</v>
+        <v>0</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>6.945084815732131E-4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>1.176020735263331E-3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>2.6790551489702958E-3</v>
-      </c>
-      <c r="M31" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="57" t="e">
+      <c r="N31" s="51" t="e">
         <f>K4</f>
         <v>#NUM!</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="51">
         <f>K9</f>
-        <v>7.6009942372359606E-7</v>
-      </c>
-      <c r="P31" s="57">
+        <v>4.4928813704964221E-6</v>
+      </c>
+      <c r="P31" s="51">
         <f>AVERAGE(K19:K21)</f>
-        <v>-3.5429550960406981E-7</v>
-      </c>
-      <c r="Q31" s="57" t="e">
+        <v>3.833961433432469E-6</v>
+      </c>
+      <c r="Q31" s="51" t="e">
         <f>K26</f>
         <v>#NUM!</v>
       </c>
-      <c r="U31" s="118" t="s">
+      <c r="U31" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="V31" s="63">
+      <c r="V31" s="57">
         <f>Z10</f>
-        <v>3.7373033549632822E-6</v>
+        <v>-1.8926404614297418E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-5.4111547643738352E-6</v>
+        <v>-6.2634170837818227E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>3.2293248781909746E-4</v>
+        <v>0</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>6.945084815732131E-4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>1.176020735263331E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>2.6790551489702958E-3</v>
-      </c>
-      <c r="M32" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="N32" s="57" t="e">
+      <c r="N32" s="51" t="e">
         <f>L4</f>
         <v>#NUM!</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="51">
         <f>L9</f>
-        <v>6.2609953343808946E-4</v>
-      </c>
-      <c r="P32" s="57">
+        <v>0</v>
+      </c>
+      <c r="P32" s="51">
         <f>L18</f>
-        <v>1.2394396314824594E-3</v>
-      </c>
-      <c r="Q32" s="57" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="51" t="e">
         <f>L26</f>
         <v>#NUM!</v>
       </c>
-      <c r="U32" s="118" t="s">
+      <c r="U32" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="V32" s="63">
+      <c r="V32" s="57">
         <f>Z11</f>
-        <v>5.7837598321828316E-4</v>
+        <v>7.593191849636278E-4</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.4455218288143374E-3</v>
+        <v>1.6319579397303715E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -4899,7 +4874,7 @@
       <c r="Q33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="119"/>
+      <c r="U33" s="113"/>
       <c r="V33" s="18" t="s">
         <v>3</v>
       </c>
@@ -4908,9 +4883,9 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="123" t="str">
+      <c r="B34" s="117" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0039f#0000</v>
+        <v>obj_003b4#0004</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -4919,13 +4894,13 @@
       <c r="D34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="46">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41814</v>
+        <v>41834</v>
       </c>
       <c r="G34" s="32" t="e">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
@@ -4933,35 +4908,35 @@
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>1.2239209599711983E-3</v>
+        <v>1.3918180089480055E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>2.0865053795083356E-3</v>
+        <v>2.2579177477375588E-3</v>
       </c>
       <c r="J34" s="32" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="K34" s="124">
+      <c r="K34" s="118">
         <f>F34-$E$6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>6.4368253657473172E-4</v>
-      </c>
-      <c r="N34" s="62" t="e">
+        <v>6.3530236987701424E-4</v>
+      </c>
+      <c r="N34" s="56" t="e">
         <f>N$31*$K34+N$32</f>
         <v>#NUM!</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="57">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>5.8023842339646671E-4</v>
-      </c>
-      <c r="P34" s="63">
+        <v>7.5651563907099114E-4</v>
+      </c>
+      <c r="P34" s="57">
         <f t="shared" si="15"/>
-        <v>1.4428228429336038E-3</v>
+        <v>1.6226153778605445E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -4970,19 +4945,19 @@
       <c r="U34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="V34" s="63">
+      <c r="V34" s="57">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>5.8023842339646671E-4</v>
+        <v>7.5651563907099114E-4</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.4428228429336038E-3</v>
+        <v>1.6226153778605445E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a3#0000</v>
+        <v>obj_003a6#0004</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -4991,13 +4966,13 @@
       <c r="D35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41820</v>
+        <v>41838</v>
       </c>
       <c r="G35" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5005,35 +4980,35 @@
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>1.2348347180697816E-3</v>
+        <v>1.3881901271340698E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>2.0705883072849752E-3</v>
+        <v>2.2456245302626431E-3</v>
       </c>
       <c r="J35" s="32" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="K35" s="125">
+      <c r="K35" s="119">
         <f t="shared" ref="K35:K49" si="18">F35-$E$6</f>
         <v>7</v>
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>6.4368253657473172E-4</v>
-      </c>
-      <c r="N35" s="62" t="e">
+        <v>6.3530236987701424E-4</v>
+      </c>
+      <c r="N35" s="56" t="e">
         <f>N$31*$K35+N$32</f>
         <v>#NUM!</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="57">
         <f t="shared" si="15"/>
-        <v>5.9115218149504985E-4</v>
-      </c>
-      <c r="P35" s="63">
+        <v>7.5288775725705572E-4</v>
+      </c>
+      <c r="P35" s="57">
         <f t="shared" si="15"/>
-        <v>1.4269057707102435E-3</v>
+        <v>1.6103221603856288E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5042,19 +5017,19 @@
       <c r="U35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V35" s="63">
+      <c r="V35" s="57">
         <f t="shared" si="17"/>
-        <v>5.9115218149504985E-4</v>
+        <v>7.5288775725705572E-4</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.4269057707102435E-3</v>
+        <v>1.6103221603856288E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a1#0000</v>
+        <v>obj_003b0#0004</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5063,13 +5038,13 @@
       <c r="D36" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41827</v>
+        <v>41845</v>
       </c>
       <c r="G36" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5077,35 +5052,35 @@
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>1.24647333777857E-3</v>
+        <v>1.383182720530005E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>2.0520893646865409E-3</v>
+        <v>2.2255995051005308E-3</v>
       </c>
       <c r="J36" s="32" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="K36" s="125">
+      <c r="K36" s="119">
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>6.4315368493796294E-4</v>
-      </c>
-      <c r="N36" s="62" t="e">
+        <v>6.363407631626572E-4</v>
+      </c>
+      <c r="N36" s="56" t="e">
         <f>N$31*$K36+N$32</f>
         <v>#NUM!</v>
       </c>
-      <c r="O36" s="63">
+      <c r="O36" s="57">
         <f t="shared" si="15"/>
-        <v>6.0331965284060704E-4</v>
-      </c>
-      <c r="P36" s="63">
+        <v>7.4684195736734777E-4</v>
+      </c>
+      <c r="P36" s="57">
         <f t="shared" si="15"/>
-        <v>1.408935679748578E-3</v>
+        <v>1.5892587419378738E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5114,19 +5089,19 @@
       <c r="U36" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V36" s="63">
+      <c r="V36" s="57">
         <f t="shared" si="17"/>
-        <v>6.0331965284060704E-4</v>
+        <v>7.4684195736734777E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.408935679748578E-3</v>
+        <v>1.5892587419378738E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ae#0000</v>
+        <v>obj_003af#0004</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5135,13 +5110,13 @@
       <c r="D37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="47">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41834</v>
+        <v>41852</v>
       </c>
       <c r="G37" s="35" t="e">
         <f t="shared" si="14"/>
@@ -5149,35 +5124,35 @@
       </c>
       <c r="H37" s="35">
         <f>$L37+IF(H$30,H$32,O37)</f>
-        <v>1.2572771442179265E-3</v>
+        <v>1.3790973656119376E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>2.0340103028923134E-3</v>
+        <v>2.2066832647045401E-3</v>
       </c>
       <c r="J37" s="35" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="K37" s="126">
+      <c r="K37" s="120">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>6.4239874696297202E-4</v>
-      </c>
-      <c r="N37" s="92" t="e">
+        <v>6.3791558031743383E-4</v>
+      </c>
+      <c r="N37" s="86" t="e">
         <f>N$31*$K37+N$32</f>
         <v>#NUM!</v>
       </c>
-      <c r="O37" s="93">
+      <c r="O37" s="87">
         <f t="shared" si="15"/>
-        <v>6.1487839725495454E-4</v>
-      </c>
-      <c r="P37" s="93">
+        <v>7.4118178529450373E-4</v>
+      </c>
+      <c r="P37" s="87">
         <f t="shared" si="15"/>
-        <v>1.3916115559293415E-3</v>
+        <v>1.5687676843871062E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -5186,19 +5161,19 @@
       <c r="U37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="V37" s="93">
+      <c r="V37" s="87">
         <f t="shared" si="17"/>
-        <v>6.1487839725495454E-4</v>
+        <v>7.4118178529450373E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.3916115559293415E-3</v>
+        <v>1.5687676843871062E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0000</v>
+        <v>obj_003b3#0004</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5207,13 +5182,13 @@
       <c r="D38" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41843</v>
+        <v>41862</v>
       </c>
       <c r="G38" s="34" t="e">
         <f t="shared" si="14"/>
@@ -5221,35 +5196,35 @@
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>1.2699410745837633E-3</v>
+        <v>1.374860661811533E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>2.0113827490660309E-3</v>
+        <v>2.1815835063807854E-3</v>
       </c>
       <c r="J38" s="34" t="e">
         <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
-      <c r="K38" s="124">
+      <c r="K38" s="118">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>6.4109589040928217E-4</v>
-      </c>
-      <c r="N38" s="62" t="e">
+        <v>6.4109589040816468E-4</v>
+      </c>
+      <c r="N38" s="56" t="e">
         <f>N$31*$K38+N$32</f>
         <v>#NUM!</v>
       </c>
-      <c r="O38" s="63">
+      <c r="O38" s="57">
         <f t="shared" si="15"/>
-        <v>6.2884518417448128E-4</v>
-      </c>
-      <c r="P38" s="63">
+        <v>7.3376477140336841E-4</v>
+      </c>
+      <c r="P38" s="57">
         <f t="shared" si="15"/>
-        <v>1.3702868586567486E-3</v>
+        <v>1.5404876159726205E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5258,19 +5233,19 @@
       <c r="U38" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="V38" s="63">
+      <c r="V38" s="57">
         <f t="shared" si="17"/>
-        <v>6.2884518417448128E-4</v>
+        <v>7.3376477140336841E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.3702868586567486E-3</v>
+        <v>1.5404876159726205E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0000</v>
+        <v>obj_003b5#0004</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -5279,43 +5254,43 @@
       <c r="D39" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41877</v>
-      </c>
-      <c r="G39" s="47"/>
+        <v>41893</v>
+      </c>
+      <c r="G39" s="44"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>1.3139131153212654E-3</v>
+        <v>1.3568692754376559E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>1.9407493921763119E-3</v>
+        <v>2.1013384647073476E-3</v>
       </c>
       <c r="J39" s="32" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="K39" s="125">
+      <c r="K39" s="119">
         <f t="shared" si="18"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>6.4138572586899811E-4</v>
-      </c>
-      <c r="N39" s="47"/>
-      <c r="O39" s="63">
+        <v>6.4109589041074335E-4</v>
+      </c>
+      <c r="N39" s="44"/>
+      <c r="O39" s="57">
         <f t="shared" si="15"/>
-        <v>6.7252738945226733E-4</v>
-      </c>
-      <c r="P39" s="63">
+        <v>7.1577338502691243E-4</v>
+      </c>
+      <c r="P39" s="57">
         <f t="shared" si="15"/>
-        <v>1.2993636663073138E-3</v>
+        <v>1.4602425742966042E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5324,19 +5299,19 @@
       <c r="U39" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V39" s="63">
+      <c r="V39" s="57">
         <f t="shared" si="17"/>
-        <v>6.7252738945226733E-4</v>
+        <v>7.1577338502691243E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.2993636663073138E-3</v>
+        <v>1.4602425742966042E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0000</v>
+        <v>obj_003b1#0004</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -5345,43 +5320,43 @@
       <c r="D40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41906</v>
-      </c>
-      <c r="G40" s="45"/>
+        <v>41925</v>
+      </c>
+      <c r="G40" s="42"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>1.3395332222059255E-3</v>
+        <v>1.3215729026017607E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>1.8920089187517584E-3</v>
+        <v>2.0056216203625564E-3</v>
       </c>
       <c r="J40" s="32" t="e">
         <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
-      <c r="K40" s="125">
+      <c r="K40" s="119">
         <f t="shared" si="18"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>6.4109589041074335E-4</v>
-      </c>
-      <c r="N40" s="45"/>
-      <c r="O40" s="63">
+        <v>6.1643835616399583E-4</v>
+      </c>
+      <c r="N40" s="42"/>
+      <c r="O40" s="57">
         <f t="shared" si="15"/>
-        <v>6.9843733179518214E-4</v>
-      </c>
-      <c r="P40" s="63">
+        <v>7.0513454643776499E-4</v>
+      </c>
+      <c r="P40" s="57">
         <f t="shared" si="15"/>
-        <v>1.2509130283410151E-3</v>
+        <v>1.3891832641985608E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5390,19 +5365,19 @@
       <c r="U40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="V40" s="63">
+      <c r="V40" s="57">
         <f t="shared" si="17"/>
-        <v>6.9843733179518214E-4</v>
+        <v>7.0513454643776499E-4</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.2509130283410151E-3</v>
+        <v>1.3891832641985608E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ac#0000</v>
+        <v>obj_003a9#0004</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -5411,37 +5386,37 @@
       <c r="D41" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41935</v>
+        <v>41954</v>
       </c>
       <c r="G41" s="36"/>
-      <c r="H41" s="46"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>1.8299876519833986E-3</v>
+        <v>1.9515558188183488E-3</v>
       </c>
       <c r="J41" s="32" t="e">
         <f t="shared" si="20"/>
         <v>#NUM!</v>
       </c>
-      <c r="K41" s="125">
+      <c r="K41" s="119">
         <f t="shared" si="18"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>6.1643835616414058E-4</v>
+        <v>6.1643835616378366E-4</v>
       </c>
       <c r="N41" s="36"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="63">
+      <c r="O41" s="43"/>
+      <c r="P41" s="57">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.2135492958192582E-3</v>
+        <v>1.3351174626545653E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5450,16 +5425,16 @@
       <c r="U41" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="V41" s="63"/>
+      <c r="V41" s="57"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.2135492958192582E-3</v>
+        <v>1.3351174626545653E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0000</v>
+        <v>obj_003ae#0004</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -5468,37 +5443,37 @@
       <c r="D42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="53">
+      <c r="E42" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41968</v>
+        <v>41984</v>
       </c>
       <c r="G42" s="36"/>
-      <c r="H42" s="44"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>1.8009565131562784E-3</v>
+        <v>1.9059632179406166E-3</v>
       </c>
       <c r="J42" s="32" t="e">
         <f t="shared" si="20"/>
         <v>#NUM!</v>
       </c>
-      <c r="K42" s="125">
+      <c r="K42" s="119">
         <f t="shared" si="18"/>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>6.1643835616407715E-4</v>
+        <v>6.1643835616465048E-4</v>
       </c>
       <c r="N42" s="36"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="63">
+      <c r="O42" s="41"/>
+      <c r="P42" s="57">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.1845181569922012E-3</v>
+        <v>1.2895248617759661E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5507,16 +5482,16 @@
       <c r="U42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V42" s="63"/>
+      <c r="V42" s="57"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.1845181569922012E-3</v>
+        <v>1.2895248617759661E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0000</v>
+        <v>obj_003a8#0004</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -5525,55 +5500,55 @@
       <c r="D43" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>41997</v>
+        <v>42016</v>
       </c>
       <c r="G43" s="36"/>
-      <c r="H43" s="44"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>1.7872958198608254E-3</v>
+        <v>1.844260964045307E-3</v>
       </c>
       <c r="J43" s="32" t="e">
         <f t="shared" si="20"/>
         <v>#NUM!</v>
       </c>
-      <c r="K43" s="125">
+      <c r="K43" s="119">
         <f t="shared" si="18"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>6.1643835616411932E-4</v>
+        <v>5.9178082191784073E-4</v>
       </c>
       <c r="N43" s="36"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="63">
+      <c r="O43" s="41"/>
+      <c r="P43" s="57">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.170857463696706E-3</v>
+        <v>1.2524801421274663E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
       </c>
-      <c r="U43" s="120" t="s">
+      <c r="U43" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="V43" s="93"/>
+      <c r="V43" s="87"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.170857463696706E-3</v>
+        <v>1.2524801421274663E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ad#0000</v>
+        <v>obj_003ad#0004</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -5582,32 +5557,32 @@
       <c r="D44" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42027</v>
+        <v>42046</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="46"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="32" t="e">
         <f t="shared" ref="J44:J49" si="21">$L44+IF(J$30,J$32,Q44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K44" s="125">
+      <c r="K44" s="119">
         <f t="shared" si="18"/>
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>6.1827800020814675E-4</v>
+        <v>5.8396797779118148E-4</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
-      <c r="P44" s="46"/>
+      <c r="P44" s="43"/>
       <c r="Q44" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
@@ -5616,7 +5591,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ab#0000</v>
+        <v>obj_003aa#0004</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -5625,32 +5600,32 @@
       <c r="D45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42058</v>
+        <v>42074</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="44"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="K45" s="125">
+      <c r="K45" s="119">
         <f t="shared" si="18"/>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>6.1942906235800321E-4</v>
+        <v>5.8662225254729934E-4</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
-      <c r="P45" s="44"/>
+      <c r="P45" s="41"/>
       <c r="Q45" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
@@ -5659,7 +5634,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a5#0000</v>
+        <v>obj_003ac#0004</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -5668,32 +5643,32 @@
       <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42086</v>
+        <v>42107</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="44"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="K46" s="125">
+      <c r="K46" s="119">
         <f t="shared" si="18"/>
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>6.1643835616445499E-4</v>
+        <v>5.9178082191797159E-4</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
-      <c r="P46" s="44"/>
+      <c r="P46" s="41"/>
       <c r="Q46" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
@@ -5702,7 +5677,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a0#0000</v>
+        <v>obj_003ab#0004</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -5711,32 +5686,32 @@
       <c r="D47" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42117</v>
+        <v>42135</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="44"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="K47" s="125">
+      <c r="K47" s="119">
         <f t="shared" si="18"/>
         <v>304</v>
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>6.0781950473081335E-4</v>
+        <v>5.9327928078857289E-4</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
-      <c r="P47" s="44"/>
+      <c r="P47" s="41"/>
       <c r="Q47" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
@@ -5745,7 +5720,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a4#0000</v>
+        <v>obj_003a7#0004</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -5754,32 +5729,32 @@
       <c r="D48" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42150</v>
+        <v>42166</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="44"/>
+      <c r="I48" s="41"/>
       <c r="J48" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="K48" s="125">
+      <c r="K48" s="119">
         <f t="shared" si="18"/>
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>5.9760654901021184E-4</v>
+        <v>5.927800819310996E-4</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
-      <c r="P48" s="44"/>
+      <c r="P48" s="41"/>
       <c r="Q48" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
@@ -5788,7 +5763,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a2#0000</v>
+        <v>obj_003b2#0004</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -5797,32 +5772,32 @@
       <c r="D49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="48">
         <f t="shared" si="13"/>
-        <v>41813</v>
+        <v>41831</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42178</v>
+        <v>42198</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="44"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="32" t="e">
         <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="K49" s="125">
+      <c r="K49" s="119">
         <f t="shared" si="18"/>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>5.9178082191774315E-4</v>
-      </c>
-      <c r="N49" s="64"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="66"/>
+        <v>5.9178082191767799E-4</v>
+      </c>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="60"/>
       <c r="Q49" s="14" t="e">
         <f t="shared" si="16"/>
         <v>#NUM!</v>
@@ -5880,1626 +5855,1626 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="175"/>
-      <c r="B1" s="176"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="178"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="162"/>
+      <c r="A1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="146"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="182" t="str">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;".xml"</f>
         <v>JPY_015_SyntheticQuotes.xml</v>
       </c>
-      <c r="D2" s="183" t="str">
+      <c r="D2" s="151" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D7,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="174" t="s">
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="157"/>
-      <c r="L2" s="174" t="s">
+      <c r="K2" s="125"/>
+      <c r="L2" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="M2" s="125"/>
+      <c r="N2" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="O2" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="215">
+      <c r="P2" s="183">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="201">
-        <v>1</v>
-      </c>
-      <c r="B3" s="191" t="s">
+      <c r="A3" s="169">
+        <v>1</v>
+      </c>
+      <c r="B3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="186" t="str">
+      <c r="C3" s="154" t="str">
         <f t="shared" ref="C3:C7" si="0">Currency&amp;$B3&amp;"_SYNTH"&amp;Tenor1M&amp;QuoteSuffix</f>
         <v>JPYSND_SYNTH1M_Quote</v>
       </c>
-      <c r="D3" s="187" t="str">
+      <c r="D3" s="155" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1M_Quote#0000</v>
-      </c>
-      <c r="E3" s="188" t="str">
+        <v>JPYSND_SYNTH1M_Quote#0004</v>
+      </c>
+      <c r="E3" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
         <v/>
       </c>
-      <c r="F3" s="185"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="163" t="s">
+      <c r="F3" s="153"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="218" t="e">
+      <c r="J3" s="186" t="e">
         <f>ROUND(Depo_Calculation!$G34,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="169" t="e">
+      <c r="K3" s="124"/>
+      <c r="L3" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="121"/>
+      <c r="N3" s="137" t="e">
         <f t="array" ref="N3:N40">QuoteLive</f>
         <v>#NUM!</v>
       </c>
-      <c r="O3" s="170" t="e">
+      <c r="O3" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND(N3,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P3" s="190"/>
+      <c r="P3" s="158"/>
     </row>
     <row r="4" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="201" t="str">
+      <c r="A4" s="169" t="str">
         <f>_xll.qlPeriodEquivalent(Months1M&amp;"M")</f>
         <v>1M</v>
       </c>
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="186" t="str">
+      <c r="C4" s="154" t="str">
         <f t="shared" si="0"/>
         <v>JPYSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="D4" s="187" t="str">
+      <c r="D4" s="155" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1M_Quote#0000</v>
-      </c>
-      <c r="E4" s="188" t="str">
+        <v>JPYSWD_SYNTH1M_Quote#0004</v>
+      </c>
+      <c r="E4" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
         <v/>
       </c>
-      <c r="F4" s="185"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="163" t="s">
+      <c r="F4" s="153"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="218" t="e">
+      <c r="J4" s="186" t="e">
         <f>ROUND(Depo_Calculation!$G35,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O4" s="170" t="e">
+      <c r="K4" s="124"/>
+      <c r="L4" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M4" s="121"/>
+      <c r="N4" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND(N4,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P4" s="190"/>
+      <c r="P4" s="158"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="202"/>
-      <c r="B5" s="191" t="s">
+      <c r="A5" s="170"/>
+      <c r="B5" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="186" t="str">
+      <c r="C5" s="154" t="str">
         <f t="shared" si="0"/>
         <v>JPY2WD_SYNTH1M_Quote</v>
       </c>
-      <c r="D5" s="187" t="str">
+      <c r="D5" s="155" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1M_Quote#0000</v>
-      </c>
-      <c r="E5" s="188" t="str">
+        <v>JPY2WD_SYNTH1M_Quote#0004</v>
+      </c>
+      <c r="E5" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
         <v/>
       </c>
-      <c r="F5" s="185"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="163" t="s">
+      <c r="F5" s="153"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="218" t="e">
+      <c r="J5" s="186" t="e">
         <f>ROUND(Depo_Calculation!$G36,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K5" s="156"/>
-      <c r="L5" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M5" s="140"/>
-      <c r="N5" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O5" s="170" t="e">
+      <c r="K5" s="124"/>
+      <c r="L5" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" s="121"/>
+      <c r="N5" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND(N5,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P5" s="190"/>
+      <c r="P5" s="158"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="202"/>
-      <c r="B6" s="191" t="s">
+      <c r="A6" s="170"/>
+      <c r="B6" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="186" t="str">
+      <c r="C6" s="154" t="str">
         <f t="shared" si="0"/>
         <v>JPY3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="D6" s="187" t="str">
+      <c r="D6" s="155" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1M_Quote#0000</v>
-      </c>
-      <c r="E6" s="188" t="str">
+        <v>JPY3WD_SYNTH1M_Quote#0004</v>
+      </c>
+      <c r="E6" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
-      <c r="F6" s="185"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="164" t="s">
+      <c r="F6" s="153"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="220" t="e">
+      <c r="J6" s="188" t="e">
         <f>Depo_Calculation!$G37</f>
         <v>#NUM!</v>
       </c>
-      <c r="K6" s="156"/>
-      <c r="L6" s="167" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" s="140"/>
-      <c r="N6" s="171" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O6" s="170" t="e">
+      <c r="K6" s="124"/>
+      <c r="L6" s="135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M6" s="121"/>
+      <c r="N6" s="139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND(N6,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P6" s="190"/>
+      <c r="P6" s="158"/>
     </row>
     <row r="7" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="192" t="s">
+      <c r="A7" s="170"/>
+      <c r="B7" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="193" t="str">
+      <c r="C7" s="161" t="str">
         <f t="shared" si="0"/>
         <v>JPY1MD_SYNTH1M_Quote</v>
       </c>
-      <c r="D7" s="193" t="str">
+      <c r="D7" s="161" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1M_Quote#0000</v>
-      </c>
-      <c r="E7" s="194" t="str">
+        <v>JPY1MD_SYNTH1M_Quote#0004</v>
+      </c>
+      <c r="E7" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
         <v/>
       </c>
-      <c r="F7" s="185"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="165" t="s">
+      <c r="F7" s="153"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="219" t="e">
+      <c r="J7" s="187" t="e">
         <f>ROUND(Depo_Calculation!$G38,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="168" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="172" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O7" s="240" t="e">
+      <c r="K7" s="124"/>
+      <c r="L7" s="136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M7" s="121"/>
+      <c r="N7" s="140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="199" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND(N7,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P7" s="190"/>
+      <c r="P7" s="158"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="203">
+      <c r="A8" s="171">
         <v>3</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="186" t="str">
+      <c r="C8" s="154" t="str">
         <f t="shared" ref="C8:C14" si="1">Currency&amp;$B8&amp;"_SYNTH"&amp;Tenor3M&amp;QuoteSuffix</f>
         <v>JPYSND_SYNTH3M_Quote</v>
       </c>
-      <c r="D8" s="196" t="str">
+      <c r="D8" s="164" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E8" s="197" t="str">
+        <v>JPYSND_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
         <v/>
       </c>
-      <c r="F8" s="198"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="163" t="s">
+      <c r="F8" s="166"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="217">
+      <c r="J8" s="185">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
+        <v>1.392E-3</v>
+      </c>
+      <c r="K8" s="124"/>
+      <c r="L8" s="134">
         <v>1.224E-3</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="166">
-        <v>1.224E-3</v>
-      </c>
-      <c r="M8" s="140"/>
-      <c r="N8" s="169">
-        <v>1.224E-3</v>
-      </c>
-      <c r="O8" s="239">
+      <c r="M8" s="121"/>
+      <c r="N8" s="137">
+        <v>1.392E-3</v>
+      </c>
+      <c r="O8" s="198" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="216">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="184">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="201" t="str">
+      <c r="A9" s="169" t="str">
         <f>_xll.qlPeriodEquivalent(Months3M&amp;"M")</f>
         <v>3M</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="186" t="str">
+      <c r="C9" s="154" t="str">
         <f t="shared" si="1"/>
         <v>JPYSWD_SYNTH3M_Quote</v>
       </c>
-      <c r="D9" s="186" t="str">
+      <c r="D9" s="154" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E9" s="199" t="str">
+        <v>JPYSWD_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E9" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
         <v/>
       </c>
-      <c r="F9" s="198"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="163" t="s">
+      <c r="F9" s="166"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="218">
+      <c r="J9" s="186">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
+        <v>1.3879999999999999E-3</v>
+      </c>
+      <c r="K9" s="124"/>
+      <c r="L9" s="134">
         <v>1.235E-3</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="166">
-        <v>1.235E-3</v>
-      </c>
-      <c r="M9" s="140"/>
-      <c r="N9" s="169">
-        <v>1.235E-3</v>
-      </c>
-      <c r="O9" s="170">
+      <c r="M9" s="121"/>
+      <c r="N9" s="137">
+        <v>1.3879999999999999E-3</v>
+      </c>
+      <c r="O9" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="158"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="204"/>
-      <c r="B10" s="200" t="s">
+      <c r="A10" s="172"/>
+      <c r="B10" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="186" t="str">
+      <c r="C10" s="154" t="str">
         <f t="shared" si="1"/>
         <v>JPY2WD_SYNTH3M_Quote</v>
       </c>
-      <c r="D10" s="186" t="str">
+      <c r="D10" s="154" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E10" s="199" t="str">
+        <v>JPY2WD_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E10" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
         <v/>
       </c>
-      <c r="F10" s="198"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="163" t="s">
+      <c r="F10" s="166"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="218">
+      <c r="J10" s="186">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
+        <v>1.3829999999999999E-3</v>
+      </c>
+      <c r="K10" s="124"/>
+      <c r="L10" s="134">
         <v>1.2459999999999999E-3</v>
       </c>
-      <c r="K10" s="156"/>
-      <c r="L10" s="166">
-        <v>1.2459999999999999E-3</v>
-      </c>
-      <c r="M10" s="140"/>
-      <c r="N10" s="169">
-        <v>1.2459999999999999E-3</v>
-      </c>
-      <c r="O10" s="170">
+      <c r="M10" s="121"/>
+      <c r="N10" s="137">
+        <v>1.3829999999999999E-3</v>
+      </c>
+      <c r="O10" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="158"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="205"/>
-      <c r="B11" s="200" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="186" t="str">
+      <c r="C11" s="154" t="str">
         <f t="shared" si="1"/>
         <v>JPY3WD_SYNTH3M_Quote</v>
       </c>
-      <c r="D11" s="186" t="str">
+      <c r="D11" s="154" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E11" s="199" t="str">
+        <v>JPY3WD_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E11" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
         <v/>
       </c>
-      <c r="F11" s="198"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="163" t="s">
+      <c r="F11" s="166"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="218">
+      <c r="J11" s="186">
         <f>ROUND(Depo_Calculation!$H37,6)</f>
+        <v>1.379E-3</v>
+      </c>
+      <c r="K11" s="124"/>
+      <c r="L11" s="134">
         <v>1.2570000000000001E-3</v>
       </c>
-      <c r="K11" s="156"/>
-      <c r="L11" s="166">
-        <v>1.2570000000000001E-3</v>
-      </c>
-      <c r="M11" s="140"/>
-      <c r="N11" s="169">
-        <v>1.2570000000000001E-3</v>
-      </c>
-      <c r="O11" s="170">
+      <c r="M11" s="121"/>
+      <c r="N11" s="137">
+        <v>1.379E-3</v>
+      </c>
+      <c r="O11" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="158"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="205"/>
-      <c r="B12" s="200" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="186" t="str">
+      <c r="C12" s="154" t="str">
         <f t="shared" si="1"/>
         <v>JPY1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D12" s="186" t="str">
+      <c r="D12" s="154" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E12" s="199" t="str">
+        <v>JPY1MD_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E12" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
         <v/>
       </c>
-      <c r="F12" s="198"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="163" t="s">
+      <c r="F12" s="166"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="218">
+      <c r="J12" s="186">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
+        <v>1.3749999999999999E-3</v>
+      </c>
+      <c r="K12" s="124"/>
+      <c r="L12" s="134">
         <v>1.2700000000000001E-3</v>
       </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="166">
-        <v>1.2700000000000001E-3</v>
-      </c>
-      <c r="M12" s="140"/>
-      <c r="N12" s="169">
-        <v>1.2700000000000001E-3</v>
-      </c>
-      <c r="O12" s="170">
+      <c r="M12" s="121"/>
+      <c r="N12" s="137">
+        <v>1.3749999999999999E-3</v>
+      </c>
+      <c r="O12" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="158"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="205"/>
-      <c r="B13" s="200" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="186" t="str">
+      <c r="C13" s="154" t="str">
         <f t="shared" si="1"/>
         <v>JPY2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D13" s="186" t="str">
+      <c r="D13" s="154" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E13" s="199" t="str">
+        <v>JPY2MD_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E13" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
         <v/>
       </c>
-      <c r="F13" s="198"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="163" t="s">
+      <c r="F13" s="166"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="218">
+      <c r="J13" s="186">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
+        <v>1.3569999999999999E-3</v>
+      </c>
+      <c r="K13" s="124"/>
+      <c r="L13" s="134">
         <v>1.3140000000000001E-3</v>
       </c>
-      <c r="K13" s="156"/>
-      <c r="L13" s="166">
-        <v>1.3140000000000001E-3</v>
-      </c>
-      <c r="M13" s="140"/>
-      <c r="N13" s="169">
-        <v>1.3140000000000001E-3</v>
-      </c>
-      <c r="O13" s="170">
+      <c r="M13" s="121"/>
+      <c r="N13" s="137">
+        <v>1.3569999999999999E-3</v>
+      </c>
+      <c r="O13" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="158"/>
     </row>
     <row r="14" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="207"/>
-      <c r="B14" s="192" t="s">
+      <c r="A14" s="175"/>
+      <c r="B14" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="193" t="str">
+      <c r="C14" s="161" t="str">
         <f t="shared" si="1"/>
         <v>JPY3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D14" s="193" t="str">
+      <c r="D14" s="161" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH3M_Quote#0000</v>
-      </c>
-      <c r="E14" s="208" t="str">
+        <v>JPY3MD_SYNTH3M_Quote#0004</v>
+      </c>
+      <c r="E14" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
         <v/>
       </c>
-      <c r="F14" s="198"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="165" t="s">
+      <c r="F14" s="166"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="219">
+      <c r="J14" s="187">
         <f>ROUND(Depo_Calculation!$H40,6)</f>
+        <v>1.322E-3</v>
+      </c>
+      <c r="K14" s="174"/>
+      <c r="L14" s="136">
         <v>1.34E-3</v>
       </c>
-      <c r="K14" s="206"/>
-      <c r="L14" s="168">
-        <v>1.34E-3</v>
-      </c>
-      <c r="M14" s="206"/>
-      <c r="N14" s="172">
-        <v>1.34E-3</v>
-      </c>
-      <c r="O14" s="173">
+      <c r="M14" s="174"/>
+      <c r="N14" s="140">
+        <v>1.322E-3</v>
+      </c>
+      <c r="O14" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="206"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="174"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="203">
+      <c r="A15" s="171">
         <v>6</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="186" t="str">
+      <c r="C15" s="154" t="str">
         <f t="shared" ref="C15:C24" si="2">Currency&amp;$B15&amp;"_SYNTH"&amp;Tenor6M&amp;QuoteSuffix</f>
         <v>JPYSND_SYNTH6M_Quote</v>
       </c>
-      <c r="D15" s="196" t="str">
+      <c r="D15" s="164" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E15" s="197" t="str">
+        <v>JPYSND_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
         <v/>
       </c>
-      <c r="F15" s="198"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="163" t="s">
+      <c r="F15" s="166"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="217">
+      <c r="J15" s="185">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
+        <v>2.258E-3</v>
+      </c>
+      <c r="K15" s="124"/>
+      <c r="L15" s="134">
         <v>2.0869999999999999E-3</v>
       </c>
-      <c r="K15" s="156"/>
-      <c r="L15" s="166">
-        <v>2.0869999999999999E-3</v>
-      </c>
-      <c r="M15" s="140"/>
-      <c r="N15" s="169">
-        <v>2.0869999999999999E-3</v>
-      </c>
-      <c r="O15" s="170">
+      <c r="M15" s="121"/>
+      <c r="N15" s="137">
+        <v>2.258E-3</v>
+      </c>
+      <c r="O15" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="190">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="158">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="201" t="str">
+      <c r="A16" s="169" t="str">
         <f>_xll.qlPeriodEquivalent(Months6M&amp;"M")</f>
         <v>6M</v>
       </c>
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="186" t="str">
+      <c r="C16" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPYSWD_SYNTH6M_Quote</v>
       </c>
-      <c r="D16" s="186" t="str">
+      <c r="D16" s="154" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E16" s="199" t="str">
+        <v>JPYSWD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E16" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
         <v/>
       </c>
-      <c r="F16" s="198"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="163" t="s">
+      <c r="F16" s="166"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="218">
+      <c r="J16" s="186">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
+        <v>2.2460000000000002E-3</v>
+      </c>
+      <c r="K16" s="124"/>
+      <c r="L16" s="134">
         <v>2.0709999999999999E-3</v>
       </c>
-      <c r="K16" s="156"/>
-      <c r="L16" s="166">
-        <v>2.0709999999999999E-3</v>
-      </c>
-      <c r="M16" s="140"/>
-      <c r="N16" s="169">
-        <v>2.0709999999999999E-3</v>
-      </c>
-      <c r="O16" s="170">
+      <c r="M16" s="121"/>
+      <c r="N16" s="137">
+        <v>2.2460000000000002E-3</v>
+      </c>
+      <c r="O16" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="158"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="204"/>
-      <c r="B17" s="200" t="s">
+      <c r="A17" s="172"/>
+      <c r="B17" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="186" t="str">
+      <c r="C17" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY2WD_SYNTH6M_Quote</v>
       </c>
-      <c r="D17" s="186" t="str">
+      <c r="D17" s="154" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E17" s="199" t="str">
+        <v>JPY2WD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E17" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
         <v/>
       </c>
-      <c r="F17" s="198"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="163" t="s">
+      <c r="F17" s="166"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="218">
+      <c r="J17" s="186">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
+        <v>2.2260000000000001E-3</v>
+      </c>
+      <c r="K17" s="124"/>
+      <c r="L17" s="134">
         <v>2.052E-3</v>
       </c>
-      <c r="K17" s="156"/>
-      <c r="L17" s="166">
-        <v>2.052E-3</v>
-      </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="169">
-        <v>2.052E-3</v>
-      </c>
-      <c r="O17" s="170">
+      <c r="M17" s="121"/>
+      <c r="N17" s="137">
+        <v>2.2260000000000001E-3</v>
+      </c>
+      <c r="O17" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="158"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="205"/>
-      <c r="B18" s="200" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="186" t="str">
+      <c r="C18" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY3WD_SYNTH6M_Quote</v>
       </c>
-      <c r="D18" s="186" t="str">
+      <c r="D18" s="154" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E18" s="199" t="str">
+        <v>JPY3WD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E18" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
         <v/>
       </c>
-      <c r="F18" s="198"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="163" t="s">
+      <c r="F18" s="166"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="218">
+      <c r="J18" s="186">
         <f>ROUND(Depo_Calculation!$I37,6)</f>
+        <v>2.2070000000000002E-3</v>
+      </c>
+      <c r="K18" s="124"/>
+      <c r="L18" s="134">
         <v>2.0339999999999998E-3</v>
       </c>
-      <c r="K18" s="156"/>
-      <c r="L18" s="166">
-        <v>2.0339999999999998E-3</v>
-      </c>
-      <c r="M18" s="140"/>
-      <c r="N18" s="169">
-        <v>2.0339999999999998E-3</v>
-      </c>
-      <c r="O18" s="170">
+      <c r="M18" s="121"/>
+      <c r="N18" s="137">
+        <v>2.2070000000000002E-3</v>
+      </c>
+      <c r="O18" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="158"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="205"/>
-      <c r="B19" s="200" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="186" t="str">
+      <c r="C19" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY1MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D19" s="186" t="str">
+      <c r="D19" s="154" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E19" s="199" t="str">
+        <v>JPY1MD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E19" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
         <v/>
       </c>
-      <c r="F19" s="198"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="163" t="s">
+      <c r="F19" s="166"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="218">
+      <c r="J19" s="186">
         <f>ROUND(Depo_Calculation!$I38,6)</f>
+        <v>2.1819999999999999E-3</v>
+      </c>
+      <c r="K19" s="124"/>
+      <c r="L19" s="134">
         <v>2.0110000000000002E-3</v>
       </c>
-      <c r="K19" s="156"/>
-      <c r="L19" s="166">
-        <v>2.0110000000000002E-3</v>
-      </c>
-      <c r="M19" s="140"/>
-      <c r="N19" s="169">
-        <v>2.0110000000000002E-3</v>
-      </c>
-      <c r="O19" s="170">
+      <c r="M19" s="121"/>
+      <c r="N19" s="137">
+        <v>2.1819999999999999E-3</v>
+      </c>
+      <c r="O19" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="158"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="205"/>
-      <c r="B20" s="200" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="186" t="str">
+      <c r="C20" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY2MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D20" s="186" t="str">
+      <c r="D20" s="154" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E20" s="199" t="str">
+        <v>JPY2MD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E20" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
         <v/>
       </c>
-      <c r="F20" s="198"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="163" t="s">
+      <c r="F20" s="166"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="218">
+      <c r="J20" s="186">
         <f>ROUND(Depo_Calculation!$I39,6)</f>
+        <v>2.101E-3</v>
+      </c>
+      <c r="K20" s="124"/>
+      <c r="L20" s="134">
         <v>1.941E-3</v>
       </c>
-      <c r="K20" s="156"/>
-      <c r="L20" s="166">
-        <v>1.941E-3</v>
-      </c>
-      <c r="M20" s="140"/>
-      <c r="N20" s="169">
-        <v>1.941E-3</v>
-      </c>
-      <c r="O20" s="170">
+      <c r="M20" s="121"/>
+      <c r="N20" s="137">
+        <v>2.101E-3</v>
+      </c>
+      <c r="O20" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="158"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="205"/>
-      <c r="B21" s="200" t="s">
+      <c r="A21" s="173"/>
+      <c r="B21" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="186" t="str">
+      <c r="C21" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY3MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D21" s="186" t="str">
+      <c r="D21" s="154" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E21" s="199" t="str">
+        <v>JPY3MD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E21" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
         <v/>
       </c>
-      <c r="F21" s="198"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="163" t="s">
+      <c r="F21" s="166"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="218">
+      <c r="J21" s="186">
         <f>ROUND(Depo_Calculation!$I40,6)</f>
+        <v>2.006E-3</v>
+      </c>
+      <c r="K21" s="124"/>
+      <c r="L21" s="134">
         <v>1.892E-3</v>
       </c>
-      <c r="K21" s="156"/>
-      <c r="L21" s="166">
-        <v>1.892E-3</v>
-      </c>
-      <c r="M21" s="140"/>
-      <c r="N21" s="169">
-        <v>1.892E-3</v>
-      </c>
-      <c r="O21" s="170">
+      <c r="M21" s="121"/>
+      <c r="N21" s="137">
+        <v>2.006E-3</v>
+      </c>
+      <c r="O21" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="158"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="205"/>
-      <c r="B22" s="200" t="s">
+      <c r="A22" s="173"/>
+      <c r="B22" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="186" t="str">
+      <c r="C22" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY4MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D22" s="186" t="str">
+      <c r="D22" s="154" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E22" s="199" t="str">
+        <v>JPY4MD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E22" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
         <v/>
       </c>
-      <c r="F22" s="198"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="163" t="s">
+      <c r="F22" s="166"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="218">
+      <c r="J22" s="186">
         <f>ROUND(Depo_Calculation!$I41,6)</f>
+        <v>1.952E-3</v>
+      </c>
+      <c r="K22" s="124"/>
+      <c r="L22" s="134">
         <v>1.83E-3</v>
       </c>
-      <c r="K22" s="156"/>
-      <c r="L22" s="166">
-        <v>1.83E-3</v>
-      </c>
-      <c r="M22" s="140"/>
-      <c r="N22" s="169">
-        <v>1.83E-3</v>
-      </c>
-      <c r="O22" s="170">
+      <c r="M22" s="121"/>
+      <c r="N22" s="137">
+        <v>1.952E-3</v>
+      </c>
+      <c r="O22" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="158"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="205"/>
-      <c r="B23" s="200" t="s">
+      <c r="A23" s="173"/>
+      <c r="B23" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="186" t="str">
+      <c r="C23" s="154" t="str">
         <f t="shared" si="2"/>
         <v>JPY5MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D23" s="186" t="str">
+      <c r="D23" s="154" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E23" s="199" t="str">
+        <v>JPY5MD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E23" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
         <v/>
       </c>
-      <c r="F23" s="198"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="163" t="s">
+      <c r="F23" s="166"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="218">
+      <c r="J23" s="186">
         <f>ROUND(Depo_Calculation!$I42,6)</f>
+        <v>1.9059999999999999E-3</v>
+      </c>
+      <c r="K23" s="124"/>
+      <c r="L23" s="134">
         <v>1.8010000000000001E-3</v>
       </c>
-      <c r="K23" s="156"/>
-      <c r="L23" s="166">
-        <v>1.8010000000000001E-3</v>
-      </c>
-      <c r="M23" s="140"/>
-      <c r="N23" s="169">
-        <v>1.8010000000000001E-3</v>
-      </c>
-      <c r="O23" s="170">
+      <c r="M23" s="121"/>
+      <c r="N23" s="137">
+        <v>1.9059999999999999E-3</v>
+      </c>
+      <c r="O23" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="190"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="158"/>
     </row>
     <row r="24" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="207"/>
-      <c r="B24" s="192" t="s">
+      <c r="A24" s="175"/>
+      <c r="B24" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="193" t="str">
+      <c r="C24" s="161" t="str">
         <f t="shared" si="2"/>
         <v>JPY6MD_SYNTH6M_Quote</v>
       </c>
-      <c r="D24" s="186" t="str">
+      <c r="D24" s="154" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH6M_Quote#0000</v>
-      </c>
-      <c r="E24" s="208" t="str">
+        <v>JPY6MD_SYNTH6M_Quote#0004</v>
+      </c>
+      <c r="E24" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
         <v/>
       </c>
-      <c r="F24" s="209"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="165" t="s">
+      <c r="F24" s="177"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="219">
+      <c r="J24" s="187">
         <f>ROUND(Depo_Calculation!$I43,6)</f>
+        <v>1.8439999999999999E-3</v>
+      </c>
+      <c r="K24" s="179"/>
+      <c r="L24" s="136">
         <v>1.787E-3</v>
       </c>
-      <c r="K24" s="211"/>
-      <c r="L24" s="168">
-        <v>1.787E-3</v>
-      </c>
-      <c r="M24" s="212"/>
-      <c r="N24" s="172">
-        <v>1.787E-3</v>
-      </c>
-      <c r="O24" s="170">
+      <c r="M24" s="180"/>
+      <c r="N24" s="140">
+        <v>1.8439999999999999E-3</v>
+      </c>
+      <c r="O24" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="213"/>
-    </row>
-    <row r="25" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="203">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="181"/>
+    </row>
+    <row r="25" spans="1:16" s="190" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="171">
         <v>12</v>
       </c>
-      <c r="B25" s="195" t="s">
+      <c r="B25" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="186" t="str">
+      <c r="C25" s="154" t="str">
         <f t="shared" ref="C25:C40" si="3">Currency&amp;$B25&amp;"_SYNTH"&amp;Tenor12M&amp;QuoteSuffix</f>
         <v>JPYSND_SYNTH1Y_Quote</v>
       </c>
-      <c r="D25" s="196" t="str">
+      <c r="D25" s="164" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E25" s="197" t="str">
+        <v>JPYSND_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
         <v/>
       </c>
-      <c r="F25" s="234"/>
+      <c r="F25" s="193"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="236" t="s">
+      <c r="H25" s="194"/>
+      <c r="I25" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="217" t="e">
+      <c r="J25" s="185" t="e">
         <f>ROUND(Depo_Calculation!$J34,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K25" s="156"/>
-      <c r="L25" s="237" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M25" s="140"/>
-      <c r="N25" s="238" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O25" s="239" t="e">
+      <c r="K25" s="124"/>
+      <c r="L25" s="196" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M25" s="121"/>
+      <c r="N25" s="197" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O25" s="198" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND(N25,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P25" s="190">
+      <c r="P25" s="158">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="201" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="190" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="169" t="str">
         <f>_xll.qlPeriodEquivalent(Months12M&amp;"M")</f>
         <v>1Y</v>
       </c>
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="186" t="str">
+      <c r="C26" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPYSWD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D26" s="186" t="str">
+      <c r="D26" s="154" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E26" s="199" t="str">
+        <v>JPYSWD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E26" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
         <v/>
       </c>
-      <c r="F26" s="198"/>
+      <c r="F26" s="166"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="163" t="s">
+      <c r="H26" s="157"/>
+      <c r="I26" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="218" t="e">
+      <c r="J26" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J35,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K26" s="156"/>
-      <c r="L26" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M26" s="140"/>
-      <c r="N26" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O26" s="170" t="e">
+      <c r="K26" s="124"/>
+      <c r="L26" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M26" s="121"/>
+      <c r="N26" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O26" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND(N26,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P26" s="190"/>
-    </row>
-    <row r="27" spans="1:16" s="231" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="205"/>
-      <c r="B27" s="200" t="s">
+      <c r="P26" s="158"/>
+    </row>
+    <row r="27" spans="1:16" s="190" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="173"/>
+      <c r="B27" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="186" t="str">
+      <c r="C27" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY2WD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D27" s="186" t="str">
+      <c r="D27" s="154" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E27" s="199" t="str">
+        <v>JPY2WD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E27" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
         <v/>
       </c>
-      <c r="F27" s="198"/>
+      <c r="F27" s="166"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="163" t="s">
+      <c r="H27" s="157"/>
+      <c r="I27" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="218" t="e">
+      <c r="J27" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J36,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K27" s="156"/>
-      <c r="L27" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M27" s="140"/>
-      <c r="N27" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O27" s="170" t="e">
+      <c r="K27" s="124"/>
+      <c r="L27" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M27" s="121"/>
+      <c r="N27" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND(N27,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P27" s="190"/>
+      <c r="P27" s="158"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="205"/>
-      <c r="B28" s="200" t="s">
+      <c r="A28" s="173"/>
+      <c r="B28" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="186" t="str">
+      <c r="C28" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY3WD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D28" s="186" t="str">
+      <c r="D28" s="154" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E28" s="199" t="str">
+        <v>JPY3WD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E28" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
         <v/>
       </c>
-      <c r="F28" s="198"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="163" t="s">
+      <c r="F28" s="166"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="218" t="e">
+      <c r="J28" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J37,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K28" s="156"/>
-      <c r="L28" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M28" s="140"/>
-      <c r="N28" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O28" s="170" t="e">
+      <c r="K28" s="124"/>
+      <c r="L28" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M28" s="121"/>
+      <c r="N28" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O28" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND(N28,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P28" s="190"/>
+      <c r="P28" s="158"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="205"/>
-      <c r="B29" s="200" t="s">
+      <c r="A29" s="173"/>
+      <c r="B29" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="186" t="str">
+      <c r="C29" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY1MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D29" s="186" t="str">
+      <c r="D29" s="154" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E29" s="199" t="str">
+        <v>JPY1MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E29" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
         <v/>
       </c>
-      <c r="F29" s="198"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="163" t="s">
+      <c r="F29" s="166"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="218" t="e">
+      <c r="J29" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J38,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K29" s="156"/>
-      <c r="L29" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M29" s="140"/>
-      <c r="N29" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O29" s="170" t="e">
+      <c r="K29" s="124"/>
+      <c r="L29" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M29" s="121"/>
+      <c r="N29" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND(N29,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P29" s="190"/>
+      <c r="P29" s="158"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="205"/>
-      <c r="B30" s="200" t="s">
+      <c r="A30" s="173"/>
+      <c r="B30" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="186" t="str">
+      <c r="C30" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY2MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D30" s="186" t="str">
+      <c r="D30" s="154" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E30" s="199" t="str">
+        <v>JPY2MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E30" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
         <v/>
       </c>
-      <c r="F30" s="198"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="163" t="s">
+      <c r="F30" s="166"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="218" t="e">
+      <c r="J30" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J39,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K30" s="156"/>
-      <c r="L30" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M30" s="140"/>
-      <c r="N30" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O30" s="170" t="e">
+      <c r="K30" s="124"/>
+      <c r="L30" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M30" s="121"/>
+      <c r="N30" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND(N30,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P30" s="190"/>
+      <c r="P30" s="158"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="205"/>
-      <c r="B31" s="200" t="s">
+      <c r="A31" s="173"/>
+      <c r="B31" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="186" t="str">
+      <c r="C31" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY3MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D31" s="186" t="str">
+      <c r="D31" s="154" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E31" s="199" t="str">
+        <v>JPY3MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E31" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
         <v/>
       </c>
-      <c r="F31" s="198"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="163" t="s">
+      <c r="F31" s="166"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="218" t="e">
+      <c r="J31" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J40,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K31" s="156"/>
-      <c r="L31" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M31" s="140"/>
-      <c r="N31" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O31" s="170" t="e">
+      <c r="K31" s="124"/>
+      <c r="L31" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M31" s="121"/>
+      <c r="N31" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O31" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND(N31,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P31" s="190"/>
+      <c r="P31" s="158"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="205"/>
-      <c r="B32" s="200" t="s">
+      <c r="A32" s="173"/>
+      <c r="B32" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="186" t="str">
+      <c r="C32" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY4MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D32" s="186" t="str">
+      <c r="D32" s="154" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E32" s="199" t="str">
+        <v>JPY4MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E32" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
         <v/>
       </c>
-      <c r="F32" s="198"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="163" t="s">
+      <c r="F32" s="166"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="218" t="e">
+      <c r="J32" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J41,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K32" s="156"/>
-      <c r="L32" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M32" s="140"/>
-      <c r="N32" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O32" s="170" t="e">
+      <c r="K32" s="124"/>
+      <c r="L32" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M32" s="121"/>
+      <c r="N32" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O32" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND(N32,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P32" s="190"/>
+      <c r="P32" s="158"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="205"/>
-      <c r="B33" s="200" t="s">
+      <c r="A33" s="173"/>
+      <c r="B33" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="186" t="str">
+      <c r="C33" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY5MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D33" s="186" t="str">
+      <c r="D33" s="154" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E33" s="199" t="str">
+        <v>JPY5MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E33" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
         <v/>
       </c>
-      <c r="F33" s="198"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="163" t="s">
+      <c r="F33" s="166"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="218" t="e">
+      <c r="J33" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J42,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K33" s="156"/>
-      <c r="L33" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M33" s="140"/>
-      <c r="N33" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O33" s="170" t="e">
+      <c r="K33" s="124"/>
+      <c r="L33" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M33" s="121"/>
+      <c r="N33" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O33" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND(N33,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P33" s="190"/>
+      <c r="P33" s="158"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="205"/>
-      <c r="B34" s="200" t="s">
+      <c r="A34" s="173"/>
+      <c r="B34" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="186" t="str">
+      <c r="C34" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY6MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D34" s="186" t="str">
+      <c r="D34" s="154" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E34" s="199" t="str">
+        <v>JPY6MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E34" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
         <v/>
       </c>
-      <c r="F34" s="198"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="163" t="s">
+      <c r="F34" s="166"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="J34" s="218" t="e">
+      <c r="J34" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J43,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K34" s="156"/>
-      <c r="L34" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M34" s="140"/>
-      <c r="N34" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O34" s="170" t="e">
+      <c r="K34" s="124"/>
+      <c r="L34" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M34" s="121"/>
+      <c r="N34" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O34" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND(N34,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P34" s="190"/>
+      <c r="P34" s="158"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="205"/>
-      <c r="B35" s="200" t="s">
+      <c r="A35" s="173"/>
+      <c r="B35" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="186" t="str">
+      <c r="C35" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY7MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D35" s="186" t="str">
+      <c r="D35" s="154" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY7MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E35" s="199" t="str">
+        <v>JPY7MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E35" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
         <v/>
       </c>
-      <c r="F35" s="198"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="163" t="s">
+      <c r="F35" s="166"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="218" t="e">
+      <c r="J35" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J44,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K35" s="156"/>
-      <c r="L35" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M35" s="140"/>
-      <c r="N35" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O35" s="170" t="e">
+      <c r="K35" s="124"/>
+      <c r="L35" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M35" s="121"/>
+      <c r="N35" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O35" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND(N35,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P35" s="190"/>
+      <c r="P35" s="158"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="205"/>
-      <c r="B36" s="200" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="186" t="str">
+      <c r="C36" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY8MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D36" s="186" t="str">
+      <c r="D36" s="154" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY8MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E36" s="199" t="str">
+        <v>JPY8MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E36" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
         <v/>
       </c>
-      <c r="F36" s="198"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="163" t="s">
+      <c r="F36" s="166"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="218" t="e">
+      <c r="J36" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J45,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K36" s="156"/>
-      <c r="L36" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M36" s="140"/>
-      <c r="N36" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O36" s="170" t="e">
+      <c r="K36" s="124"/>
+      <c r="L36" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M36" s="121"/>
+      <c r="N36" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O36" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND(N36,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P36" s="190"/>
+      <c r="P36" s="158"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="205"/>
-      <c r="B37" s="200" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="186" t="str">
+      <c r="C37" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY9MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D37" s="186" t="str">
+      <c r="D37" s="154" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY9MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E37" s="199" t="str">
+        <v>JPY9MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E37" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
         <v/>
       </c>
-      <c r="F37" s="198"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="163" t="s">
+      <c r="F37" s="166"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="218" t="e">
+      <c r="J37" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J46,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K37" s="156"/>
-      <c r="L37" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M37" s="140"/>
-      <c r="N37" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O37" s="170" t="e">
+      <c r="K37" s="124"/>
+      <c r="L37" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M37" s="121"/>
+      <c r="N37" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O37" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND(N37,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P37" s="190"/>
+      <c r="P37" s="158"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="205"/>
-      <c r="B38" s="200" t="s">
+      <c r="A38" s="173"/>
+      <c r="B38" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="186" t="str">
+      <c r="C38" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY10MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D38" s="186" t="str">
+      <c r="D38" s="154" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY10MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E38" s="199" t="str">
+        <v>JPY10MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E38" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
         <v/>
       </c>
-      <c r="F38" s="198"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="163" t="s">
+      <c r="F38" s="166"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="218" t="e">
+      <c r="J38" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J47,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K38" s="156"/>
-      <c r="L38" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M38" s="140"/>
-      <c r="N38" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O38" s="170" t="e">
+      <c r="K38" s="124"/>
+      <c r="L38" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M38" s="121"/>
+      <c r="N38" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O38" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND(N38,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P38" s="190"/>
+      <c r="P38" s="158"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="205"/>
-      <c r="B39" s="200" t="s">
+      <c r="A39" s="173"/>
+      <c r="B39" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="186" t="str">
+      <c r="C39" s="154" t="str">
         <f t="shared" si="3"/>
         <v>JPY11MD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D39" s="186" t="str">
+      <c r="D39" s="154" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY11MD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E39" s="199" t="str">
+        <v>JPY11MD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E39" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
         <v/>
       </c>
-      <c r="F39" s="198"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="163" t="s">
+      <c r="F39" s="166"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="218" t="e">
+      <c r="J39" s="186" t="e">
         <f>ROUND(Depo_Calculation!$J48,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K39" s="156"/>
-      <c r="L39" s="166" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M39" s="140"/>
-      <c r="N39" s="169" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O39" s="170" t="e">
+      <c r="K39" s="124"/>
+      <c r="L39" s="134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M39" s="121"/>
+      <c r="N39" s="137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O39" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND(N39,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P39" s="190"/>
+      <c r="P39" s="158"/>
     </row>
     <row r="40" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="207"/>
-      <c r="B40" s="192" t="s">
+      <c r="A40" s="175"/>
+      <c r="B40" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="193" t="str">
+      <c r="C40" s="161" t="str">
         <f t="shared" si="3"/>
         <v>JPY1YD_SYNTH1Y_Quote</v>
       </c>
-      <c r="D40" s="193" t="str">
+      <c r="D40" s="161" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1YD_SYNTH1Y_Quote#0000</v>
-      </c>
-      <c r="E40" s="208" t="str">
+        <v>JPY1YD_SYNTH1Y_Quote#0004</v>
+      </c>
+      <c r="E40" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
         <v/>
       </c>
-      <c r="F40" s="209"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="165" t="s">
+      <c r="F40" s="177"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="219" t="e">
+      <c r="J40" s="187" t="e">
         <f>ROUND(Depo_Calculation!$J49,6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="K40" s="211"/>
-      <c r="L40" s="168" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M40" s="212"/>
-      <c r="N40" s="172" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O40" s="170" t="e">
+      <c r="K40" s="179"/>
+      <c r="L40" s="136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M40" s="180"/>
+      <c r="N40" s="140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O40" s="138" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND(N40,6),EvaluationDate)</f>
         <v>#NUM!</v>
       </c>
-      <c r="P40" s="190"/>
+      <c r="P40" s="158"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="233"/>
-      <c r="B41" s="233"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="233"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="233"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="233"/>
-      <c r="M41" s="233"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="233"/>
-      <c r="P41" s="233"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="192"/>
+      <c r="O41" s="192"/>
+      <c r="P41" s="192"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
